--- a/assessment3/submission/assessment3_calcs.xlsx
+++ b/assessment3/submission/assessment3_calcs.xlsx
@@ -8,47 +8,89 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment3\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29BB7D6-088C-49E5-85D5-F36FC5EFDA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3540589F-DB83-4448-A46A-4461BD4B71CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Answer Report 1" sheetId="4" r:id="rId1"/>
-    <sheet name="Task1" sheetId="1" r:id="rId2"/>
-    <sheet name="Task2" sheetId="2" r:id="rId3"/>
-    <sheet name="Task3" sheetId="3" r:id="rId4"/>
+    <sheet name="Task1" sheetId="1" r:id="rId1"/>
+    <sheet name="Answer Report 1" sheetId="9" r:id="rId2"/>
+    <sheet name="Sensitivity Report 1" sheetId="10" r:id="rId3"/>
+    <sheet name="Limits Report 1" sheetId="11" r:id="rId4"/>
+    <sheet name="Task2" sheetId="7" r:id="rId5"/>
+    <sheet name="Answer Report 2" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Task1!$B$8:$D$8</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Task1!$E$14:$E$19</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Task1!$C$3</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Task1!$F$14:$F$19</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Task1!$B$8:$D$8</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Task2!$B$8:$H$8</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Task1!$E$14:$E$19</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Task2!$B$8:$H$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Task1!$E$14:$E$19</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Task2!$B$8:$H$8</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Task2!$I$14:$I$20</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Task1!$C$3</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Task2!$C$3</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Task1!$F$14:$F$19</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Task1!$F$14:$F$19</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">Task2!$J$14:$J$20</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,10 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
-  <si>
-    <t>Task 1 - Chanachur</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="142">
   <si>
     <t>objective function</t>
   </si>
@@ -127,9 +166,6 @@
     <t>Worksheet: [assessment3_calcs.xlsx]Task1</t>
   </si>
   <si>
-    <t>Report Created: 13/02/2023 11:37:34 PM</t>
-  </si>
-  <si>
     <t>Result: Solver found a solution.  All Constraints and optimality conditions are satisfied.</t>
   </si>
   <si>
@@ -139,9 +175,6 @@
     <t>Engine: Simplex LP</t>
   </si>
   <si>
-    <t>Solution Time: 0.015 Seconds.</t>
-  </si>
-  <si>
     <t>Iterations: 2 Subproblems: 0</t>
   </si>
   <si>
@@ -151,9 +184,6 @@
     <t>Max Time Unlimited,  Iterations Unlimited, Precision 0.000001</t>
   </si>
   <si>
-    <t>Max Subproblems Unlimited, Max Integer Sols Unlimited, Integer Tolerance 1%, Assume NonNegative</t>
-  </si>
-  <si>
     <t>Objective Cell (Min)</t>
   </si>
   <si>
@@ -269,6 +299,246 @@
   </si>
   <si>
     <t>$E$19&lt;=$F$19</t>
+  </si>
+  <si>
+    <t>Task 1 - Chanachur - Linear Programming</t>
+  </si>
+  <si>
+    <t>Task 2 - Staff Roster - Integer Programming</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>optimal cost =</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>optimal</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>tue</t>
+  </si>
+  <si>
+    <t>wed</t>
+  </si>
+  <si>
+    <t>thu</t>
+  </si>
+  <si>
+    <t>fri</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>Worksheet: [assessment3_calcs.xlsx]Task2</t>
+  </si>
+  <si>
+    <t>Report Created: 14/02/2023 8:54:37 PM</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.031 Seconds.</t>
+  </si>
+  <si>
+    <t>Iterations: 2 Subproblems: 16</t>
+  </si>
+  <si>
+    <t>Max Subproblems Unlimited, Max Integer Sols Unlimited, Integer Tolerance 0%, Assume NonNegative</t>
+  </si>
+  <si>
+    <t>$E$8</t>
+  </si>
+  <si>
+    <t>value x4</t>
+  </si>
+  <si>
+    <t>$F$8</t>
+  </si>
+  <si>
+    <t>value x5</t>
+  </si>
+  <si>
+    <t>$G$8</t>
+  </si>
+  <si>
+    <t>value x6</t>
+  </si>
+  <si>
+    <t>$H$8</t>
+  </si>
+  <si>
+    <t>value x7</t>
+  </si>
+  <si>
+    <t>$I$14</t>
+  </si>
+  <si>
+    <t>sun optimal</t>
+  </si>
+  <si>
+    <t>$I$14&gt;=$J$14</t>
+  </si>
+  <si>
+    <t>$I$15</t>
+  </si>
+  <si>
+    <t>mon optimal</t>
+  </si>
+  <si>
+    <t>$I$15&gt;=$J$15</t>
+  </si>
+  <si>
+    <t>$I$16</t>
+  </si>
+  <si>
+    <t>tue optimal</t>
+  </si>
+  <si>
+    <t>$I$16&gt;=$J$16</t>
+  </si>
+  <si>
+    <t>$I$17</t>
+  </si>
+  <si>
+    <t>wed optimal</t>
+  </si>
+  <si>
+    <t>$I$17&gt;=$J$17</t>
+  </si>
+  <si>
+    <t>$I$18</t>
+  </si>
+  <si>
+    <t>thu optimal</t>
+  </si>
+  <si>
+    <t>$I$18&gt;=$J$18</t>
+  </si>
+  <si>
+    <t>$I$19</t>
+  </si>
+  <si>
+    <t>fri optimal</t>
+  </si>
+  <si>
+    <t>$I$19&gt;=$J$19</t>
+  </si>
+  <si>
+    <t>$I$20</t>
+  </si>
+  <si>
+    <t>sat optimal</t>
+  </si>
+  <si>
+    <t>$I$20&gt;=$J$20</t>
+  </si>
+  <si>
+    <t>$B$8&gt;=1</t>
+  </si>
+  <si>
+    <t>$C$8&gt;=1</t>
+  </si>
+  <si>
+    <t>$D$8&gt;=1</t>
+  </si>
+  <si>
+    <t>$E$8&gt;=1</t>
+  </si>
+  <si>
+    <t>$F$8&gt;=1</t>
+  </si>
+  <si>
+    <t>$G$8&gt;=1</t>
+  </si>
+  <si>
+    <t>$H$8&gt;=1</t>
+  </si>
+  <si>
+    <t>$B$8:$H$8=Integer</t>
+  </si>
+  <si>
+    <t>Report Created: 14/02/2023 8:59:40 PM</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.016 Seconds.</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Allowable</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>R.H. Side</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Limits Report</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Upper</t>
   </si>
 </sst>
 </file>
@@ -276,7 +546,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -311,7 +581,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -350,11 +620,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -362,7 +650,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -371,6 +659,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,10 +978,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E5D5FA-D32F-49B0-AE89-B6BA1391F40D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4162E19D-C445-470E-963A-FE34E7B1E4D2}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="4" width="6.4140625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>SUMPRODUCT(B8:D8,B9:D9)</f>
+        <v>1.3200000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0.35</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <f>-1/4</f>
+        <v>-0.25</v>
+      </c>
+      <c r="C14" s="5">
+        <f>-3/8</f>
+        <v>-0.375</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <f>SUMPRODUCT($B$8:$D$8, B14:D14)</f>
+        <v>-3.0000000000000004</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E21" si="0">SUMPRODUCT($B$8:$D$8, B15:D15)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>400</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <f>SUMPRODUCT($B$8:$D$8, B16:D16)</f>
+        <v>480.00000000000006</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f>SUMPRODUCT($B$8:$D$8, B17:D17)</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3">
+        <f>-1/5</f>
+        <v>-0.2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E18">
+        <f>SUMPRODUCT($B$8:$D$8, B18:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3">
+        <v>-0.15</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-0.15</v>
+      </c>
+      <c r="E19">
+        <f>SUMPRODUCT($B$8:$D$8, B19:D19)</f>
+        <v>-0.72000000000000008</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A1F9B0-65AC-42D6-865C-698C26A6F652}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -702,87 +1219,87 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="10">
         <v>0</v>
@@ -793,32 +1310,32 @@
     </row>
     <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D21" s="11">
         <v>0</v>
@@ -827,15 +1344,15 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D22" s="11">
         <v>0</v>
@@ -844,15 +1361,15 @@
         <v>0</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D23" s="10">
         <v>0</v>
@@ -861,49 +1378,49 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B28" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D28" s="11">
         <v>-3.0000000000000004</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G28" s="9">
         <v>0</v>
@@ -911,19 +1428,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B29" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="11">
         <v>3.0000000000000004</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G29" s="9">
         <v>0.99999999999999956</v>
@@ -931,306 +1448,82 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B30" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D30" s="11">
-        <v>0</v>
+        <v>480.00000000000006</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" s="9">
-        <v>0</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B31" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D31" s="11">
-        <v>-0.72000000000000008</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G31" s="9">
-        <v>0.72000000000000008</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B32" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D32" s="11">
-        <v>480.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G32" s="9">
-        <v>520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D33" s="10">
-        <v>2.4000000000000004</v>
+        <v>-0.72000000000000008</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7">
-        <v>22.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4162E19D-C445-470E-963A-FE34E7B1E4D2}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="4" width="6.4140625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <f>SUMPRODUCT(B8:D8,B9:D9)</f>
-        <v>1.3200000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.35</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="D9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <f>-1/4</f>
-        <v>-0.25</v>
-      </c>
-      <c r="C14" s="5">
-        <f>-3/8</f>
-        <v>-0.375</v>
-      </c>
-      <c r="D14" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="6">
-        <f>SUMPRODUCT($B$8:$D$8, B14:D14)</f>
-        <v>-3.0000000000000004</v>
-      </c>
-      <c r="F14" s="4">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" ref="E15:E19" si="0">SUMPRODUCT($B$8:$D$8, B15:D15)</f>
-        <v>3.0000000000000004</v>
-      </c>
-      <c r="F15" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <f>-1/5</f>
-        <v>-0.2</v>
-      </c>
-      <c r="C16" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>-0.15</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-0.15</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.72000000000000008</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="6">
-        <v>150</v>
-      </c>
-      <c r="C18" s="6">
-        <v>400</v>
-      </c>
-      <c r="D18" s="6">
-        <v>50</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" si="0"/>
-        <v>480.00000000000006</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6">
-        <v>10</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="F19" s="6">
-        <v>25</v>
+        <v>0.72000000000000008</v>
       </c>
     </row>
   </sheetData>
@@ -1239,25 +1532,1440 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7481821-FB16-4D60-B8E7-94412A74C758}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8DD70E-CA22-4686-99BD-A8BA266502AE}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.08203125" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1E+30</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.29999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.42499999999999993</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1E+30</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.42499999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1.1333333333333331</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="9">
+        <v>-3.0000000000000004</v>
+      </c>
+      <c r="E16" s="9">
+        <v>-0.44000000000000006</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-3</v>
+      </c>
+      <c r="G16" s="9">
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.99999999999999956</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="9">
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>4</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1E+30</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.99999999999999956</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="9">
+        <v>480.00000000000006</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1E+30</v>
+      </c>
+      <c r="H18" s="9">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>25</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1E+30</v>
+      </c>
+      <c r="H19" s="9">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>-1.1999999999999997</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.94545454545454544</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="7">
+        <v>-0.72000000000000008</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1E+30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.7200000000000002</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DF70B5-E743-4643-B43A-DD2AF71157BF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AEAE38-3AEC-465C-BA5D-4B83214DE6CE}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.08203125" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.08203125" customWidth="1"/>
+    <col min="6" max="6" width="5.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.08203125" customWidth="1"/>
+    <col min="9" max="10" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1.3200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2.3999999999999986</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1.3199999999999994</v>
+      </c>
+      <c r="I13" s="11">
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="J13" s="11">
+        <v>2.5333333333333332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1.3200000000000003</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1.3200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1.32</v>
+      </c>
+      <c r="I15" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6620A867-E7CD-4E2A-B79B-958F5160BFCC}">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="8" width="6.08203125" customWidth="1"/>
+    <col min="9" max="9" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="6.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <f>SUMPRODUCT(B8:H8,B9:H9)</f>
+        <v>22410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>900</v>
+      </c>
+      <c r="C9">
+        <v>850</v>
+      </c>
+      <c r="D9">
+        <v>920</v>
+      </c>
+      <c r="E9">
+        <v>860</v>
+      </c>
+      <c r="F9">
+        <v>780</v>
+      </c>
+      <c r="G9">
+        <v>910</v>
+      </c>
+      <c r="H9">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>SUMPRODUCT($B$8:$H$8,B14:H14)</f>
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I20" si="0">SUMPRODUCT($B$8:$H$8,B15:H15)</f>
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J17">
+        <v>18</v>
+      </c>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>21</v>
+      </c>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J20">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEE27E3-99CF-4EDC-A4A8-33FCA6991B68}">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.08203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>22410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>5</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>8</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>3</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>4</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>3</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="11">
+        <v>18</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="11">
+        <v>13</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="11">
+        <v>15</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="11">
+        <v>22</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="11">
+        <v>21</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="11">
+        <v>20</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="11">
+        <v>21</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="11">
+        <v>5</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="11">
+        <v>8</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="11">
+        <v>3</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B42" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="11">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="11">
+        <v>4</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="11">
+        <v>2</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="11">
+        <v>3</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assessment3/submission/assessment3_calcs.xlsx
+++ b/assessment3/submission/assessment3_calcs.xlsx
@@ -8,89 +8,89 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment3\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3540589F-DB83-4448-A46A-4461BD4B71CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02941A5A-05C3-418A-9012-89980839E717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="3" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
-    <sheet name="Answer Report 1" sheetId="9" r:id="rId2"/>
-    <sheet name="Sensitivity Report 1" sheetId="10" r:id="rId3"/>
-    <sheet name="Limits Report 1" sheetId="11" r:id="rId4"/>
-    <sheet name="Task2" sheetId="7" r:id="rId5"/>
+    <sheet name="Task2" sheetId="7" r:id="rId2"/>
+    <sheet name="Answer Report 1" sheetId="9" r:id="rId3"/>
+    <sheet name="Sensitivity Report 1" sheetId="10" r:id="rId4"/>
+    <sheet name="Limits Report 1" sheetId="11" r:id="rId5"/>
     <sheet name="Answer Report 2" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Task1!$B$8:$D$8</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">Task2!$B$8:$H$8</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Task2!$B$8:$H$8</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Task1!$E$14:$E$19</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Task2!$B$8:$H$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Task2!$B$8:$H$8</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Task1!$E$14:$E$19</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Task2!$B$8:$H$8</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Task2!$I$14:$I$20</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Task2!$B$8:$H$8</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Task2!$I$14:$I$20</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Task1!$C$3</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">Task2!$C$3</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Task2!$C$3</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Task1!$F$14:$F$19</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Task1!$F$14:$F$19</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">Task2!$J$14:$J$20</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Task2!$J$14:$J$20</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_tol" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -642,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -651,18 +651,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1106,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E21" si="0">SUMPRODUCT($B$8:$D$8, B15:D15)</f>
+        <f t="shared" ref="E15" si="0">SUMPRODUCT($B$8:$D$8, B15:D15)</f>
         <v>3.0000000000000004</v>
       </c>
       <c r="F15" s="4">
@@ -1201,6 +1198,344 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6620A867-E7CD-4E2A-B79B-958F5160BFCC}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="8" width="6.08203125" customWidth="1"/>
+    <col min="9" max="9" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="6.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <f>SUMPRODUCT(B8:H8,B9:H9)</f>
+        <v>22410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>900</v>
+      </c>
+      <c r="C9">
+        <v>850</v>
+      </c>
+      <c r="D9">
+        <v>920</v>
+      </c>
+      <c r="E9">
+        <v>860</v>
+      </c>
+      <c r="F9">
+        <v>780</v>
+      </c>
+      <c r="G9">
+        <v>910</v>
+      </c>
+      <c r="H9">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>SUMPRODUCT($B$8:$H$8,B14:H14)</f>
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I20" si="0">SUMPRODUCT($B$8:$H$8,B15:H15)</f>
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="J17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J20">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A1F9B0-65AC-42D6-865C-698C26A6F652}">
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -1281,30 +1616,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="C16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
         <v>1.3200000000000003</v>
       </c>
     </row>
@@ -1314,70 +1649,70 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
         <v>2.4000000000000004</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="11">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9" t="s">
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
         <v>2.4000000000000004</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1387,142 +1722,142 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="8">
         <v>-3.0000000000000004</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="8">
         <v>3.0000000000000004</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>0.99999999999999956</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="8">
         <v>480.00000000000006</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="8">
         <v>2.4000000000000004</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <v>22.6</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="11">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="6">
         <v>-0.72000000000000008</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>0.72000000000000008</v>
       </c>
     </row>
@@ -1531,7 +1866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8DD70E-CA22-4686-99BD-A8BA266502AE}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -1569,113 +1904,113 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>2.4000000000000004</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
         <v>0.35</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>1E+30</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>0.29999999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
         <v>0.42499999999999993</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>0.5</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>1E+30</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>0.42499999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>2.4000000000000004</v>
       </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
         <v>0.20000000000000007</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>1.1333333333333331</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -1685,182 +2020,182 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>-3.0000000000000004</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>-0.44000000000000006</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>-3</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>3.0000000000000004</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>0.99999999999999956</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>3.0000000000000004</v>
       </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
         <v>4</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>1E+30</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>0.99999999999999956</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>480.00000000000006</v>
       </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
         <v>1000</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>1E+30</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>520</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>2.4000000000000004</v>
       </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
         <v>25</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>1E+30</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>22.6</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
         <v>-1.1999999999999997</v>
       </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
         <v>0.60000000000000009</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>0.94545454545454544</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>-0.72000000000000008</v>
       </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
         <v>1E+30</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>0.7200000000000002</v>
       </c>
     </row>
@@ -1869,11 +2204,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AEAE38-3AEC-465C-BA5D-4B83214DE6CE}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -1907,495 +2242,148 @@
     </row>
     <row r="5" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
         <v>1.3200000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="F11" s="12" t="s">
+      <c r="D11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>2.4000000000000004</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>2.3999999999999986</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="8">
         <v>1.3199999999999994</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="8">
         <v>5.8666666666666663</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="8">
         <v>2.5333333333333332</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
         <v>1.3200000000000003</v>
       </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
         <v>1.3200000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
         <v>2.4000000000000004</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="6">
         <v>2.4</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="6">
         <v>1.32</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="6">
         <v>2.4</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="6">
         <v>1.32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6620A867-E7CD-4E2A-B79B-958F5160BFCC}">
-  <dimension ref="A1:O20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="8" width="6.08203125" customWidth="1"/>
-    <col min="9" max="9" width="7.75" customWidth="1"/>
-    <col min="10" max="10" width="6.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3">
-        <f>SUMPRODUCT(B8:H8,B9:H9)</f>
-        <v>22410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>900</v>
-      </c>
-      <c r="C9">
-        <v>850</v>
-      </c>
-      <c r="D9">
-        <v>920</v>
-      </c>
-      <c r="E9">
-        <v>860</v>
-      </c>
-      <c r="F9">
-        <v>780</v>
-      </c>
-      <c r="G9">
-        <v>910</v>
-      </c>
-      <c r="H9">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <f>SUMPRODUCT($B$8:$H$8,B14:H14)</f>
-        <v>18</v>
-      </c>
-      <c r="J14">
-        <v>18</v>
-      </c>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ref="I15:I20" si="0">SUMPRODUCT($B$8:$H$8,B15:H15)</f>
-        <v>13</v>
-      </c>
-      <c r="J15">
-        <v>13</v>
-      </c>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J16">
-        <v>15</v>
-      </c>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="J17">
-        <v>18</v>
-      </c>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="J18">
-        <v>21</v>
-      </c>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="J19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="J20">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2482,30 +2470,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
         <v>22410</v>
       </c>
     </row>
@@ -2515,138 +2503,138 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
         <v>5</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="11">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11">
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
         <v>8</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="11">
-        <v>0</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
         <v>3</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="11">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
         <v>4</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="11">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
         <v>2</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
         <v>3</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2656,314 +2644,314 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="8">
         <v>18</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="8">
         <v>13</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="8">
         <v>15</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="8">
         <v>22</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="8">
         <v>21</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="8">
         <v>20</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="8">
         <v>21</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="8">
         <v>5</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="8">
         <v>8</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="8">
         <v>3</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="11">
-        <v>1</v>
-      </c>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="8">
         <v>4</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="8">
         <v>2</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="8">
         <v>3</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assessment3/submission/assessment3_calcs.xlsx
+++ b/assessment3/submission/assessment3_calcs.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment3\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02941A5A-05C3-418A-9012-89980839E717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73443AA7-7F24-4E3E-B3BE-929D87BD8034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
     <sheet name="Task2" sheetId="7" r:id="rId2"/>
-    <sheet name="Answer Report 1" sheetId="9" r:id="rId3"/>
-    <sheet name="Sensitivity Report 1" sheetId="10" r:id="rId4"/>
-    <sheet name="Limits Report 1" sheetId="11" r:id="rId5"/>
-    <sheet name="Answer Report 2" sheetId="8" r:id="rId6"/>
+    <sheet name="Task3 Data" sheetId="12" r:id="rId3"/>
+    <sheet name="AnsReport1" sheetId="9" r:id="rId4"/>
+    <sheet name="SensReport1" sheetId="10" r:id="rId5"/>
+    <sheet name="LimitReport1" sheetId="11" r:id="rId6"/>
+    <sheet name="AnsReport2" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Task1!$B$8:$D$8</definedName>
@@ -76,7 +77,7 @@
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
@@ -113,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
   <si>
     <t>objective function</t>
   </si>
@@ -539,16 +540,110 @@
   </si>
   <si>
     <t>Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimal cost = </t>
+  </si>
+  <si>
+    <t>Task 3 - Research and Analysis</t>
+  </si>
+  <si>
+    <t>Data Collection</t>
+  </si>
+  <si>
+    <t>government schools</t>
+  </si>
+  <si>
+    <t>non-government schools</t>
+  </si>
+  <si>
+    <t>Hallam Secondary School</t>
+  </si>
+  <si>
+    <t>Alkira Secondary College</t>
+  </si>
+  <si>
+    <t>Berwick Secondary College</t>
+  </si>
+  <si>
+    <t>St Peter's College</t>
+  </si>
+  <si>
+    <t>Cranbourne East Secondary School</t>
+  </si>
+  <si>
+    <t>Gleneagles Secondary College</t>
+  </si>
+  <si>
+    <t>Hampton Park Secondary College</t>
+  </si>
+  <si>
+    <t>Fountain Gate Secondary College</t>
+  </si>
+  <si>
+    <t>Kambrya College</t>
+  </si>
+  <si>
+    <t>Lyndhurst Secondary College</t>
+  </si>
+  <si>
+    <t>Cranbourne West Secondary College</t>
+  </si>
+  <si>
+    <t>Maranatha Christian School</t>
+  </si>
+  <si>
+    <t>Casey Grammar School</t>
+  </si>
+  <si>
+    <t>Doveton College</t>
+  </si>
+  <si>
+    <t>Narre Warren South P-12 College</t>
+  </si>
+  <si>
+    <t>Timbarra P-9 College</t>
+  </si>
+  <si>
+    <t>Heritage College</t>
+  </si>
+  <si>
+    <t>Beaconhills Christian College</t>
+  </si>
+  <si>
+    <t>SRS base amount for secondary 2023</t>
+  </si>
+  <si>
+    <t>enrolments 2021</t>
+  </si>
+  <si>
+    <t>St Margaret's Berwick Grammar</t>
+  </si>
+  <si>
+    <t>Hillcrest Christian College (2 campuses)</t>
+  </si>
+  <si>
+    <t>Haileybury College ( 4 campuses)</t>
+  </si>
+  <si>
+    <t>St Francis Xavier College ( 3 campuses)</t>
+  </si>
+  <si>
+    <t>from acara</t>
+  </si>
+  <si>
+    <t>net recurrent 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -568,6 +663,21 @@
       <b/>
       <sz val="12"/>
       <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -639,10 +749,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -662,8 +773,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -978,9 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4162E19D-C445-470E-963A-FE34E7B1E4D2}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -989,14 +1105,14 @@
     <col min="6" max="6" width="7.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="C3">
         <f>SUMPRODUCT(B8:D8,B9:D9)</f>
@@ -1201,9 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6620A867-E7CD-4E2A-B79B-958F5160BFCC}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1212,8 +1326,8 @@
     <col min="10" max="10" width="6.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1536,10 +1650,233 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78903A60-8BB6-4E47-90D1-364626DC8C8F}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" s="12">
+        <v>14761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="12">
+        <v>683</v>
+      </c>
+      <c r="C24" s="14">
+        <v>19182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="12">
+        <v>792</v>
+      </c>
+      <c r="C25" s="14">
+        <v>27162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="12">
+        <v>973</v>
+      </c>
+      <c r="C26" s="14">
+        <v>19602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="12">
+        <v>4206</v>
+      </c>
+      <c r="C27" s="14">
+        <v>30336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="12">
+        <v>3296</v>
+      </c>
+      <c r="C28" s="14">
+        <v>15834</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="12">
+        <v>1637</v>
+      </c>
+      <c r="C29" s="14">
+        <v>19356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="12">
+        <v>413</v>
+      </c>
+      <c r="C30" s="14">
+        <v>19788</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="12">
+        <v>1819</v>
+      </c>
+      <c r="C31" s="14">
+        <v>17303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A1F9B0-65AC-42D6-865C-698C26A6F652}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1866,7 +2203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8DD70E-CA22-4686-99BD-A8BA266502AE}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -2204,7 +2541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AEAE38-3AEC-465C-BA5D-4B83214DE6CE}">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -2387,11 +2724,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEE27E3-99CF-4EDC-A4A8-33FCA6991B68}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>

--- a/assessment3/submission/assessment3_calcs.xlsx
+++ b/assessment3/submission/assessment3_calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment3\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73443AA7-7F24-4E3E-B3BE-929D87BD8034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDBB7AA-4BC0-4D85-BECE-F4E91A039772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="181">
   <si>
     <t>objective function</t>
   </si>
@@ -557,9 +557,6 @@
     <t>non-government schools</t>
   </si>
   <si>
-    <t>Hallam Secondary School</t>
-  </si>
-  <si>
     <t>Alkira Secondary College</t>
   </si>
   <si>
@@ -611,12 +608,6 @@
     <t>Beaconhills Christian College</t>
   </si>
   <si>
-    <t>SRS base amount for secondary 2023</t>
-  </si>
-  <si>
-    <t>enrolments 2021</t>
-  </si>
-  <si>
     <t>St Margaret's Berwick Grammar</t>
   </si>
   <si>
@@ -633,6 +624,39 @@
   </si>
   <si>
     <t>net recurrent 2020</t>
+  </si>
+  <si>
+    <t>SRS base amount for secondary 2020</t>
+  </si>
+  <si>
+    <t>enrolments 2020</t>
+  </si>
+  <si>
+    <t>% year 7-9 students making above average progress</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>writing</t>
+  </si>
+  <si>
+    <t>numeracy</t>
+  </si>
+  <si>
+    <t>FTE non-teaching staff</t>
+  </si>
+  <si>
+    <t>2019-2021</t>
+  </si>
+  <si>
+    <t>Hallam Secondary College</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>used 2021 data due to new school</t>
   </si>
 </sst>
 </file>
@@ -753,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -779,6 +803,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1651,224 +1686,684 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78903A60-8BB6-4E47-90D1-364626DC8C8F}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.9140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="H4" t="s">
-        <v>165</v>
-      </c>
-      <c r="L4" s="12">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" s="12">
         <v>14761</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C6" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8">
+        <v>632</v>
+      </c>
+      <c r="C8" s="16">
+        <v>27.9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8">
+        <f>B8/C8</f>
+        <v>22.652329749103945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>1482</v>
+      </c>
+      <c r="C9">
+        <v>25.6</v>
+      </c>
+      <c r="D9">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <v>49</v>
+      </c>
+      <c r="F9">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I20" si="0">B9/C9</f>
+        <v>57.890625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10">
+        <v>706</v>
+      </c>
+      <c r="C10">
+        <v>55.8</v>
+      </c>
+      <c r="D10">
+        <v>57</v>
+      </c>
+      <c r="E10">
+        <v>47</v>
+      </c>
+      <c r="F10">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>12.652329749103943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11">
+        <v>2459</v>
+      </c>
+      <c r="C11">
+        <v>70.7</v>
+      </c>
+      <c r="D11">
+        <v>58</v>
+      </c>
+      <c r="E11">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>52</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>34.780763790664778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B12">
+        <v>1640</v>
+      </c>
+      <c r="C12">
+        <v>33.5</v>
+      </c>
+      <c r="D12">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>46</v>
+      </c>
+      <c r="F12">
+        <v>47</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>48.955223880597018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13">
+        <v>1539</v>
+      </c>
+      <c r="C13">
+        <v>44.5</v>
+      </c>
+      <c r="D13">
+        <v>58</v>
+      </c>
+      <c r="E13">
+        <v>57</v>
+      </c>
+      <c r="F13">
+        <v>52</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>34.584269662921351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B14">
+        <v>745</v>
+      </c>
+      <c r="C14">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D14">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>49</v>
+      </c>
+      <c r="F14">
+        <v>55</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>44.879518072289152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15">
+        <v>1488</v>
+      </c>
+      <c r="C15">
+        <v>35.5</v>
+      </c>
+      <c r="D15">
+        <v>57</v>
+      </c>
+      <c r="E15">
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <v>52</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>41.91549295774648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16">
+        <v>1143</v>
+      </c>
+      <c r="C16">
+        <v>53.6</v>
+      </c>
+      <c r="D16">
+        <v>57</v>
+      </c>
+      <c r="E16">
+        <v>54</v>
+      </c>
+      <c r="F16">
+        <v>52</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>21.32462686567164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17">
+        <v>1345</v>
+      </c>
+      <c r="C17">
+        <v>42.1</v>
+      </c>
+      <c r="D17">
+        <v>55</v>
+      </c>
+      <c r="E17">
+        <v>42</v>
+      </c>
+      <c r="F17">
+        <v>46</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>31.947743467933492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18">
+        <v>1609</v>
+      </c>
+      <c r="C18">
+        <v>47.3</v>
+      </c>
+      <c r="D18">
+        <v>57</v>
+      </c>
+      <c r="E18">
+        <v>48</v>
+      </c>
+      <c r="F18">
+        <v>43</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>34.016913319238903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19">
+        <v>609</v>
+      </c>
+      <c r="C19">
+        <v>23.5</v>
+      </c>
+      <c r="D19">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>48</v>
+      </c>
+      <c r="F19">
+        <v>52</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>25.914893617021278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20">
+        <v>204</v>
+      </c>
+      <c r="C20">
+        <v>7.4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>27.567567567567565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26">
+        <v>2928</v>
+      </c>
+      <c r="C26">
+        <v>111</v>
+      </c>
+      <c r="D26">
+        <v>42</v>
+      </c>
+      <c r="E26">
+        <v>39</v>
+      </c>
+      <c r="F26">
+        <v>37</v>
+      </c>
+      <c r="G26" s="18">
+        <v>16755</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="19">
+        <f>B26/C26</f>
+        <v>26.378378378378379</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="12">
+        <v>683</v>
+      </c>
+      <c r="C27">
+        <v>32.9</v>
+      </c>
+      <c r="D27">
+        <v>52</v>
+      </c>
+      <c r="E27">
+        <v>51</v>
+      </c>
+      <c r="F27">
+        <v>56</v>
+      </c>
+      <c r="G27" s="14">
+        <v>19182</v>
+      </c>
+      <c r="I27" s="19">
+        <f t="shared" ref="I27:I34" si="1">B27/C27</f>
+        <v>20.759878419452889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="12">
+        <v>792</v>
+      </c>
+      <c r="C28">
+        <v>42.6</v>
+      </c>
+      <c r="D28">
+        <v>53</v>
+      </c>
+      <c r="E28">
+        <v>57</v>
+      </c>
+      <c r="F28">
+        <v>52</v>
+      </c>
+      <c r="G28" s="14">
+        <v>27162</v>
+      </c>
+      <c r="I28" s="19">
+        <f t="shared" si="1"/>
+        <v>18.591549295774648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="12">
+        <v>973</v>
+      </c>
+      <c r="C29">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D29">
+        <v>54</v>
+      </c>
+      <c r="E29">
+        <v>56</v>
+      </c>
+      <c r="F29">
+        <v>45</v>
+      </c>
+      <c r="G29" s="14">
+        <v>19602</v>
+      </c>
+      <c r="I29" s="19">
+        <f t="shared" si="1"/>
+        <v>28.872403560830858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="12">
+        <v>4206</v>
+      </c>
+      <c r="C30">
+        <v>226.7</v>
+      </c>
+      <c r="D30">
+        <v>59</v>
+      </c>
+      <c r="E30">
+        <v>62</v>
+      </c>
+      <c r="F30">
+        <v>65</v>
+      </c>
+      <c r="G30" s="14">
+        <v>30336</v>
+      </c>
+      <c r="I30" s="19">
+        <f t="shared" si="1"/>
+        <v>18.553153947948832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="12">
+        <v>3296</v>
+      </c>
+      <c r="C31">
+        <v>163</v>
+      </c>
+      <c r="D31">
+        <v>54</v>
+      </c>
+      <c r="E31">
+        <v>55</v>
+      </c>
+      <c r="F31">
+        <v>46</v>
+      </c>
+      <c r="G31" s="14">
+        <v>15834</v>
+      </c>
+      <c r="I31" s="19">
+        <f t="shared" si="1"/>
+        <v>20.220858895705522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B32" s="12">
+        <v>1637</v>
+      </c>
+      <c r="C32">
+        <v>61.8</v>
+      </c>
+      <c r="D32">
+        <v>55</v>
+      </c>
+      <c r="E32">
+        <v>53</v>
+      </c>
+      <c r="F32">
+        <v>46</v>
+      </c>
+      <c r="G32" s="14">
+        <v>19356</v>
+      </c>
+      <c r="I32" s="19">
+        <f t="shared" si="1"/>
+        <v>26.488673139158578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" s="12">
-        <v>683</v>
-      </c>
-      <c r="C24" s="14">
-        <v>19182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="12">
-        <v>792</v>
-      </c>
-      <c r="C25" s="14">
-        <v>27162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="12">
-        <v>973</v>
-      </c>
-      <c r="C26" s="14">
-        <v>19602</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="12">
-        <v>4206</v>
-      </c>
-      <c r="C27" s="14">
-        <v>30336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="12">
-        <v>3296</v>
-      </c>
-      <c r="C28" s="14">
-        <v>15834</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="12">
-        <v>1637</v>
-      </c>
-      <c r="C29" s="14">
-        <v>19356</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B30" s="12">
+      <c r="B33" s="12">
         <v>413</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C33">
+        <v>19.7</v>
+      </c>
+      <c r="D33">
+        <v>55</v>
+      </c>
+      <c r="E33">
+        <v>42</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="G33" s="14">
         <v>19788</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>168</v>
-      </c>
-      <c r="B31" s="12">
+      <c r="I33" s="19">
+        <f t="shared" si="1"/>
+        <v>20.964467005076141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="12">
         <v>1819</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C34">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="D34">
+        <v>51</v>
+      </c>
+      <c r="E34">
+        <v>47</v>
+      </c>
+      <c r="F34">
+        <v>35</v>
+      </c>
+      <c r="G34" s="14">
         <v>17303</v>
       </c>
+      <c r="I34" s="19">
+        <f t="shared" si="1"/>
+        <v>22.291666666666668</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C24:C25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/assessment3/submission/assessment3_calcs.xlsx
+++ b/assessment3/submission/assessment3_calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment3\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDBB7AA-4BC0-4D85-BECE-F4E91A039772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BEC7A0-911B-499A-82E4-2C104EBB21E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="184">
   <si>
     <t>objective function</t>
   </si>
@@ -551,12 +551,6 @@
     <t>Data Collection</t>
   </si>
   <si>
-    <t>government schools</t>
-  </si>
-  <si>
-    <t>non-government schools</t>
-  </si>
-  <si>
     <t>Alkira Secondary College</t>
   </si>
   <si>
@@ -620,21 +614,6 @@
     <t>St Francis Xavier College ( 3 campuses)</t>
   </si>
   <si>
-    <t>from acara</t>
-  </si>
-  <si>
-    <t>net recurrent 2020</t>
-  </si>
-  <si>
-    <t>SRS base amount for secondary 2020</t>
-  </si>
-  <si>
-    <t>enrolments 2020</t>
-  </si>
-  <si>
-    <t>% year 7-9 students making above average progress</t>
-  </si>
-  <si>
     <t>reading</t>
   </si>
   <si>
@@ -644,19 +623,49 @@
     <t>numeracy</t>
   </si>
   <si>
-    <t>FTE non-teaching staff</t>
-  </si>
-  <si>
-    <t>2019-2021</t>
-  </si>
-  <si>
     <t>Hallam Secondary College</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>used 2021 data due to new school</t>
+    <t>2020 enrolments</t>
+  </si>
+  <si>
+    <t>2019-2021 % years 7-9 students making above average progress</t>
+  </si>
+  <si>
+    <t>2020 recurrent funding per student ($)</t>
+  </si>
+  <si>
+    <t>Non-Govt</t>
+  </si>
+  <si>
+    <t>Govt</t>
+  </si>
+  <si>
+    <t>2022 VCE median study score</t>
+  </si>
+  <si>
+    <t>2020 FTE non-teaching staff</t>
+  </si>
+  <si>
+    <t>&lt;-- median</t>
+  </si>
+  <si>
+    <t>Formulation of Model Parameters</t>
+  </si>
+  <si>
+    <t>Raw Data</t>
+  </si>
+  <si>
+    <t>2020 total recurrent funding ($)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 required funding ($) </t>
+  </si>
+  <si>
+    <t>2020 SRS base funding per student ($)</t>
+  </si>
+  <si>
+    <t>2020 surplus ($)</t>
   </si>
 </sst>
 </file>
@@ -667,7 +676,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -702,6 +711,28 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -777,7 +808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -803,17 +834,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1129,9 +1168,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4162E19D-C445-470E-963A-FE34E7B1E4D2}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1350,6 +1394,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6620A867-E7CD-4E2A-B79B-958F5160BFCC}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1686,681 +1733,917 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78903A60-8BB6-4E47-90D1-364626DC8C8F}">
-  <dimension ref="A1:N34"/>
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.9140625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.9140625" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="9" max="9" width="13.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="11"/>
       <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="J4" t="s">
+      <c r="D2" s="11"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C6" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="N4" s="12">
+      <c r="D6" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9">
+        <v>2928</v>
+      </c>
+      <c r="D9">
+        <v>111</v>
+      </c>
+      <c r="E9">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>39</v>
+      </c>
+      <c r="G9">
+        <v>37</v>
+      </c>
+      <c r="H9">
+        <v>31</v>
+      </c>
+      <c r="I9" s="15">
+        <v>16755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="12">
+        <v>973</v>
+      </c>
+      <c r="D10">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E10">
+        <v>54</v>
+      </c>
+      <c r="F10">
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>29</v>
+      </c>
+      <c r="I10" s="14">
+        <v>19602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="12">
+        <v>4206</v>
+      </c>
+      <c r="D11">
+        <v>226.7</v>
+      </c>
+      <c r="E11">
+        <v>59</v>
+      </c>
+      <c r="F11">
+        <v>62</v>
+      </c>
+      <c r="G11">
+        <v>65</v>
+      </c>
+      <c r="H11">
+        <v>36</v>
+      </c>
+      <c r="I11" s="14">
+        <v>30336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="12">
+        <v>413</v>
+      </c>
+      <c r="D12">
+        <v>19.7</v>
+      </c>
+      <c r="E12">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>26</v>
+      </c>
+      <c r="I12" s="14">
+        <v>19788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1819</v>
+      </c>
+      <c r="D13">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="E13">
+        <v>51</v>
+      </c>
+      <c r="F13">
+        <v>47</v>
+      </c>
+      <c r="G13">
+        <v>35</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13" s="14">
+        <v>17303</v>
+      </c>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="12">
+        <v>683</v>
+      </c>
+      <c r="D14">
+        <v>32.9</v>
+      </c>
+      <c r="E14">
+        <v>52</v>
+      </c>
+      <c r="F14">
+        <v>51</v>
+      </c>
+      <c r="G14">
+        <v>56</v>
+      </c>
+      <c r="H14">
+        <v>31</v>
+      </c>
+      <c r="I14" s="14">
+        <v>19182</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="12">
+        <v>3296</v>
+      </c>
+      <c r="D15">
+        <v>163</v>
+      </c>
+      <c r="E15">
+        <v>54</v>
+      </c>
+      <c r="F15">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <v>46</v>
+      </c>
+      <c r="H15">
+        <v>29</v>
+      </c>
+      <c r="I15" s="14">
+        <v>15834</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="12">
+        <v>792</v>
+      </c>
+      <c r="D16">
+        <v>42.6</v>
+      </c>
+      <c r="E16">
+        <v>53</v>
+      </c>
+      <c r="F16">
+        <v>57</v>
+      </c>
+      <c r="G16">
+        <v>52</v>
+      </c>
+      <c r="H16">
+        <v>34</v>
+      </c>
+      <c r="I16" s="14">
+        <v>27162</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1637</v>
+      </c>
+      <c r="D17">
+        <v>61.8</v>
+      </c>
+      <c r="E17">
+        <v>55</v>
+      </c>
+      <c r="F17">
+        <v>53</v>
+      </c>
+      <c r="G17">
+        <v>46</v>
+      </c>
+      <c r="H17">
+        <v>27</v>
+      </c>
+      <c r="I17" s="14">
+        <v>19356</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18">
+        <v>1482</v>
+      </c>
+      <c r="D18">
+        <v>25.6</v>
+      </c>
+      <c r="E18">
+        <v>53</v>
+      </c>
+      <c r="F18">
+        <v>49</v>
+      </c>
+      <c r="G18">
+        <v>45</v>
+      </c>
+      <c r="H18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19">
+        <v>1640</v>
+      </c>
+      <c r="D19">
+        <v>33.5</v>
+      </c>
+      <c r="E19">
+        <v>52</v>
+      </c>
+      <c r="F19">
+        <v>46</v>
+      </c>
+      <c r="G19">
+        <v>47</v>
+      </c>
+      <c r="H19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20">
+        <v>1539</v>
+      </c>
+      <c r="D20">
+        <v>44.5</v>
+      </c>
+      <c r="E20">
+        <v>58</v>
+      </c>
+      <c r="F20">
+        <v>57</v>
+      </c>
+      <c r="G20">
+        <v>52</v>
+      </c>
+      <c r="H20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21">
+        <v>204</v>
+      </c>
+      <c r="D21">
+        <v>7.4</v>
+      </c>
+      <c r="E21" s="18">
+        <f>E31</f>
+        <v>55</v>
+      </c>
+      <c r="F21" s="18">
+        <f>F31</f>
+        <v>49</v>
+      </c>
+      <c r="G21" s="18">
+        <f>G31</f>
+        <v>47</v>
+      </c>
+      <c r="H21" s="18">
+        <f>H31</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22">
+        <v>706</v>
+      </c>
+      <c r="D22">
+        <v>55.8</v>
+      </c>
+      <c r="E22">
+        <v>57</v>
+      </c>
+      <c r="F22">
+        <v>47</v>
+      </c>
+      <c r="G22">
+        <v>47</v>
+      </c>
+      <c r="H22" s="18">
+        <f>H31</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23">
+        <v>1345</v>
+      </c>
+      <c r="D23">
+        <v>42.1</v>
+      </c>
+      <c r="E23">
+        <v>55</v>
+      </c>
+      <c r="F23">
+        <v>42</v>
+      </c>
+      <c r="G23">
+        <v>46</v>
+      </c>
+      <c r="H23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24">
+        <v>1488</v>
+      </c>
+      <c r="D24">
+        <v>35.5</v>
+      </c>
+      <c r="E24">
+        <v>57</v>
+      </c>
+      <c r="F24">
+        <v>52</v>
+      </c>
+      <c r="G24">
+        <v>52</v>
+      </c>
+      <c r="H24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25">
+        <v>632</v>
+      </c>
+      <c r="D25">
+        <v>27.9</v>
+      </c>
+      <c r="E25" s="18">
+        <f>E31</f>
+        <v>55</v>
+      </c>
+      <c r="F25" s="18">
+        <f>F31</f>
+        <v>49</v>
+      </c>
+      <c r="G25" s="18">
+        <f>G31</f>
+        <v>47</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26">
+        <v>1143</v>
+      </c>
+      <c r="D26">
+        <v>53.6</v>
+      </c>
+      <c r="E26">
+        <v>57</v>
+      </c>
+      <c r="F26">
+        <v>54</v>
+      </c>
+      <c r="G26">
+        <v>52</v>
+      </c>
+      <c r="H26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27">
+        <v>1609</v>
+      </c>
+      <c r="D27">
+        <v>47.3</v>
+      </c>
+      <c r="E27">
+        <v>57</v>
+      </c>
+      <c r="F27">
+        <v>48</v>
+      </c>
+      <c r="G27">
+        <v>43</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28">
+        <v>609</v>
+      </c>
+      <c r="D28">
+        <v>23.5</v>
+      </c>
+      <c r="E28">
+        <v>56</v>
+      </c>
+      <c r="F28">
+        <v>48</v>
+      </c>
+      <c r="G28">
+        <v>52</v>
+      </c>
+      <c r="H28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29">
+        <v>2459</v>
+      </c>
+      <c r="D29">
+        <v>70.7</v>
+      </c>
+      <c r="E29">
+        <v>58</v>
+      </c>
+      <c r="F29">
+        <v>48</v>
+      </c>
+      <c r="G29">
+        <v>52</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30">
+        <v>745</v>
+      </c>
+      <c r="D30">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E30">
+        <v>41</v>
+      </c>
+      <c r="F30">
+        <v>49</v>
+      </c>
+      <c r="G30">
+        <v>55</v>
+      </c>
+      <c r="H30" s="18">
+        <f>H31</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <f>MEDIAN(E9:E20,E22:E24,E26:E30)</f>
+        <v>55</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:G31" si="0">MEDIAN(F9:F20,F22:F24,F26:F30)</f>
+        <v>49</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="H31">
+        <f>MEDIAN(H9:H20,H23:H29)</f>
+        <v>29</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I32" s="20"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I33" s="20"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I34" s="20"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I35" s="20"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I36" s="20"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I37" s="20"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I38" s="20"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
+        <v>182</v>
+      </c>
+      <c r="I39" s="22">
         <v>14761</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="E5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C6" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" t="s">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C41" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="21"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C43" s="21"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="21"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8">
-        <v>632</v>
-      </c>
-      <c r="C8" s="16">
-        <v>27.9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" t="s">
-        <v>179</v>
-      </c>
-      <c r="I8">
-        <f>B8/C8</f>
-        <v>22.652329749103945</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="12">
+        <f>C9*I9</f>
+        <v>49058640</v>
+      </c>
+      <c r="D44" s="12">
+        <f>C9*$I$39</f>
+        <v>43220208</v>
+      </c>
+      <c r="E44" s="23">
+        <f>C44-D44</f>
+        <v>5838432</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="12">
+        <f t="shared" ref="C45:C52" si="1">C10*I10</f>
+        <v>19072746</v>
+      </c>
+      <c r="D45" s="12">
+        <f t="shared" ref="D45:D52" si="2">C10*$I$39</f>
+        <v>14362453</v>
+      </c>
+      <c r="E45" s="23">
+        <f t="shared" ref="E45:E52" si="3">C45-D45</f>
+        <v>4710293</v>
+      </c>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="12">
+        <f t="shared" si="1"/>
+        <v>127593216</v>
+      </c>
+      <c r="D46" s="12">
+        <f t="shared" si="2"/>
+        <v>62084766</v>
+      </c>
+      <c r="E46" s="23">
+        <f t="shared" si="3"/>
+        <v>65508450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="12">
+        <f t="shared" si="1"/>
+        <v>8172444</v>
+      </c>
+      <c r="D47" s="12">
+        <f t="shared" si="2"/>
+        <v>6096293</v>
+      </c>
+      <c r="E47" s="23">
+        <f t="shared" si="3"/>
+        <v>2076151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="12">
+        <f t="shared" si="1"/>
+        <v>31474157</v>
+      </c>
+      <c r="D48" s="12">
+        <f t="shared" si="2"/>
+        <v>26850259</v>
+      </c>
+      <c r="E48" s="23">
+        <f t="shared" si="3"/>
+        <v>4623898</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="12">
+        <f t="shared" si="1"/>
+        <v>13101306</v>
+      </c>
+      <c r="D49" s="12">
+        <f t="shared" si="2"/>
+        <v>10081763</v>
+      </c>
+      <c r="E49" s="23">
+        <f t="shared" si="3"/>
+        <v>3019543</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="12">
+        <f t="shared" si="1"/>
+        <v>52188864</v>
+      </c>
+      <c r="D50" s="12">
+        <f t="shared" si="2"/>
+        <v>48652256</v>
+      </c>
+      <c r="E50" s="23">
+        <f t="shared" si="3"/>
+        <v>3536608</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" si="1"/>
+        <v>21512304</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" si="2"/>
+        <v>11690712</v>
+      </c>
+      <c r="E51" s="23">
+        <f t="shared" si="3"/>
+        <v>9821592</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
         <v>147</v>
       </c>
-      <c r="B9">
-        <v>1482</v>
-      </c>
-      <c r="C9">
-        <v>25.6</v>
-      </c>
-      <c r="D9">
-        <v>53</v>
-      </c>
-      <c r="E9">
-        <v>49</v>
-      </c>
-      <c r="F9">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ref="I9:I20" si="0">B9/C9</f>
-        <v>57.890625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10">
-        <v>706</v>
-      </c>
-      <c r="C10">
-        <v>55.8</v>
-      </c>
-      <c r="D10">
-        <v>57</v>
-      </c>
-      <c r="E10">
-        <v>47</v>
-      </c>
-      <c r="F10">
-        <v>47</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>12.652329749103943</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11">
-        <v>2459</v>
-      </c>
-      <c r="C11">
-        <v>70.7</v>
-      </c>
-      <c r="D11">
-        <v>58</v>
-      </c>
-      <c r="E11">
-        <v>48</v>
-      </c>
-      <c r="F11">
-        <v>52</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>34.780763790664778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12">
-        <v>1640</v>
-      </c>
-      <c r="C12">
-        <v>33.5</v>
-      </c>
-      <c r="D12">
-        <v>52</v>
-      </c>
-      <c r="E12">
-        <v>46</v>
-      </c>
-      <c r="F12">
-        <v>47</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>48.955223880597018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13">
-        <v>1539</v>
-      </c>
-      <c r="C13">
-        <v>44.5</v>
-      </c>
-      <c r="D13">
-        <v>58</v>
-      </c>
-      <c r="E13">
-        <v>57</v>
-      </c>
-      <c r="F13">
-        <v>52</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>34.584269662921351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14">
-        <v>745</v>
-      </c>
-      <c r="C14">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D14">
-        <v>41</v>
-      </c>
-      <c r="E14">
-        <v>49</v>
-      </c>
-      <c r="F14">
-        <v>55</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>44.879518072289152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15">
-        <v>1488</v>
-      </c>
-      <c r="C15">
-        <v>35.5</v>
-      </c>
-      <c r="D15">
-        <v>57</v>
-      </c>
-      <c r="E15">
-        <v>52</v>
-      </c>
-      <c r="F15">
-        <v>52</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>41.91549295774648</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16">
-        <v>1143</v>
-      </c>
-      <c r="C16">
-        <v>53.6</v>
-      </c>
-      <c r="D16">
-        <v>57</v>
-      </c>
-      <c r="E16">
-        <v>54</v>
-      </c>
-      <c r="F16">
-        <v>52</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>21.32462686567164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17">
-        <v>1345</v>
-      </c>
-      <c r="C17">
-        <v>42.1</v>
-      </c>
-      <c r="D17">
-        <v>55</v>
-      </c>
-      <c r="E17">
-        <v>42</v>
-      </c>
-      <c r="F17">
-        <v>46</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>31.947743467933492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18">
-        <v>1609</v>
-      </c>
-      <c r="C18">
-        <v>47.3</v>
-      </c>
-      <c r="D18">
-        <v>57</v>
-      </c>
-      <c r="E18">
-        <v>48</v>
-      </c>
-      <c r="F18">
-        <v>43</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>34.016913319238903</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19">
-        <v>609</v>
-      </c>
-      <c r="C19">
-        <v>23.5</v>
-      </c>
-      <c r="D19">
-        <v>56</v>
-      </c>
-      <c r="E19">
-        <v>48</v>
-      </c>
-      <c r="F19">
-        <v>52</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>25.914893617021278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20">
-        <v>204</v>
-      </c>
-      <c r="C20">
-        <v>7.4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20" t="s">
-        <v>180</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>27.567567567567565</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" t="s">
-        <v>173</v>
-      </c>
-      <c r="E25" t="s">
-        <v>174</v>
-      </c>
-      <c r="F25" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26">
-        <v>2928</v>
-      </c>
-      <c r="C26">
-        <v>111</v>
-      </c>
-      <c r="D26">
-        <v>42</v>
-      </c>
-      <c r="E26">
-        <v>39</v>
-      </c>
-      <c r="F26">
-        <v>37</v>
-      </c>
-      <c r="G26" s="18">
-        <v>16755</v>
-      </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="19">
-        <f>B26/C26</f>
-        <v>26.378378378378379</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="12">
-        <v>683</v>
-      </c>
-      <c r="C27">
-        <v>32.9</v>
-      </c>
-      <c r="D27">
-        <v>52</v>
-      </c>
-      <c r="E27">
-        <v>51</v>
-      </c>
-      <c r="F27">
-        <v>56</v>
-      </c>
-      <c r="G27" s="14">
-        <v>19182</v>
-      </c>
-      <c r="I27" s="19">
-        <f t="shared" ref="I27:I34" si="1">B27/C27</f>
-        <v>20.759878419452889</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="12">
-        <v>792</v>
-      </c>
-      <c r="C28">
-        <v>42.6</v>
-      </c>
-      <c r="D28">
-        <v>53</v>
-      </c>
-      <c r="E28">
-        <v>57</v>
-      </c>
-      <c r="F28">
-        <v>52</v>
-      </c>
-      <c r="G28" s="14">
-        <v>27162</v>
-      </c>
-      <c r="I28" s="19">
+      <c r="C52" s="12">
         <f t="shared" si="1"/>
-        <v>18.591549295774648</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" s="12">
-        <v>973</v>
-      </c>
-      <c r="C29">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="D29">
-        <v>54</v>
-      </c>
-      <c r="E29">
-        <v>56</v>
-      </c>
-      <c r="F29">
-        <v>45</v>
-      </c>
-      <c r="G29" s="14">
-        <v>19602</v>
-      </c>
-      <c r="I29" s="19">
-        <f t="shared" si="1"/>
-        <v>28.872403560830858</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="12">
-        <v>4206</v>
-      </c>
-      <c r="C30">
-        <v>226.7</v>
-      </c>
-      <c r="D30">
-        <v>59</v>
-      </c>
-      <c r="E30">
-        <v>62</v>
-      </c>
-      <c r="F30">
-        <v>65</v>
-      </c>
-      <c r="G30" s="14">
-        <v>30336</v>
-      </c>
-      <c r="I30" s="19">
-        <f t="shared" si="1"/>
-        <v>18.553153947948832</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="12">
-        <v>3296</v>
-      </c>
-      <c r="C31">
-        <v>163</v>
-      </c>
-      <c r="D31">
-        <v>54</v>
-      </c>
-      <c r="E31">
-        <v>55</v>
-      </c>
-      <c r="F31">
-        <v>46</v>
-      </c>
-      <c r="G31" s="14">
-        <v>15834</v>
-      </c>
-      <c r="I31" s="19">
-        <f t="shared" si="1"/>
-        <v>20.220858895705522</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="12">
-        <v>1637</v>
-      </c>
-      <c r="C32">
-        <v>61.8</v>
-      </c>
-      <c r="D32">
-        <v>55</v>
-      </c>
-      <c r="E32">
-        <v>53</v>
-      </c>
-      <c r="F32">
-        <v>46</v>
-      </c>
-      <c r="G32" s="14">
-        <v>19356</v>
-      </c>
-      <c r="I32" s="19">
-        <f t="shared" si="1"/>
-        <v>26.488673139158578</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="12">
-        <v>413</v>
-      </c>
-      <c r="C33">
-        <v>19.7</v>
-      </c>
-      <c r="D33">
-        <v>55</v>
-      </c>
-      <c r="E33">
-        <v>42</v>
-      </c>
-      <c r="F33">
-        <v>32</v>
-      </c>
-      <c r="G33" s="14">
-        <v>19788</v>
-      </c>
-      <c r="I33" s="19">
-        <f t="shared" si="1"/>
-        <v>20.964467005076141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" s="12">
-        <v>1819</v>
-      </c>
-      <c r="C34">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="D34">
-        <v>51</v>
-      </c>
-      <c r="E34">
-        <v>47</v>
-      </c>
-      <c r="F34">
-        <v>35</v>
-      </c>
-      <c r="G34" s="14">
-        <v>17303</v>
-      </c>
-      <c r="I34" s="19">
-        <f t="shared" si="1"/>
-        <v>22.291666666666668</v>
+        <v>31685772</v>
+      </c>
+      <c r="D52" s="12">
+        <f t="shared" si="2"/>
+        <v>24163757</v>
+      </c>
+      <c r="E52" s="23">
+        <f t="shared" si="3"/>
+        <v>7522015</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E53" s="12">
+        <f>SUM(E44:E52)</f>
+        <v>106656982</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C24:C25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B31:J45">
+    <sortCondition ref="B31:B45"/>
+  </sortState>
+  <mergeCells count="9">
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="E6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2369,9 +2652,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A1F9B0-65AC-42D6-865C-698C26A6F652}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2700,6 +2986,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8DD70E-CA22-4686-99BD-A8BA266502AE}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -3038,11 +3327,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AEAE38-3AEC-465C-BA5D-4B83214DE6CE}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3221,11 +3511,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEE27E3-99CF-4EDC-A4A8-33FCA6991B68}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/assessment3/submission/assessment3_calcs.xlsx
+++ b/assessment3/submission/assessment3_calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment3\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BEC7A0-911B-499A-82E4-2C104EBB21E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2DA783-73B2-41F3-B919-6DD5354EDA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="189">
   <si>
     <t>objective function</t>
   </si>
@@ -650,12 +650,6 @@
     <t>&lt;-- median</t>
   </si>
   <si>
-    <t>Formulation of Model Parameters</t>
-  </si>
-  <si>
-    <t>Raw Data</t>
-  </si>
-  <si>
     <t>2020 total recurrent funding ($)</t>
   </si>
   <si>
@@ -666,6 +660,27 @@
   </si>
   <si>
     <t>2020 surplus ($)</t>
+  </si>
+  <si>
+    <t>total:</t>
+  </si>
+  <si>
+    <t>literacy</t>
+  </si>
+  <si>
+    <t>academic progress score</t>
+  </si>
+  <si>
+    <t>School funding</t>
+  </si>
+  <si>
+    <t>School performance</t>
+  </si>
+  <si>
+    <t>&lt;-- budget</t>
+  </si>
+  <si>
+    <t>2020 ratio non-teaching staff to students</t>
   </si>
 </sst>
 </file>
@@ -808,7 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -853,6 +868,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1736,87 +1755,103 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
-    <col min="9" max="9" width="13.9140625" customWidth="1"/>
+    <col min="5" max="5" width="13.9140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="9" width="10.08203125" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="13.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="11" t="s">
         <v>143</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="s">
         <v>144</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="16" t="s">
         <v>170</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="H8" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>173</v>
       </c>
@@ -1829,23 +1864,32 @@
       <c r="D9">
         <v>111</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
+        <f>C9/D9</f>
+        <v>26.378378378378379</v>
+      </c>
+      <c r="F9">
         <v>42</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>39</v>
       </c>
-      <c r="G9">
+      <c r="H9" s="4">
+        <f>AVERAGE(F9:G9)</f>
+        <v>40.5</v>
+      </c>
+      <c r="I9">
         <v>37</v>
       </c>
-      <c r="H9">
+      <c r="J9" s="4">
+        <f>SUM(H9:I9)</f>
+        <v>77.5</v>
+      </c>
+      <c r="K9">
         <v>31</v>
       </c>
-      <c r="I9" s="15">
-        <v>16755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>156</v>
       </c>
@@ -1855,23 +1899,32 @@
       <c r="D10">
         <v>33.700000000000003</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
+        <f>C10/D10</f>
+        <v>28.872403560830858</v>
+      </c>
+      <c r="F10">
         <v>54</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>56</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="4">
+        <f t="shared" ref="H10:H30" si="0">AVERAGE(F10:G10)</f>
+        <v>55</v>
+      </c>
+      <c r="I10">
         <v>45</v>
       </c>
-      <c r="H10">
+      <c r="J10" s="4">
+        <f t="shared" ref="J10:J30" si="1">SUM(H10:I10)</f>
+        <v>100</v>
+      </c>
+      <c r="K10">
         <v>29</v>
       </c>
-      <c r="I10" s="14">
-        <v>19602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>164</v>
       </c>
@@ -1881,23 +1934,32 @@
       <c r="D11">
         <v>226.7</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
+        <f>C11/D11</f>
+        <v>18.553153947948832</v>
+      </c>
+      <c r="F11">
         <v>59</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>62</v>
       </c>
-      <c r="G11">
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>60.5</v>
+      </c>
+      <c r="I11">
         <v>65</v>
       </c>
-      <c r="H11">
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>125.5</v>
+      </c>
+      <c r="K11">
         <v>36</v>
       </c>
-      <c r="I11" s="14">
-        <v>30336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>160</v>
       </c>
@@ -1907,23 +1969,32 @@
       <c r="D12">
         <v>19.7</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
+        <f>C12/D12</f>
+        <v>20.964467005076141</v>
+      </c>
+      <c r="F12">
         <v>55</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>42</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>48.5</v>
+      </c>
+      <c r="I12">
         <v>32</v>
       </c>
-      <c r="H12">
+      <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>80.5</v>
+      </c>
+      <c r="K12">
         <v>26</v>
       </c>
-      <c r="I12" s="14">
-        <v>19788</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>163</v>
       </c>
@@ -1933,24 +2004,33 @@
       <c r="D13">
         <v>81.599999999999994</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
+        <f>C13/D13</f>
+        <v>22.291666666666668</v>
+      </c>
+      <c r="F13">
         <v>51</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>47</v>
       </c>
-      <c r="G13">
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="I13">
         <v>35</v>
       </c>
-      <c r="H13">
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="K13">
         <v>30</v>
       </c>
-      <c r="I13" s="14">
-        <v>17303</v>
-      </c>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>155</v>
       </c>
@@ -1960,24 +2040,33 @@
       <c r="D14">
         <v>32.9</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
+        <f>C14/D14</f>
+        <v>20.759878419452889</v>
+      </c>
+      <c r="F14">
         <v>52</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>51</v>
       </c>
-      <c r="G14">
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>51.5</v>
+      </c>
+      <c r="I14">
         <v>56</v>
       </c>
-      <c r="H14">
+      <c r="J14" s="4">
+        <f t="shared" si="1"/>
+        <v>107.5</v>
+      </c>
+      <c r="K14">
         <v>31</v>
       </c>
-      <c r="I14" s="14">
-        <v>19182</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>165</v>
       </c>
@@ -1987,24 +2076,33 @@
       <c r="D15">
         <v>163</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
+        <f>C15/D15</f>
+        <v>20.220858895705522</v>
+      </c>
+      <c r="F15">
         <v>54</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>55</v>
       </c>
-      <c r="G15">
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>54.5</v>
+      </c>
+      <c r="I15">
         <v>46</v>
       </c>
-      <c r="H15">
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>100.5</v>
+      </c>
+      <c r="K15">
         <v>29</v>
       </c>
-      <c r="I15" s="14">
-        <v>15834</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>162</v>
       </c>
@@ -2014,24 +2112,33 @@
       <c r="D16">
         <v>42.6</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
+        <f>C16/D16</f>
+        <v>18.591549295774648</v>
+      </c>
+      <c r="F16">
         <v>53</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>57</v>
       </c>
-      <c r="G16">
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="I16">
         <v>52</v>
       </c>
-      <c r="H16">
+      <c r="J16" s="4">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="K16">
         <v>34</v>
       </c>
-      <c r="I16" s="14">
-        <v>27162</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>147</v>
       </c>
@@ -2041,24 +2148,33 @@
       <c r="D17">
         <v>61.8</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
+        <f>C17/D17</f>
+        <v>26.488673139158578</v>
+      </c>
+      <c r="F17">
         <v>55</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>53</v>
       </c>
-      <c r="G17">
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="I17">
         <v>46</v>
       </c>
-      <c r="H17">
+      <c r="J17" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K17">
         <v>27</v>
       </c>
-      <c r="I17" s="14">
-        <v>19356</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>174</v>
       </c>
@@ -2071,20 +2187,32 @@
       <c r="D18">
         <v>25.6</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
+        <f t="shared" ref="E18:E30" si="2">C18/D18</f>
+        <v>57.890625</v>
+      </c>
+      <c r="F18">
         <v>53</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>49</v>
       </c>
-      <c r="G18">
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="I18">
         <v>45</v>
       </c>
-      <c r="H18">
+      <c r="J18" s="4">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="K18">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>146</v>
       </c>
@@ -2094,20 +2222,32 @@
       <c r="D19">
         <v>33.5</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>48.955223880597018</v>
+      </c>
+      <c r="F19">
         <v>52</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>46</v>
       </c>
-      <c r="G19">
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="I19">
         <v>47</v>
       </c>
-      <c r="H19">
+      <c r="J19" s="4">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="K19">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>148</v>
       </c>
@@ -2117,20 +2257,32 @@
       <c r="D20">
         <v>44.5</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
+        <f t="shared" si="2"/>
+        <v>34.584269662921351</v>
+      </c>
+      <c r="F20">
         <v>58</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>57</v>
       </c>
-      <c r="G20">
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>57.5</v>
+      </c>
+      <c r="I20">
         <v>52</v>
       </c>
-      <c r="H20">
+      <c r="J20" s="4">
+        <f t="shared" si="1"/>
+        <v>109.5</v>
+      </c>
+      <c r="K20">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>154</v>
       </c>
@@ -2140,24 +2292,37 @@
       <c r="D21">
         <v>7.4</v>
       </c>
-      <c r="E21" s="18">
-        <f>E31</f>
-        <v>55</v>
+      <c r="E21" s="4">
+        <f t="shared" si="2"/>
+        <v>27.567567567567565</v>
       </c>
       <c r="F21" s="18">
         <f>F31</f>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G21" s="18">
         <f>G31</f>
+        <v>49</v>
+      </c>
+      <c r="H21" s="25">
+        <f>H31</f>
+        <v>52.25</v>
+      </c>
+      <c r="I21" s="18">
+        <f>I31</f>
         <v>47</v>
       </c>
-      <c r="H21" s="18">
-        <f>H31</f>
+      <c r="J21" s="18">
+        <f>J31</f>
+        <v>100</v>
+      </c>
+      <c r="K21" s="18">
+        <f>K31</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>157</v>
       </c>
@@ -2167,21 +2332,34 @@
       <c r="D22">
         <v>55.8</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
+        <f t="shared" si="2"/>
+        <v>12.652329749103943</v>
+      </c>
+      <c r="F22">
         <v>57</v>
-      </c>
-      <c r="F22">
-        <v>47</v>
       </c>
       <c r="G22">
         <v>47</v>
       </c>
-      <c r="H22" s="18">
-        <f>H31</f>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="I22">
+        <v>47</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="K22" s="18">
+        <f>K31</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>151</v>
       </c>
@@ -2191,20 +2369,32 @@
       <c r="D23">
         <v>42.1</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
+        <f t="shared" si="2"/>
+        <v>31.947743467933492</v>
+      </c>
+      <c r="F23">
         <v>55</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>42</v>
       </c>
-      <c r="G23">
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>48.5</v>
+      </c>
+      <c r="I23">
         <v>46</v>
       </c>
-      <c r="H23">
+      <c r="J23" s="4">
+        <f t="shared" si="1"/>
+        <v>94.5</v>
+      </c>
+      <c r="K23">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>149</v>
       </c>
@@ -2214,20 +2404,32 @@
       <c r="D24">
         <v>35.5</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
+        <f t="shared" si="2"/>
+        <v>41.91549295774648</v>
+      </c>
+      <c r="F24">
         <v>57</v>
-      </c>
-      <c r="F24">
-        <v>52</v>
       </c>
       <c r="G24">
         <v>52</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>54.5</v>
+      </c>
+      <c r="I24">
+        <v>52</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="1"/>
+        <v>106.5</v>
+      </c>
+      <c r="K24">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>169</v>
       </c>
@@ -2237,23 +2439,35 @@
       <c r="D25">
         <v>27.9</v>
       </c>
-      <c r="E25" s="18">
-        <f>E31</f>
-        <v>55</v>
+      <c r="E25" s="4">
+        <f t="shared" si="2"/>
+        <v>22.652329749103945</v>
       </c>
       <c r="F25" s="18">
         <f>F31</f>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G25" s="18">
         <f>G31</f>
+        <v>49</v>
+      </c>
+      <c r="H25" s="25">
+        <f>H31</f>
+        <v>52.25</v>
+      </c>
+      <c r="I25" s="18">
+        <f>I31</f>
         <v>47</v>
       </c>
-      <c r="H25">
+      <c r="J25" s="18">
+        <f>J31</f>
+        <v>100</v>
+      </c>
+      <c r="K25">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>150</v>
       </c>
@@ -2263,20 +2477,32 @@
       <c r="D26">
         <v>53.6</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
+        <f t="shared" si="2"/>
+        <v>21.32462686567164</v>
+      </c>
+      <c r="F26">
         <v>57</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>54</v>
       </c>
-      <c r="G26">
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>55.5</v>
+      </c>
+      <c r="I26">
         <v>52</v>
       </c>
-      <c r="H26">
+      <c r="J26" s="4">
+        <f t="shared" si="1"/>
+        <v>107.5</v>
+      </c>
+      <c r="K26">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>152</v>
       </c>
@@ -2286,20 +2512,32 @@
       <c r="D27">
         <v>47.3</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
+        <f t="shared" si="2"/>
+        <v>34.016913319238903</v>
+      </c>
+      <c r="F27">
         <v>57</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>48</v>
       </c>
-      <c r="G27">
+      <c r="H27" s="4">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+      <c r="I27">
         <v>43</v>
       </c>
-      <c r="H27">
+      <c r="J27" s="4">
+        <f t="shared" si="1"/>
+        <v>95.5</v>
+      </c>
+      <c r="K27">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>153</v>
       </c>
@@ -2309,20 +2547,32 @@
       <c r="D28">
         <v>23.5</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
+        <f t="shared" si="2"/>
+        <v>25.914893617021278</v>
+      </c>
+      <c r="F28">
         <v>56</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>48</v>
       </c>
-      <c r="G28">
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="H28">
+      <c r="I28">
+        <v>52</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="K28">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>158</v>
       </c>
@@ -2332,20 +2582,32 @@
       <c r="D29">
         <v>70.7</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
+        <f t="shared" si="2"/>
+        <v>34.780763790664778</v>
+      </c>
+      <c r="F29">
         <v>58</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>48</v>
       </c>
-      <c r="G29">
+      <c r="H29" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="I29">
         <v>52</v>
       </c>
-      <c r="H29">
+      <c r="J29" s="4">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="K29">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>159</v>
       </c>
@@ -2355,295 +2617,339 @@
       <c r="D30">
         <v>16.600000000000001</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
+        <f t="shared" si="2"/>
+        <v>44.879518072289152</v>
+      </c>
+      <c r="F30">
         <v>41</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>49</v>
       </c>
-      <c r="G30">
+      <c r="H30" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="I30">
         <v>55</v>
       </c>
-      <c r="H30" s="18">
-        <f>H31</f>
+      <c r="J30" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K30" s="18">
+        <f>K31</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E31">
-        <f>MEDIAN(E9:E20,E22:E24,E26:E30)</f>
+      <c r="L30" s="18"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <f>MEDIAN(F9:F20,F22:F24,F26:F30)</f>
         <v>55</v>
       </c>
-      <c r="F31">
-        <f t="shared" ref="F31:G31" si="0">MEDIAN(F9:F20,F22:F24,F26:F30)</f>
+      <c r="G31">
+        <f t="shared" ref="G31:I31" si="3">MEDIAN(G9:G20,G22:G24,G26:G30)</f>
         <v>49</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
+      <c r="H31" s="4">
+        <f>MEDIAN(H9:H20,H22:H24,H26:H30)</f>
+        <v>52.25</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="H31">
-        <f>MEDIAN(H9:H20,H23:H29)</f>
+      <c r="J31">
+        <f>MEDIAN(J9:J20,J22:J24,J26:J30)</f>
+        <v>100</v>
+      </c>
+      <c r="K31">
+        <f>MEDIAN(K9:K20,K23:K29)</f>
         <v>29</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="L31" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I32" s="20"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="I33" s="20"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I34" s="20"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I35" s="20"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="22">
+        <v>14761</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I36" s="20"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E36" s="22"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C37" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H37" s="20"/>
       <c r="I37" s="20"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F39" t="s">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="16"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C39" s="16"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="15">
+        <v>16755</v>
+      </c>
+      <c r="D40" s="12">
+        <f>C9*C40</f>
+        <v>49058640</v>
+      </c>
+      <c r="E40" s="12">
+        <f>C9*$C$35</f>
+        <v>43220208</v>
+      </c>
+      <c r="F40" s="23">
+        <f>D40-E40</f>
+        <v>5838432</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="14">
+        <v>19602</v>
+      </c>
+      <c r="D41" s="12">
+        <f>C10*C41</f>
+        <v>19072746</v>
+      </c>
+      <c r="E41" s="12">
+        <f>C10*$C$35</f>
+        <v>14362453</v>
+      </c>
+      <c r="F41" s="23">
+        <f t="shared" ref="F41:F48" si="4">D41-E41</f>
+        <v>4710293</v>
+      </c>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="14">
+        <v>30336</v>
+      </c>
+      <c r="D42" s="12">
+        <f>C11*C42</f>
+        <v>127593216</v>
+      </c>
+      <c r="E42" s="12">
+        <f>C11*$C$35</f>
+        <v>62084766</v>
+      </c>
+      <c r="F42" s="23">
+        <f t="shared" si="4"/>
+        <v>65508450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="14">
+        <v>19788</v>
+      </c>
+      <c r="D43" s="12">
+        <f>C12*C43</f>
+        <v>8172444</v>
+      </c>
+      <c r="E43" s="12">
+        <f>C12*$C$35</f>
+        <v>6096293</v>
+      </c>
+      <c r="F43" s="23">
+        <f t="shared" si="4"/>
+        <v>2076151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="14">
+        <v>17303</v>
+      </c>
+      <c r="D44" s="12">
+        <f>C13*C44</f>
+        <v>31474157</v>
+      </c>
+      <c r="E44" s="12">
+        <f>C13*$C$35</f>
+        <v>26850259</v>
+      </c>
+      <c r="F44" s="23">
+        <f t="shared" si="4"/>
+        <v>4623898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="14">
+        <v>19182</v>
+      </c>
+      <c r="D45" s="12">
+        <f>C14*C45</f>
+        <v>13101306</v>
+      </c>
+      <c r="E45" s="12">
+        <f>C14*$C$35</f>
+        <v>10081763</v>
+      </c>
+      <c r="F45" s="23">
+        <f t="shared" si="4"/>
+        <v>3019543</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="14">
+        <v>15834</v>
+      </c>
+      <c r="D46" s="12">
+        <f>C15*C46</f>
+        <v>52188864</v>
+      </c>
+      <c r="E46" s="12">
+        <f>C15*$C$35</f>
+        <v>48652256</v>
+      </c>
+      <c r="F46" s="23">
+        <f t="shared" si="4"/>
+        <v>3536608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="14">
+        <v>27162</v>
+      </c>
+      <c r="D47" s="12">
+        <f>C16*C47</f>
+        <v>21512304</v>
+      </c>
+      <c r="E47" s="12">
+        <f>C16*$C$35</f>
+        <v>11690712</v>
+      </c>
+      <c r="F47" s="23">
+        <f t="shared" si="4"/>
+        <v>9821592</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="14">
+        <v>19356</v>
+      </c>
+      <c r="D48" s="12">
+        <f>C17*C48</f>
+        <v>31685772</v>
+      </c>
+      <c r="E48" s="12">
+        <f>C17*$C$35</f>
+        <v>24163757</v>
+      </c>
+      <c r="F48" s="23">
+        <f t="shared" si="4"/>
+        <v>7522015</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E49" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I39" s="22">
-        <v>14761</v>
-      </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C41" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="21"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C43" s="21"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="21"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="12">
-        <f>C9*I9</f>
-        <v>49058640</v>
-      </c>
-      <c r="D44" s="12">
-        <f>C9*$I$39</f>
-        <v>43220208</v>
-      </c>
-      <c r="E44" s="23">
-        <f>C44-D44</f>
-        <v>5838432</v>
-      </c>
-      <c r="G44" s="19"/>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>156</v>
-      </c>
-      <c r="C45" s="12">
-        <f t="shared" ref="C45:C52" si="1">C10*I10</f>
-        <v>19072746</v>
-      </c>
-      <c r="D45" s="12">
-        <f t="shared" ref="D45:D52" si="2">C10*$I$39</f>
-        <v>14362453</v>
-      </c>
-      <c r="E45" s="23">
-        <f t="shared" ref="E45:E52" si="3">C45-D45</f>
-        <v>4710293</v>
-      </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="12">
-        <f t="shared" si="1"/>
-        <v>127593216</v>
-      </c>
-      <c r="D46" s="12">
-        <f t="shared" si="2"/>
-        <v>62084766</v>
-      </c>
-      <c r="E46" s="23">
-        <f t="shared" si="3"/>
-        <v>65508450</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="12">
-        <f t="shared" si="1"/>
-        <v>8172444</v>
-      </c>
-      <c r="D47" s="12">
-        <f t="shared" si="2"/>
-        <v>6096293</v>
-      </c>
-      <c r="E47" s="23">
-        <f t="shared" si="3"/>
-        <v>2076151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="12">
-        <f t="shared" si="1"/>
-        <v>31474157</v>
-      </c>
-      <c r="D48" s="12">
-        <f t="shared" si="2"/>
-        <v>26850259</v>
-      </c>
-      <c r="E48" s="23">
-        <f t="shared" si="3"/>
-        <v>4623898</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="12">
-        <f t="shared" si="1"/>
-        <v>13101306</v>
-      </c>
-      <c r="D49" s="12">
-        <f t="shared" si="2"/>
-        <v>10081763</v>
-      </c>
-      <c r="E49" s="23">
-        <f t="shared" si="3"/>
-        <v>3019543</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" s="12">
-        <f t="shared" si="1"/>
-        <v>52188864</v>
-      </c>
-      <c r="D50" s="12">
-        <f t="shared" si="2"/>
-        <v>48652256</v>
-      </c>
-      <c r="E50" s="23">
-        <f t="shared" si="3"/>
-        <v>3536608</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="12">
-        <f t="shared" si="1"/>
-        <v>21512304</v>
-      </c>
-      <c r="D51" s="12">
-        <f t="shared" si="2"/>
-        <v>11690712</v>
-      </c>
-      <c r="E51" s="23">
-        <f t="shared" si="3"/>
-        <v>9821592</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>147</v>
-      </c>
-      <c r="C52" s="12">
-        <f t="shared" si="1"/>
-        <v>31685772</v>
-      </c>
-      <c r="D52" s="12">
-        <f t="shared" si="2"/>
-        <v>24163757</v>
-      </c>
-      <c r="E52" s="23">
-        <f t="shared" si="3"/>
-        <v>7522015</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E53" s="12">
-        <f>SUM(E44:E52)</f>
+      <c r="F49" s="12">
+        <f>SUM(F40:F48)</f>
         <v>106656982</v>
       </c>
+      <c r="G49" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B31:J45">
-    <sortCondition ref="B31:B45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B31:J41">
+    <sortCondition ref="B31:B41"/>
   </sortState>
-  <mergeCells count="9">
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
+  <mergeCells count="10">
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:I7"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="E6:G7"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C37:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assessment3/submission/assessment3_calcs.xlsx
+++ b/assessment3/submission/assessment3_calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment3\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2DA783-73B2-41F3-B919-6DD5354EDA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD79BC16-A930-42AA-AB06-81DFD5AA3080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="195">
   <si>
     <t>objective function</t>
   </si>
@@ -548,9 +548,6 @@
     <t>Task 3 - Research and Analysis</t>
   </si>
   <si>
-    <t>Data Collection</t>
-  </si>
-  <si>
     <t>Alkira Secondary College</t>
   </si>
   <si>
@@ -629,9 +626,6 @@
     <t>2020 enrolments</t>
   </si>
   <si>
-    <t>2019-2021 % years 7-9 students making above average progress</t>
-  </si>
-  <si>
     <t>2020 recurrent funding per student ($)</t>
   </si>
   <si>
@@ -668,19 +662,43 @@
     <t>literacy</t>
   </si>
   <si>
-    <t>academic progress score</t>
-  </si>
-  <si>
     <t>School funding</t>
   </si>
   <si>
-    <t>School performance</t>
-  </si>
-  <si>
     <t>&lt;-- budget</t>
   </si>
   <si>
     <t>2020 ratio non-teaching staff to students</t>
+  </si>
+  <si>
+    <t>Data Collection and Wrangling</t>
+  </si>
+  <si>
+    <t>School population and performance</t>
+  </si>
+  <si>
+    <t>2021 year 9 raw naplan scores</t>
+  </si>
+  <si>
+    <t>spelling</t>
+  </si>
+  <si>
+    <t>grammar</t>
+  </si>
+  <si>
+    <t>academic deficit score</t>
+  </si>
+  <si>
+    <t>vic/aus avg:</t>
+  </si>
+  <si>
+    <t>school score minus vic/aus average</t>
+  </si>
+  <si>
+    <t>VCE study score</t>
+  </si>
+  <si>
+    <t>academic deficit score - normalised</t>
   </si>
 </sst>
 </file>
@@ -823,7 +841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -845,33 +863,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1755,10 +1770,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1769,94 +1784,154 @@
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="13.9140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="9" width="10.08203125" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="13.58203125" customWidth="1"/>
+    <col min="7" max="8" width="10.08203125" customWidth="1"/>
+    <col min="9" max="9" width="11.08203125" customWidth="1"/>
+    <col min="10" max="11" width="10.08203125" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="12.75" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="13.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="11" t="s">
         <v>143</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="4" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>176</v>
+      <c r="E4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4">
+        <v>577</v>
+      </c>
+      <c r="G4">
+        <v>551</v>
+      </c>
+      <c r="H4">
+        <v>580</v>
+      </c>
+      <c r="I4">
+        <v>573</v>
+      </c>
+      <c r="J4" s="4">
+        <f>AVERAGE(F4:I4)</f>
+        <v>570.25</v>
+      </c>
+      <c r="K4">
+        <v>588</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="E6" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="I8" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="L6" s="24"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9">
         <v>2928</v>
@@ -1865,33 +1940,56 @@
         <v>111</v>
       </c>
       <c r="E9" s="4">
-        <f>C9/D9</f>
+        <f t="shared" ref="E9:E17" si="0">C9/D9</f>
         <v>26.378378378378379</v>
       </c>
       <c r="F9">
-        <v>42</v>
+        <v>581</v>
       </c>
       <c r="G9">
-        <v>39</v>
-      </c>
-      <c r="H9" s="4">
-        <f>AVERAGE(F9:G9)</f>
-        <v>40.5</v>
+        <v>546</v>
+      </c>
+      <c r="H9">
+        <v>591</v>
       </c>
       <c r="I9">
-        <v>37</v>
+        <v>592</v>
       </c>
       <c r="J9" s="4">
-        <f>SUM(H9:I9)</f>
-        <v>77.5</v>
+        <f>AVERAGE(F9:I9)</f>
+        <v>577.5</v>
       </c>
       <c r="K9">
+        <v>591</v>
+      </c>
+      <c r="L9">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M9" s="4">
+        <f>J9-$J$4</f>
+        <v>7.25</v>
+      </c>
+      <c r="N9">
+        <f>K9-$K$4</f>
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <f>L9-$L$4</f>
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <f>IF(SUM(M9:O9) &gt;= 0, 0, -SUM(M9:O9))</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>P9/SUM($P$9:$P$30)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="12">
         <v>973</v>
@@ -1900,33 +1998,55 @@
         <v>33.700000000000003</v>
       </c>
       <c r="E10" s="4">
-        <f>C10/D10</f>
+        <f t="shared" si="0"/>
         <v>28.872403560830858</v>
       </c>
-      <c r="F10">
-        <v>54</v>
+      <c r="F10" s="4">
+        <v>603</v>
       </c>
       <c r="G10">
-        <v>56</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" ref="H10:H30" si="0">AVERAGE(F10:G10)</f>
-        <v>55</v>
-      </c>
-      <c r="I10">
-        <v>45</v>
+        <v>591</v>
+      </c>
+      <c r="H10">
+        <v>600</v>
+      </c>
+      <c r="I10" s="12">
+        <v>609</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" ref="J10:J30" si="1">SUM(H10:I10)</f>
-        <v>100</v>
+        <f>AVERAGE(F10:I10)</f>
+        <v>600.75</v>
       </c>
       <c r="K10">
+        <v>612</v>
+      </c>
+      <c r="L10">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M10" s="4">
+        <f t="shared" ref="M10:M30" si="1">J10-$J$4</f>
+        <v>30.5</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N30" si="2">K10-$K$4</f>
+        <v>24</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="O10:O30" si="3">L10-$L$4</f>
+        <v>-1</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" ref="P10:P30" si="4">IF(SUM(M10:O10) &gt;= 0, 0, -SUM(M10:O10))</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" ref="Q10:Q30" si="5">P10/SUM($P$9:$P$30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="12">
         <v>4206</v>
@@ -1935,33 +2055,55 @@
         <v>226.7</v>
       </c>
       <c r="E11" s="4">
-        <f>C11/D11</f>
+        <f t="shared" si="0"/>
         <v>18.553153947948832</v>
       </c>
-      <c r="F11">
-        <v>59</v>
+      <c r="F11" s="4">
+        <v>646</v>
       </c>
       <c r="G11">
-        <v>62</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>60.5</v>
+        <v>623</v>
+      </c>
+      <c r="H11">
+        <v>633</v>
       </c>
       <c r="I11">
-        <v>65</v>
+        <v>658</v>
       </c>
       <c r="J11" s="4">
+        <f>AVERAGE(F11:I11)</f>
+        <v>640</v>
+      </c>
+      <c r="K11">
+        <v>682</v>
+      </c>
+      <c r="L11">
+        <v>36</v>
+      </c>
+      <c r="M11" s="4">
         <f t="shared" si="1"/>
-        <v>125.5</v>
-      </c>
-      <c r="K11">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <v>69.75</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="12">
         <v>413</v>
@@ -1970,33 +2112,55 @@
         <v>19.7</v>
       </c>
       <c r="E12" s="4">
-        <f>C12/D12</f>
+        <f t="shared" si="0"/>
         <v>20.964467005076141</v>
       </c>
       <c r="F12">
-        <v>55</v>
+        <v>587</v>
       </c>
       <c r="G12">
-        <v>42</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>48.5</v>
+        <v>541</v>
+      </c>
+      <c r="H12">
+        <v>580</v>
       </c>
       <c r="I12">
-        <v>32</v>
+        <v>567</v>
       </c>
       <c r="J12" s="4">
+        <f>AVERAGE(F12:I12)</f>
+        <v>568.75</v>
+      </c>
+      <c r="K12">
+        <v>560</v>
+      </c>
+      <c r="L12">
+        <v>26</v>
+      </c>
+      <c r="M12" s="4">
         <f t="shared" si="1"/>
-        <v>80.5</v>
-      </c>
-      <c r="K12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-1.5</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>-28</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="4"/>
+        <v>33.5</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="5"/>
+        <v>7.93368857312019E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="12">
         <v>1819</v>
@@ -2005,34 +2169,55 @@
         <v>81.599999999999994</v>
       </c>
       <c r="E13" s="4">
-        <f>C13/D13</f>
+        <f t="shared" si="0"/>
         <v>22.291666666666668</v>
       </c>
       <c r="F13">
-        <v>51</v>
+        <v>593</v>
       </c>
       <c r="G13">
-        <v>47</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>566</v>
+      </c>
+      <c r="H13">
+        <v>606</v>
       </c>
       <c r="I13">
-        <v>35</v>
+        <v>603</v>
       </c>
       <c r="J13" s="4">
+        <f>AVERAGE(F13:I13)</f>
+        <v>592</v>
+      </c>
+      <c r="K13">
+        <v>592</v>
+      </c>
+      <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13" s="4">
         <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="K13">
-        <v>30</v>
-      </c>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <v>21.75</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="12">
         <v>683</v>
@@ -2041,34 +2226,55 @@
         <v>32.9</v>
       </c>
       <c r="E14" s="4">
-        <f>C14/D14</f>
+        <f t="shared" si="0"/>
         <v>20.759878419452889</v>
       </c>
       <c r="F14">
-        <v>52</v>
+        <v>603</v>
       </c>
       <c r="G14">
-        <v>51</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="0"/>
-        <v>51.5</v>
+        <v>572</v>
+      </c>
+      <c r="H14">
+        <v>597</v>
       </c>
       <c r="I14">
-        <v>56</v>
+        <v>607</v>
       </c>
       <c r="J14" s="4">
+        <f>AVERAGE(F14:I14)</f>
+        <v>594.75</v>
+      </c>
+      <c r="K14">
+        <v>625</v>
+      </c>
+      <c r="L14">
+        <v>31</v>
+      </c>
+      <c r="M14" s="4">
         <f t="shared" si="1"/>
-        <v>107.5</v>
-      </c>
-      <c r="K14">
-        <v>31</v>
-      </c>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+        <v>24.5</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="12">
         <v>3296</v>
@@ -2077,34 +2283,55 @@
         <v>163</v>
       </c>
       <c r="E15" s="4">
-        <f>C15/D15</f>
+        <f t="shared" si="0"/>
         <v>20.220858895705522</v>
       </c>
       <c r="F15">
-        <v>54</v>
+        <v>580</v>
       </c>
       <c r="G15">
-        <v>55</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="0"/>
-        <v>54.5</v>
+        <v>570</v>
+      </c>
+      <c r="H15">
+        <v>575</v>
       </c>
       <c r="I15">
-        <v>46</v>
+        <v>570</v>
       </c>
       <c r="J15" s="4">
+        <f>AVERAGE(F15:I15)</f>
+        <v>573.75</v>
+      </c>
+      <c r="K15">
+        <v>582</v>
+      </c>
+      <c r="L15">
+        <v>29</v>
+      </c>
+      <c r="M15" s="4">
         <f t="shared" si="1"/>
-        <v>100.5</v>
-      </c>
-      <c r="K15">
-        <v>29</v>
-      </c>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.5</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="5"/>
+        <v>8.2889283599763171E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="12">
         <v>792</v>
@@ -2113,34 +2340,55 @@
         <v>42.6</v>
       </c>
       <c r="E16" s="4">
-        <f>C16/D16</f>
+        <f t="shared" si="0"/>
         <v>18.591549295774648</v>
       </c>
       <c r="F16">
-        <v>53</v>
+        <v>616</v>
       </c>
       <c r="G16">
-        <v>57</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <v>599</v>
+      </c>
+      <c r="H16">
+        <v>595</v>
       </c>
       <c r="I16">
-        <v>52</v>
+        <v>603</v>
       </c>
       <c r="J16" s="4">
+        <f>AVERAGE(F16:I16)</f>
+        <v>603.25</v>
+      </c>
+      <c r="K16">
+        <v>635</v>
+      </c>
+      <c r="L16">
+        <v>34</v>
+      </c>
+      <c r="M16" s="4">
         <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="K16">
-        <v>34</v>
-      </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" s="12">
         <v>1637</v>
@@ -2149,37 +2397,58 @@
         <v>61.8</v>
       </c>
       <c r="E17" s="4">
-        <f>C17/D17</f>
+        <f t="shared" si="0"/>
         <v>26.488673139158578</v>
       </c>
       <c r="F17">
-        <v>55</v>
+        <v>580</v>
       </c>
       <c r="G17">
-        <v>53</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <v>556</v>
+      </c>
+      <c r="H17">
+        <v>586</v>
       </c>
       <c r="I17">
-        <v>46</v>
+        <v>569</v>
       </c>
       <c r="J17" s="4">
+        <f>AVERAGE(F17:I17)</f>
+        <v>572.75</v>
+      </c>
+      <c r="K17">
+        <v>574</v>
+      </c>
+      <c r="L17">
+        <v>27</v>
+      </c>
+      <c r="M17" s="4">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K17">
-        <v>27</v>
-      </c>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2.5</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>-14</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="4"/>
+        <v>14.5</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="5"/>
+        <v>3.4339846062759027E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18">
         <v>1482</v>
@@ -2188,33 +2457,55 @@
         <v>25.6</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" ref="E18:E30" si="2">C18/D18</f>
+        <f t="shared" ref="E18:E30" si="6">C18/D18</f>
         <v>57.890625</v>
       </c>
       <c r="F18">
-        <v>53</v>
+        <v>567</v>
       </c>
       <c r="G18">
-        <v>49</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <v>537</v>
+      </c>
+      <c r="H18">
+        <v>582</v>
       </c>
       <c r="I18">
-        <v>45</v>
+        <v>565</v>
       </c>
       <c r="J18" s="4">
+        <f>AVERAGE(F18:I18)</f>
+        <v>562.75</v>
+      </c>
+      <c r="K18">
+        <v>575</v>
+      </c>
+      <c r="L18">
+        <v>29</v>
+      </c>
+      <c r="M18" s="4">
         <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="K18">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-7.5</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="4"/>
+        <v>21.5</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="5"/>
+        <v>5.0917702782711662E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19">
         <v>1640</v>
@@ -2223,33 +2514,55 @@
         <v>33.5</v>
       </c>
       <c r="E19" s="4">
+        <f t="shared" si="6"/>
+        <v>48.955223880597018</v>
+      </c>
+      <c r="F19">
+        <v>567</v>
+      </c>
+      <c r="G19">
+        <v>541</v>
+      </c>
+      <c r="H19">
+        <v>577</v>
+      </c>
+      <c r="I19">
+        <v>570</v>
+      </c>
+      <c r="J19" s="4">
+        <f>AVERAGE(F19:I19)</f>
+        <v>563.75</v>
+      </c>
+      <c r="K19">
+        <v>577</v>
+      </c>
+      <c r="L19">
+        <v>29</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="1"/>
+        <v>-6.5</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="2"/>
-        <v>48.955223880597018</v>
-      </c>
-      <c r="F19">
-        <v>52</v>
-      </c>
-      <c r="G19">
-        <v>46</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="I19">
-        <v>47</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="K19">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-11</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="4"/>
+        <v>18.5</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="5"/>
+        <v>4.3812907045589107E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20">
         <v>1539</v>
@@ -2258,33 +2571,55 @@
         <v>44.5</v>
       </c>
       <c r="E20" s="4">
+        <f t="shared" si="6"/>
+        <v>34.584269662921351</v>
+      </c>
+      <c r="F20">
+        <v>565</v>
+      </c>
+      <c r="G20">
+        <v>556</v>
+      </c>
+      <c r="H20">
+        <v>577</v>
+      </c>
+      <c r="I20">
+        <v>561</v>
+      </c>
+      <c r="J20" s="4">
+        <f>AVERAGE(F20:I20)</f>
+        <v>564.75</v>
+      </c>
+      <c r="K20">
+        <v>573</v>
+      </c>
+      <c r="L20">
+        <v>33</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="1"/>
+        <v>-5.5</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="2"/>
-        <v>34.584269662921351</v>
-      </c>
-      <c r="F20">
-        <v>58</v>
-      </c>
-      <c r="G20">
-        <v>57</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="0"/>
-        <v>57.5</v>
-      </c>
-      <c r="I20">
-        <v>52</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="1"/>
-        <v>109.5</v>
-      </c>
-      <c r="K20">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-15</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="4"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="5"/>
+        <v>4.1444641799881589E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21">
         <v>204</v>
@@ -2293,38 +2628,61 @@
         <v>7.4</v>
       </c>
       <c r="E21" s="4">
+        <f t="shared" si="6"/>
+        <v>27.567567567567565</v>
+      </c>
+      <c r="F21" s="24">
+        <f>F31</f>
+        <v>577</v>
+      </c>
+      <c r="G21" s="24">
+        <f>G31</f>
+        <v>550</v>
+      </c>
+      <c r="H21" s="20">
+        <f>H31</f>
+        <v>580.5</v>
+      </c>
+      <c r="I21" s="20">
+        <f>I31</f>
+        <v>569.5</v>
+      </c>
+      <c r="J21" s="20">
+        <f>J31</f>
+        <v>568.375</v>
+      </c>
+      <c r="K21" s="20">
+        <f>K31</f>
+        <v>579.5</v>
+      </c>
+      <c r="L21" s="16">
+        <f t="shared" ref="L21" si="7">L31</f>
+        <v>29</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.875</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="2"/>
-        <v>27.567567567567565</v>
-      </c>
-      <c r="F21" s="18">
-        <f>F31</f>
-        <v>55</v>
-      </c>
-      <c r="G21" s="18">
-        <f>G31</f>
-        <v>49</v>
-      </c>
-      <c r="H21" s="25">
-        <f>H31</f>
-        <v>52.25</v>
-      </c>
-      <c r="I21" s="18">
-        <f>I31</f>
-        <v>47</v>
-      </c>
-      <c r="J21" s="18">
-        <f>J31</f>
-        <v>100</v>
-      </c>
-      <c r="K21" s="18">
-        <f>K31</f>
-        <v>29</v>
-      </c>
-      <c r="L21" s="18"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-8.5</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="4"/>
+        <v>11.375</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="5"/>
+        <v>2.6939017169923033E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C22">
         <v>706</v>
@@ -2333,35 +2691,56 @@
         <v>55.8</v>
       </c>
       <c r="E22" s="4">
+        <f t="shared" si="6"/>
+        <v>12.652329749103943</v>
+      </c>
+      <c r="F22">
+        <v>531</v>
+      </c>
+      <c r="G22">
+        <v>523</v>
+      </c>
+      <c r="H22">
+        <v>539</v>
+      </c>
+      <c r="I22">
+        <v>533</v>
+      </c>
+      <c r="J22" s="4">
+        <f>AVERAGE(F22:I22)</f>
+        <v>531.5</v>
+      </c>
+      <c r="K22">
+        <v>553</v>
+      </c>
+      <c r="L22" s="16">
+        <f>L31</f>
+        <v>29</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="1"/>
+        <v>-38.75</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="2"/>
-        <v>12.652329749103943</v>
-      </c>
-      <c r="F22">
-        <v>57</v>
-      </c>
-      <c r="G22">
-        <v>47</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="I22">
-        <v>47</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="K22" s="18">
-        <f>K31</f>
-        <v>29</v>
-      </c>
-      <c r="L22" s="18"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-35</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="4"/>
+        <v>74.75</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="5"/>
+        <v>0.17702782711663706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23">
         <v>1345</v>
@@ -2370,33 +2749,55 @@
         <v>42.1</v>
       </c>
       <c r="E23" s="4">
+        <f t="shared" si="6"/>
+        <v>31.947743467933492</v>
+      </c>
+      <c r="F23">
+        <v>552</v>
+      </c>
+      <c r="G23">
+        <v>533</v>
+      </c>
+      <c r="H23">
+        <v>568</v>
+      </c>
+      <c r="I23">
+        <v>553</v>
+      </c>
+      <c r="J23" s="4">
+        <f>AVERAGE(F23:I23)</f>
+        <v>551.5</v>
+      </c>
+      <c r="K23">
+        <v>561</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="1"/>
+        <v>-18.75</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="2"/>
-        <v>31.947743467933492</v>
-      </c>
-      <c r="F23">
-        <v>55</v>
-      </c>
-      <c r="G23">
-        <v>42</v>
-      </c>
-      <c r="H23" s="4">
-        <f t="shared" si="0"/>
-        <v>48.5</v>
-      </c>
-      <c r="I23">
-        <v>46</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" si="1"/>
-        <v>94.5</v>
-      </c>
-      <c r="K23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-27</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="4"/>
+        <v>50.75</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="5"/>
+        <v>0.1201894612196566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24">
         <v>1488</v>
@@ -2405,33 +2806,55 @@
         <v>35.5</v>
       </c>
       <c r="E24" s="4">
+        <f t="shared" si="6"/>
+        <v>41.91549295774648</v>
+      </c>
+      <c r="F24">
+        <v>574</v>
+      </c>
+      <c r="G24">
+        <v>554</v>
+      </c>
+      <c r="H24">
+        <v>573</v>
+      </c>
+      <c r="I24">
+        <v>571</v>
+      </c>
+      <c r="J24" s="4">
+        <f>AVERAGE(F24:I24)</f>
+        <v>568</v>
+      </c>
+      <c r="K24">
+        <v>586</v>
+      </c>
+      <c r="L24">
+        <v>27</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.25</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="2"/>
-        <v>41.91549295774648</v>
-      </c>
-      <c r="F24">
-        <v>57</v>
-      </c>
-      <c r="G24">
-        <v>52</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" si="0"/>
-        <v>54.5</v>
-      </c>
-      <c r="I24">
-        <v>52</v>
-      </c>
-      <c r="J24" s="4">
-        <f t="shared" si="1"/>
-        <v>106.5</v>
-      </c>
-      <c r="K24">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="4"/>
+        <v>7.25</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="5"/>
+        <v>1.7169923031379514E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25">
         <v>632</v>
@@ -2440,36 +2863,60 @@
         <v>27.9</v>
       </c>
       <c r="E25" s="4">
+        <f t="shared" si="6"/>
+        <v>22.652329749103945</v>
+      </c>
+      <c r="F25" s="24">
+        <f>F31</f>
+        <v>577</v>
+      </c>
+      <c r="G25" s="24">
+        <f>G31</f>
+        <v>550</v>
+      </c>
+      <c r="H25" s="20">
+        <f>H31</f>
+        <v>580.5</v>
+      </c>
+      <c r="I25" s="20">
+        <f>I31</f>
+        <v>569.5</v>
+      </c>
+      <c r="J25" s="20">
+        <f>J31</f>
+        <v>568.375</v>
+      </c>
+      <c r="K25" s="20">
+        <f>K31</f>
+        <v>579.5</v>
+      </c>
+      <c r="L25">
+        <v>25</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.875</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="2"/>
-        <v>22.652329749103945</v>
-      </c>
-      <c r="F25" s="18">
-        <f>F31</f>
-        <v>55</v>
-      </c>
-      <c r="G25" s="18">
-        <f>G31</f>
-        <v>49</v>
-      </c>
-      <c r="H25" s="25">
-        <f>H31</f>
-        <v>52.25</v>
-      </c>
-      <c r="I25" s="18">
-        <f>I31</f>
-        <v>47</v>
-      </c>
-      <c r="J25" s="18">
-        <f>J31</f>
-        <v>100</v>
-      </c>
-      <c r="K25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-8.5</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="4"/>
+        <v>15.375</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6412078152753109E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C26">
         <v>1143</v>
@@ -2478,33 +2925,55 @@
         <v>53.6</v>
       </c>
       <c r="E26" s="4">
+        <f t="shared" si="6"/>
+        <v>21.32462686567164</v>
+      </c>
+      <c r="F26">
+        <v>546</v>
+      </c>
+      <c r="G26">
+        <v>526</v>
+      </c>
+      <c r="H26">
+        <v>560</v>
+      </c>
+      <c r="I26">
+        <v>542</v>
+      </c>
+      <c r="J26" s="4">
+        <f>AVERAGE(F26:I26)</f>
+        <v>543.5</v>
+      </c>
+      <c r="K26">
+        <v>553</v>
+      </c>
+      <c r="L26">
+        <v>27</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="1"/>
+        <v>-26.75</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="2"/>
-        <v>21.32462686567164</v>
-      </c>
-      <c r="F26">
-        <v>57</v>
-      </c>
-      <c r="G26">
-        <v>54</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="0"/>
-        <v>55.5</v>
-      </c>
-      <c r="I26">
-        <v>52</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="1"/>
-        <v>107.5</v>
-      </c>
-      <c r="K26">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-35</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="4"/>
+        <v>64.75</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="5"/>
+        <v>0.15334517465956188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27">
         <v>1609</v>
@@ -2513,33 +2982,55 @@
         <v>47.3</v>
       </c>
       <c r="E27" s="4">
+        <f t="shared" si="6"/>
+        <v>34.016913319238903</v>
+      </c>
+      <c r="F27">
+        <v>589</v>
+      </c>
+      <c r="G27">
+        <v>554</v>
+      </c>
+      <c r="H27">
+        <v>592</v>
+      </c>
+      <c r="I27">
+        <v>584</v>
+      </c>
+      <c r="J27" s="4">
+        <f>AVERAGE(F27:I27)</f>
+        <v>579.75</v>
+      </c>
+      <c r="K27">
+        <v>588</v>
+      </c>
+      <c r="L27">
+        <v>30</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="2"/>
-        <v>34.016913319238903</v>
-      </c>
-      <c r="F27">
-        <v>57</v>
-      </c>
-      <c r="G27">
-        <v>48</v>
-      </c>
-      <c r="H27" s="4">
-        <f t="shared" si="0"/>
-        <v>52.5</v>
-      </c>
-      <c r="I27">
-        <v>43</v>
-      </c>
-      <c r="J27" s="4">
-        <f t="shared" si="1"/>
-        <v>95.5</v>
-      </c>
-      <c r="K27">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C28">
         <v>609</v>
@@ -2548,33 +3039,55 @@
         <v>23.5</v>
       </c>
       <c r="E28" s="4">
+        <f t="shared" si="6"/>
+        <v>25.914893617021278</v>
+      </c>
+      <c r="F28">
+        <v>566</v>
+      </c>
+      <c r="G28">
+        <v>517</v>
+      </c>
+      <c r="H28">
+        <v>564</v>
+      </c>
+      <c r="I28">
+        <v>550</v>
+      </c>
+      <c r="J28" s="4">
+        <f>AVERAGE(F28:I28)</f>
+        <v>549.25</v>
+      </c>
+      <c r="K28">
+        <v>569</v>
+      </c>
+      <c r="L28">
+        <v>28</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="1"/>
+        <v>-21</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="2"/>
-        <v>25.914893617021278</v>
-      </c>
-      <c r="F28">
-        <v>56</v>
-      </c>
-      <c r="G28">
-        <v>48</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="I28">
-        <v>52</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="K28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-19</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="5"/>
+        <v>9.9467140319715805E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29">
         <v>2459</v>
@@ -2583,33 +3096,55 @@
         <v>70.7</v>
       </c>
       <c r="E29" s="4">
+        <f t="shared" si="6"/>
+        <v>34.780763790664778</v>
+      </c>
+      <c r="F29">
+        <v>564</v>
+      </c>
+      <c r="G29">
+        <v>536</v>
+      </c>
+      <c r="H29">
+        <v>581</v>
+      </c>
+      <c r="I29">
+        <v>556</v>
+      </c>
+      <c r="J29" s="4">
+        <f>AVERAGE(F29:I29)</f>
+        <v>559.25</v>
+      </c>
+      <c r="K29">
+        <v>572</v>
+      </c>
+      <c r="L29">
+        <v>30</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="2"/>
-        <v>34.780763790664778</v>
-      </c>
-      <c r="F29">
-        <v>58</v>
-      </c>
-      <c r="G29">
-        <v>48</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="I29">
-        <v>52</v>
-      </c>
-      <c r="J29" s="4">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="K29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-16</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="5"/>
+        <v>6.3943161634103018E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30">
         <v>745</v>
@@ -2618,341 +3153,383 @@
         <v>16.600000000000001</v>
       </c>
       <c r="E30" s="4">
+        <f t="shared" si="6"/>
+        <v>44.879518072289152</v>
+      </c>
+      <c r="F30">
+        <v>554</v>
+      </c>
+      <c r="G30">
+        <v>538</v>
+      </c>
+      <c r="H30">
+        <v>564</v>
+      </c>
+      <c r="I30">
+        <v>561</v>
+      </c>
+      <c r="J30" s="4">
+        <f>AVERAGE(F30:I30)</f>
+        <v>554.25</v>
+      </c>
+      <c r="K30">
+        <v>585</v>
+      </c>
+      <c r="L30" s="16">
+        <f>L31</f>
+        <v>29</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="2"/>
-        <v>44.879518072289152</v>
-      </c>
-      <c r="F30">
-        <v>41</v>
-      </c>
-      <c r="G30">
-        <v>49</v>
-      </c>
-      <c r="H30" s="4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="I30">
-        <v>55</v>
-      </c>
-      <c r="J30" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K30" s="18">
-        <f>K31</f>
+        <v>-3</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" si="5"/>
+        <v>4.7365304914150384E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <f t="shared" ref="F31:K31" si="8">MEDIAN(F9:F20,F22:F24,F26:F30)</f>
+        <v>577</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="8"/>
+        <v>550</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="8"/>
+        <v>580.5</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="8"/>
+        <v>569.5</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="8"/>
+        <v>568.375</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="8"/>
+        <v>579.5</v>
+      </c>
+      <c r="L31">
+        <f>MEDIAN(L9:L20,L23:L29)</f>
         <v>29</v>
       </c>
-      <c r="L30" s="18"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="F31">
-        <f>MEDIAN(F9:F20,F22:F24,F26:F30)</f>
-        <v>55</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ref="G31:I31" si="3">MEDIAN(G9:G20,G22:G24,G26:G30)</f>
-        <v>49</v>
-      </c>
-      <c r="H31" s="4">
-        <f>MEDIAN(H9:H20,H22:H24,H26:H30)</f>
-        <v>52.25</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="J31">
-        <f>MEDIAN(J9:J20,J22:J24,J26:J30)</f>
-        <v>100</v>
-      </c>
-      <c r="K31">
-        <f>MEDIAN(K9:K20,K23:K29)</f>
-        <v>29</v>
-      </c>
-      <c r="L31" s="20" t="s">
+      <c r="M31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="18">
+        <v>14761</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E36" s="18"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C37" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I32" s="20"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="22">
-        <v>14761</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E36" s="22"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C37" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="E37" s="16" t="s">
+      <c r="F37" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="F37" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="16"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="22"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C39" s="16"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C39" s="22"/>
       <c r="D39" s="21"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" s="15">
+        <v>160</v>
+      </c>
+      <c r="C40" s="14">
         <v>16755</v>
       </c>
       <c r="D40" s="12">
-        <f>C9*C40</f>
+        <f t="shared" ref="D40:D48" si="9">C9*C40</f>
         <v>49058640</v>
       </c>
       <c r="E40" s="12">
-        <f>C9*$C$35</f>
+        <f t="shared" ref="E40:E48" si="10">C9*$C$35</f>
         <v>43220208</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="19">
         <f>D40-E40</f>
         <v>5838432</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H40" s="17"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="14">
+        <v>155</v>
+      </c>
+      <c r="C41" s="13">
         <v>19602</v>
       </c>
       <c r="D41" s="12">
-        <f>C10*C41</f>
+        <f t="shared" si="9"/>
         <v>19072746</v>
       </c>
       <c r="E41" s="12">
-        <f>C10*$C$35</f>
+        <f t="shared" si="10"/>
         <v>14362453</v>
       </c>
-      <c r="F41" s="23">
-        <f t="shared" ref="F41:F48" si="4">D41-E41</f>
+      <c r="F41" s="19">
+        <f t="shared" ref="F41:F48" si="11">D41-E41</f>
         <v>4710293</v>
       </c>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="13">
+        <v>30336</v>
+      </c>
+      <c r="D42" s="12">
+        <f t="shared" si="9"/>
+        <v>127593216</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" si="10"/>
+        <v>62084766</v>
+      </c>
+      <c r="F42" s="19">
+        <f t="shared" si="11"/>
+        <v>65508450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="13">
+        <v>19788</v>
+      </c>
+      <c r="D43" s="12">
+        <f t="shared" si="9"/>
+        <v>8172444</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="10"/>
+        <v>6096293</v>
+      </c>
+      <c r="F43" s="19">
+        <f t="shared" si="11"/>
+        <v>2076151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="13">
+        <v>17303</v>
+      </c>
+      <c r="D44" s="12">
+        <f t="shared" si="9"/>
+        <v>31474157</v>
+      </c>
+      <c r="E44" s="12">
+        <f t="shared" si="10"/>
+        <v>26850259</v>
+      </c>
+      <c r="F44" s="19">
+        <f t="shared" si="11"/>
+        <v>4623898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="13">
+        <v>19182</v>
+      </c>
+      <c r="D45" s="12">
+        <f t="shared" si="9"/>
+        <v>13101306</v>
+      </c>
+      <c r="E45" s="12">
+        <f t="shared" si="10"/>
+        <v>10081763</v>
+      </c>
+      <c r="F45" s="19">
+        <f t="shared" si="11"/>
+        <v>3019543</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="14">
-        <v>30336</v>
-      </c>
-      <c r="D42" s="12">
-        <f>C11*C42</f>
-        <v>127593216</v>
-      </c>
-      <c r="E42" s="12">
-        <f>C11*$C$35</f>
-        <v>62084766</v>
-      </c>
-      <c r="F42" s="23">
-        <f t="shared" si="4"/>
-        <v>65508450</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="14">
-        <v>19788</v>
-      </c>
-      <c r="D43" s="12">
-        <f>C12*C43</f>
-        <v>8172444</v>
-      </c>
-      <c r="E43" s="12">
-        <f>C12*$C$35</f>
-        <v>6096293</v>
-      </c>
-      <c r="F43" s="23">
-        <f t="shared" si="4"/>
-        <v>2076151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" s="14">
-        <v>17303</v>
-      </c>
-      <c r="D44" s="12">
-        <f>C13*C44</f>
-        <v>31474157</v>
-      </c>
-      <c r="E44" s="12">
-        <f>C13*$C$35</f>
-        <v>26850259</v>
-      </c>
-      <c r="F44" s="23">
-        <f t="shared" si="4"/>
-        <v>4623898</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="14">
-        <v>19182</v>
-      </c>
-      <c r="D45" s="12">
-        <f>C14*C45</f>
-        <v>13101306</v>
-      </c>
-      <c r="E45" s="12">
-        <f>C14*$C$35</f>
-        <v>10081763</v>
-      </c>
-      <c r="F45" s="23">
-        <f t="shared" si="4"/>
-        <v>3019543</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="14">
+      <c r="C46" s="13">
         <v>15834</v>
       </c>
       <c r="D46" s="12">
-        <f>C15*C46</f>
+        <f t="shared" si="9"/>
         <v>52188864</v>
       </c>
       <c r="E46" s="12">
-        <f>C15*$C$35</f>
+        <f t="shared" si="10"/>
         <v>48652256</v>
       </c>
-      <c r="F46" s="23">
-        <f t="shared" si="4"/>
+      <c r="F46" s="19">
+        <f t="shared" si="11"/>
         <v>3536608</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" s="14">
+        <v>161</v>
+      </c>
+      <c r="C47" s="13">
         <v>27162</v>
       </c>
       <c r="D47" s="12">
-        <f>C16*C47</f>
+        <f t="shared" si="9"/>
         <v>21512304</v>
       </c>
       <c r="E47" s="12">
-        <f>C16*$C$35</f>
+        <f t="shared" si="10"/>
         <v>11690712</v>
       </c>
-      <c r="F47" s="23">
-        <f t="shared" si="4"/>
+      <c r="F47" s="19">
+        <f t="shared" si="11"/>
         <v>9821592</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="14">
+        <v>146</v>
+      </c>
+      <c r="C48" s="13">
         <v>19356</v>
       </c>
       <c r="D48" s="12">
-        <f>C17*C48</f>
+        <f t="shared" si="9"/>
         <v>31685772</v>
       </c>
       <c r="E48" s="12">
-        <f>C17*$C$35</f>
+        <f t="shared" si="10"/>
         <v>24163757</v>
       </c>
-      <c r="F48" s="23">
-        <f t="shared" si="4"/>
+      <c r="F48" s="19">
+        <f t="shared" si="11"/>
         <v>7522015</v>
       </c>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E49" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F49" s="12">
         <f>SUM(F40:F48)</f>
         <v>106656982</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B31:J41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B31:I41">
     <sortCondition ref="B31:B41"/>
   </sortState>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="M6:O7"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="F6:K7"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="E37:E39"/>
     <mergeCell ref="F37:F39"/>
     <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:I7"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C37:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J9:J10 J11:J20 J22:J24 J26:J30" formulaRange="1"/>
+    <ignoredError sqref="J21 J25" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/assessment3/submission/assessment3_calcs.xlsx
+++ b/assessment3/submission/assessment3_calcs.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment3\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD79BC16-A930-42AA-AB06-81DFD5AA3080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFD7770-6766-4904-B408-6F25824451DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="1" activeTab="3" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
     <sheet name="Task2" sheetId="7" r:id="rId2"/>
     <sheet name="Task3 Data" sheetId="12" r:id="rId3"/>
-    <sheet name="AnsReport1" sheetId="9" r:id="rId4"/>
-    <sheet name="SensReport1" sheetId="10" r:id="rId5"/>
-    <sheet name="LimitReport1" sheetId="11" r:id="rId6"/>
-    <sheet name="AnsReport2" sheetId="8" r:id="rId7"/>
+    <sheet name="Task3 Model" sheetId="14" r:id="rId4"/>
+    <sheet name="AnsReport1" sheetId="9" r:id="rId5"/>
+    <sheet name="SensReport1" sheetId="10" r:id="rId6"/>
+    <sheet name="LimitReport1" sheetId="11" r:id="rId7"/>
+    <sheet name="AnsReport2" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Task1!$B$8:$D$8</definedName>
@@ -77,7 +78,7 @@
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
@@ -113,8 +114,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="214">
   <si>
     <t>objective function</t>
   </si>
@@ -699,6 +722,63 @@
   </si>
   <si>
     <t>academic deficit score - normalised</t>
+  </si>
+  <si>
+    <t>Task 3 - Integer Programming Model</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>x9</t>
+  </si>
+  <si>
+    <t>x10</t>
+  </si>
+  <si>
+    <t>x11</t>
+  </si>
+  <si>
+    <t>x12</t>
+  </si>
+  <si>
+    <t>x13</t>
+  </si>
+  <si>
+    <t>staff ratio</t>
+  </si>
+  <si>
+    <t>academic deficit</t>
+  </si>
+  <si>
+    <t>optimal expenditure:</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>cost per TFE ES staff</t>
+  </si>
+  <si>
+    <t>available budget</t>
+  </si>
+  <si>
+    <t>enrolments</t>
+  </si>
+  <si>
+    <t>initial non-teaching staff</t>
+  </si>
+  <si>
+    <t>academic deficit (norm)</t>
+  </si>
+  <si>
+    <t>decision variables</t>
+  </si>
+  <si>
+    <t>target staff ratio</t>
+  </si>
+  <si>
+    <t>school</t>
   </si>
 </sst>
 </file>
@@ -841,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -887,6 +967,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1772,8 +1868,8 @@
   </sheetPr>
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1798,14 +1894,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="11" t="s">
         <v>143</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="11" t="s">
         <v>185</v>
       </c>
       <c r="C2" s="11"/>
@@ -3534,6 +3630,661 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDC5D0C-7429-4397-A535-E2B77307716A}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="7.58203125" customWidth="1"/>
+    <col min="5" max="6" width="7.9140625" customWidth="1"/>
+    <col min="7" max="14" width="6.83203125" customWidth="1"/>
+    <col min="15" max="16" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="28">
+        <v>68943</v>
+      </c>
+      <c r="C5" s="28"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="28">
+        <f>'Task3 Data'!F49</f>
+        <v>106656982</v>
+      </c>
+      <c r="C6" s="28"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="28">
+        <v>25</v>
+      </c>
+      <c r="C7" s="28"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2">
+        <v>11</v>
+      </c>
+      <c r="M9" s="2">
+        <v>12</v>
+      </c>
+      <c r="N9" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="2" cm="1">
+        <f t="array" ref="B10:N10">TRANSPOSE('Task3 Data'!C18:C30)</f>
+        <v>1482</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1640</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1539</v>
+      </c>
+      <c r="E10" s="2">
+        <v>204</v>
+      </c>
+      <c r="F10" s="2">
+        <v>706</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1345</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1488</v>
+      </c>
+      <c r="I10" s="2">
+        <v>632</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1143</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1609</v>
+      </c>
+      <c r="L10" s="2">
+        <v>609</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2459</v>
+      </c>
+      <c r="N10" s="2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="2" cm="1">
+        <f t="array" ref="B11:N11">TRANSPOSE('Task3 Data'!D18:D30)</f>
+        <v>25.6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>55.8</v>
+      </c>
+      <c r="G11" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>27.9</v>
+      </c>
+      <c r="J11" s="2">
+        <v>53.6</v>
+      </c>
+      <c r="K11" s="2">
+        <v>47.3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="M11" s="2">
+        <v>70.7</v>
+      </c>
+      <c r="N11" s="2">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="26" cm="1">
+        <f t="array" ref="B12:N12">TRANSPOSE('Task3 Data'!Q18:Q30)</f>
+        <v>5.0917702782711662E-2</v>
+      </c>
+      <c r="C12" s="26">
+        <v>4.3812907045589107E-2</v>
+      </c>
+      <c r="D12" s="26">
+        <v>4.1444641799881589E-2</v>
+      </c>
+      <c r="E12" s="26">
+        <v>2.6939017169923033E-2</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.17702782711663706</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0.1201894612196566</v>
+      </c>
+      <c r="H12" s="26">
+        <v>1.7169923031379514E-2</v>
+      </c>
+      <c r="I12" s="26">
+        <v>3.6412078152753109E-2</v>
+      </c>
+      <c r="J12" s="26">
+        <v>0.15334517465956188</v>
+      </c>
+      <c r="K12" s="26">
+        <v>0</v>
+      </c>
+      <c r="L12" s="26">
+        <v>9.9467140319715805E-2</v>
+      </c>
+      <c r="M12" s="26">
+        <v>6.3943161634103018E-2</v>
+      </c>
+      <c r="N12" s="26">
+        <v>4.7365304914150384E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="29">
+        <f>$B$5*SUM(B18:N18)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="29"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B21" s="30"/>
+      <c r="C21" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <f>HLOOKUP(B23, $B$9:$N$12, 2) / (HLOOKUP(B23, $B$9:$N$12, 3) + B$18)</f>
+        <v>57.890625</v>
+      </c>
+      <c r="D23" s="12">
+        <f>$B$7</f>
+        <v>25</v>
+      </c>
+      <c r="E23" s="4">
+        <f>B$18 - HLOOKUP($B23, $B$9:$N$12,4)*SUM($B$18:$N$18)</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4">
+        <f>HLOOKUP(B24, $B$9:$N$12, 2) / (HLOOKUP(B24, $B$9:$N$12, 3) + C$18)</f>
+        <v>48.955223880597018</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" ref="D24:D35" si="0">$B$7</f>
+        <v>25</v>
+      </c>
+      <c r="E24" s="4">
+        <f>C$18 - HLOOKUP($B24, $B$9:$N$12,4)*SUM($B$18:$N$18)</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4">
+        <f>HLOOKUP(B25, $B$9:$N$12, 2) / (HLOOKUP(B25, $B$9:$N$12, 3) + D$18)</f>
+        <v>34.584269662921351</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E25" s="4">
+        <f>D$18 - HLOOKUP($B25, $B$9:$N$12,4)*SUM($B$18:$N$18)</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4">
+        <f>HLOOKUP(B26, $B$9:$N$12, 2) / (HLOOKUP(B26, $B$9:$N$12, 3) + E$18)</f>
+        <v>27.567567567567565</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E26" s="4">
+        <f>E$18 - HLOOKUP($B26, $B$9:$N$12,4)*SUM($B$18:$N$18)</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4">
+        <f>HLOOKUP(B27, $B$9:$N$12, 2) / (HLOOKUP(B27, $B$9:$N$12, 3) + F$18)</f>
+        <v>12.652329749103943</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E27" s="4">
+        <f>F$18 - HLOOKUP($B27, $B$9:$N$12,4)*SUM($B$18:$N$18)</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4">
+        <f>HLOOKUP(B28, $B$9:$N$12, 2) / (HLOOKUP(B28, $B$9:$N$12, 3) + G$18)</f>
+        <v>31.947743467933492</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E28" s="4">
+        <f>G$18 - HLOOKUP($B28, $B$9:$N$12,4)*SUM($B$18:$N$18)</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4">
+        <f>HLOOKUP(B29, $B$9:$N$12, 2) / (HLOOKUP(B29, $B$9:$N$12, 3) + H$18)</f>
+        <v>41.91549295774648</v>
+      </c>
+      <c r="D29" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E29" s="4">
+        <f>H$18 - HLOOKUP($B29, $B$9:$N$12,4)*SUM($B$18:$N$18)</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4">
+        <f>HLOOKUP(B30, $B$9:$N$12, 2) / (HLOOKUP(B30, $B$9:$N$12, 3) + I$18)</f>
+        <v>22.652329749103945</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E30" s="4">
+        <f>I$18 - HLOOKUP($B30, $B$9:$N$12,4)*SUM($B$18:$N$18)</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4">
+        <f>HLOOKUP(B31, $B$9:$N$12, 2) / (HLOOKUP(B31, $B$9:$N$12, 3) + J$18)</f>
+        <v>21.32462686567164</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E31" s="4">
+        <f>J$18 - HLOOKUP($B31, $B$9:$N$12,4)*SUM($B$18:$N$18)</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4">
+        <f>HLOOKUP(B32, $B$9:$N$12, 2) / (HLOOKUP(B32, $B$9:$N$12, 3) + K$18)</f>
+        <v>34.016913319238903</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E32" s="4">
+        <f>K$18 - HLOOKUP($B32, $B$9:$N$12,4)*SUM($B$18:$N$18)</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4">
+        <f>HLOOKUP(B33, $B$9:$N$12, 2) / (HLOOKUP(B33, $B$9:$N$12, 3) + L$18)</f>
+        <v>25.914893617021278</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E33" s="4">
+        <f>L$18 - HLOOKUP($B33, $B$9:$N$12,4)*SUM($B$18:$N$18)</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4">
+        <f>HLOOKUP(B34, $B$9:$N$12, 2) / (HLOOKUP(B34, $B$9:$N$12, 3) + M$18)</f>
+        <v>34.780763790664778</v>
+      </c>
+      <c r="D34" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E34" s="4">
+        <f>M$18 - HLOOKUP($B34, $B$9:$N$12,4)*SUM($B$18:$N$18)</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>13</v>
+      </c>
+      <c r="C35" s="4">
+        <f>HLOOKUP(B35, $B$9:$N$12, 2) / (HLOOKUP(B35, $B$9:$N$12, 3) + N$18)</f>
+        <v>44.879518072289152</v>
+      </c>
+      <c r="D35" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E35" s="4">
+        <f>N$18 - HLOOKUP($B35, $B$9:$N$12,4)*SUM($B$18:$N$18)</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B14:C14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A1F9B0-65AC-42D6-865C-698C26A6F652}">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
@@ -3867,7 +4618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8DD70E-CA22-4686-99BD-A8BA266502AE}">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
@@ -4208,7 +4959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AEAE38-3AEC-465C-BA5D-4B83214DE6CE}">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
@@ -4392,7 +5143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEE27E3-99CF-4EDC-A4A8-33FCA6991B68}">
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>

--- a/assessment3/submission/assessment3_calcs.xlsx
+++ b/assessment3/submission/assessment3_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment3\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56A2363-6777-4F7F-BA5C-F0E56BA7C3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999EB39C-146A-49E7-A3AE-67FADE35547C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="701" activeTab="3" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
+    <workbookView xWindow="-17760" yWindow="1170" windowWidth="14400" windowHeight="14385" tabRatio="701" activeTab="3" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
@@ -950,7 +950,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3350,12 +3350,6 @@
     <sortCondition ref="B31:B41"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="G6:L7"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F6:F8"/>
     <mergeCell ref="Q6:Q8"/>
     <mergeCell ref="N6:P7"/>
     <mergeCell ref="R6:R8"/>
@@ -3363,6 +3357,12 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="M6:M8"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="G6:L7"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F6:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3380,8 +3380,8 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4190,15 +4190,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assessment3/submission/assessment3_calcs.xlsx
+++ b/assessment3/submission/assessment3_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment3\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999EB39C-146A-49E7-A3AE-67FADE35547C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAFBADA-9C1A-4182-9356-B2B633BE3504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17760" yWindow="1170" windowWidth="14400" windowHeight="14385" tabRatio="701" activeTab="3" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
+    <workbookView xWindow="-22245" yWindow="1680" windowWidth="21075" windowHeight="14835" tabRatio="701" activeTab="2" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
   <si>
     <t>objective function</t>
   </si>
@@ -495,6 +495,30 @@
   </si>
   <si>
     <t>staff growth limit</t>
+  </si>
+  <si>
+    <t>System-level statistics</t>
+  </si>
+  <si>
+    <t>median vce study score</t>
+  </si>
+  <si>
+    <t>median naplan literacy</t>
+  </si>
+  <si>
+    <t>median naplan numeracy</t>
+  </si>
+  <si>
+    <t>median non-teaching staff to student ratio</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>median teaching staff to student ratio</t>
+  </si>
+  <si>
+    <t>non-govt</t>
   </si>
 </sst>
 </file>
@@ -581,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -627,6 +651,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1538,16 +1565,16 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.08203125" customWidth="1"/>
     <col min="5" max="5" width="13.9140625" customWidth="1"/>
@@ -3041,27 +3068,27 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G31">
-        <f t="shared" ref="G31:L31" si="10">MEDIAN(G9:G20,G22:G24,G26:G30)</f>
+        <f>MEDIAN(G9:G20,G22:G24,G26:G30)</f>
         <v>577</v>
       </c>
       <c r="H31">
-        <f t="shared" si="10"/>
+        <f>MEDIAN(H9:H20,H22:H24,H26:H30)</f>
         <v>550</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="10"/>
+        <f>MEDIAN(I9:I20,I22:I24,I26:I30)</f>
         <v>580.5</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="10"/>
+        <f>MEDIAN(J9:J20,J22:J24,J26:J30)</f>
         <v>569.5</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="10"/>
+        <f>MEDIAN(K9:K20,K22:K24,K26:K30)</f>
         <v>568.375</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="10"/>
+        <f>MEDIAN(L9:L20,L22:L24,L26:L30)</f>
         <v>579.5</v>
       </c>
       <c r="M31">
@@ -3074,282 +3101,415 @@
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="N33" s="1"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C34" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="4"/>
+      <c r="N34" s="1"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="4">
+        <f>MEDIAN(K9:K17)</f>
+        <v>592</v>
+      </c>
+      <c r="D35" s="4">
+        <f>MEDIAN(K18:K30)</f>
+        <v>562.75</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="4"/>
+      <c r="N35" s="1"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="4">
+        <f>MEDIAN(L9:L17)</f>
+        <v>592</v>
+      </c>
+      <c r="D36" s="4">
+        <f>MEDIAN(L18:L30)</f>
+        <v>575</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="4"/>
+      <c r="N36" s="1"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37">
+        <f>MEDIAN(M9:M17)</f>
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <f>MEDIAN(M18:M30)</f>
+        <v>29</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="4"/>
+      <c r="N37" s="1"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="4" cm="1">
+        <f t="array" ref="C38">MEDIAN(C9:C17/D9:D17)</f>
+        <v>12.609819121447028</v>
+      </c>
+      <c r="D38" s="4" cm="1">
+        <f t="array" ref="D38">MEDIAN(C18:C30/D18:D30)</f>
+        <v>13.012820512820513</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="4"/>
+      <c r="N38" s="1"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="4">
+        <f>MEDIAN(F9:F17)</f>
+        <v>20.964467005076141</v>
+      </c>
+      <c r="D39" s="4">
+        <f>MEDIAN(F18:F30)</f>
+        <v>34.016913319238903</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="4"/>
+      <c r="N39" s="1"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C43" s="13">
         <v>14761</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E36" s="13"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C37" s="20" t="s">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E44" s="13"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C45" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D45" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E45" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F45" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C47" s="20"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B48" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C48" s="9">
         <v>16755</v>
       </c>
-      <c r="D40" s="7">
-        <f t="shared" ref="D40:D48" si="11">C9*C40</f>
+      <c r="D48" s="7">
+        <f>C9*C48</f>
         <v>49058640</v>
       </c>
-      <c r="E40" s="7">
-        <f t="shared" ref="E40:E48" si="12">C9*$C$35</f>
+      <c r="E48" s="7">
+        <f>C9*$C$43</f>
         <v>43220208</v>
       </c>
-      <c r="F40" s="14">
-        <f>D40-E40</f>
+      <c r="F48" s="14">
+        <f>D48-E48</f>
         <v>5838432</v>
       </c>
-      <c r="H40" s="12"/>
-      <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
+      <c r="H48" s="12"/>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C49" s="8">
         <v>19602</v>
       </c>
-      <c r="D41" s="7">
-        <f t="shared" si="11"/>
+      <c r="D49" s="7">
+        <f>C10*C49</f>
         <v>19072746</v>
       </c>
-      <c r="E41" s="7">
-        <f t="shared" si="12"/>
+      <c r="E49" s="7">
+        <f>C10*$C$43</f>
         <v>14362453</v>
       </c>
-      <c r="F41" s="14">
-        <f t="shared" ref="F41:F48" si="13">D41-E41</f>
+      <c r="F49" s="14">
+        <f t="shared" ref="F49:F56" si="10">D49-E49</f>
         <v>4710293</v>
       </c>
-      <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C50" s="8">
         <v>30336</v>
       </c>
-      <c r="D42" s="7">
-        <f t="shared" si="11"/>
+      <c r="D50" s="7">
+        <f>C11*C50</f>
         <v>127593216</v>
       </c>
-      <c r="E42" s="7">
-        <f t="shared" si="12"/>
+      <c r="E50" s="7">
+        <f>C11*$C$43</f>
         <v>62084766</v>
       </c>
-      <c r="F42" s="14">
-        <f t="shared" si="13"/>
+      <c r="F50" s="14">
+        <f t="shared" si="10"/>
         <v>65508450</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C51" s="8">
         <v>19788</v>
       </c>
-      <c r="D43" s="7">
-        <f t="shared" si="11"/>
+      <c r="D51" s="7">
+        <f>C12*C51</f>
         <v>8172444</v>
       </c>
-      <c r="E43" s="7">
-        <f t="shared" si="12"/>
+      <c r="E51" s="7">
+        <f>C12*$C$43</f>
         <v>6096293</v>
       </c>
-      <c r="F43" s="14">
-        <f t="shared" si="13"/>
+      <c r="F51" s="14">
+        <f t="shared" si="10"/>
         <v>2076151</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C52" s="8">
         <v>17303</v>
       </c>
-      <c r="D44" s="7">
-        <f t="shared" si="11"/>
+      <c r="D52" s="7">
+        <f>C13*C52</f>
         <v>31474157</v>
       </c>
-      <c r="E44" s="7">
-        <f t="shared" si="12"/>
+      <c r="E52" s="7">
+        <f>C13*$C$43</f>
         <v>26850259</v>
       </c>
-      <c r="F44" s="14">
-        <f t="shared" si="13"/>
+      <c r="F52" s="14">
+        <f t="shared" si="10"/>
         <v>4623898</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C53" s="8">
         <v>19182</v>
       </c>
-      <c r="D45" s="7">
-        <f t="shared" si="11"/>
+      <c r="D53" s="7">
+        <f>C14*C53</f>
         <v>13101306</v>
       </c>
-      <c r="E45" s="7">
-        <f t="shared" si="12"/>
+      <c r="E53" s="7">
+        <f>C14*$C$43</f>
         <v>10081763</v>
       </c>
-      <c r="F45" s="14">
-        <f t="shared" si="13"/>
+      <c r="F53" s="14">
+        <f t="shared" si="10"/>
         <v>3019543</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C54" s="8">
         <v>15834</v>
       </c>
-      <c r="D46" s="7">
-        <f t="shared" si="11"/>
+      <c r="D54" s="7">
+        <f>C15*C54</f>
         <v>52188864</v>
       </c>
-      <c r="E46" s="7">
-        <f t="shared" si="12"/>
+      <c r="E54" s="7">
+        <f>C15*$C$43</f>
         <v>48652256</v>
       </c>
-      <c r="F46" s="14">
-        <f t="shared" si="13"/>
+      <c r="F54" s="14">
+        <f t="shared" si="10"/>
         <v>3536608</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C55" s="8">
         <v>27162</v>
       </c>
-      <c r="D47" s="7">
-        <f t="shared" si="11"/>
+      <c r="D55" s="7">
+        <f>C16*C55</f>
         <v>21512304</v>
       </c>
-      <c r="E47" s="7">
-        <f t="shared" si="12"/>
+      <c r="E55" s="7">
+        <f>C16*$C$43</f>
         <v>11690712</v>
       </c>
-      <c r="F47" s="14">
-        <f t="shared" si="13"/>
+      <c r="F55" s="14">
+        <f t="shared" si="10"/>
         <v>9821592</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C56" s="8">
         <v>19356</v>
       </c>
-      <c r="D48" s="7">
-        <f t="shared" si="11"/>
+      <c r="D56" s="7">
+        <f>C17*C56</f>
         <v>31685772</v>
       </c>
-      <c r="E48" s="7">
-        <f t="shared" si="12"/>
+      <c r="E56" s="7">
+        <f>C17*$C$43</f>
         <v>24163757</v>
       </c>
-      <c r="F48" s="14">
-        <f t="shared" si="13"/>
+      <c r="F56" s="14">
+        <f t="shared" si="10"/>
         <v>7522015</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E49" s="1" t="s">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="7">
-        <f>SUM(F40:F48)</f>
+      <c r="F57" s="7">
+        <f>SUM(F48:F56)</f>
         <v>106656982</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B31:I41">
-    <sortCondition ref="B31:B41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B31:I49">
+    <sortCondition ref="B31:B49"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G6:L7"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="F6:F8"/>
     <mergeCell ref="Q6:Q8"/>
     <mergeCell ref="N6:P7"/>
     <mergeCell ref="R6:R8"/>
@@ -3357,17 +3517,11 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="M6:M8"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="G6:L7"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F6:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K9:K10 K11:K20 K22:K24 K26:K30" formulaRange="1"/>
+    <ignoredError sqref="K9:K10 K11:K20 K22:K24 K26:K30 C36:C38 D38" formulaRange="1"/>
     <ignoredError sqref="K21 K25" formula="1"/>
   </ignoredErrors>
 </worksheet>
@@ -3380,7 +3534,7 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -3420,7 +3574,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="22">
-        <f>'Task3 Data'!F49</f>
+        <f>'Task3 Data'!F57</f>
         <v>106656982</v>
       </c>
       <c r="C6" s="22"/>

--- a/assessment3/submission/assessment3_calcs.xlsx
+++ b/assessment3/submission/assessment3_calcs.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment3\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAFBADA-9C1A-4182-9356-B2B633BE3504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346FBB7E-B7A5-4FE3-A248-1775228E0900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22245" yWindow="1680" windowWidth="21075" windowHeight="14835" tabRatio="701" activeTab="2" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
+    <workbookView xWindow="-23190" yWindow="2640" windowWidth="21075" windowHeight="14835" tabRatio="701" activeTab="4" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
     <sheet name="Task2" sheetId="7" r:id="rId2"/>
     <sheet name="Task3 Data" sheetId="12" r:id="rId3"/>
     <sheet name="Task3 Model" sheetId="14" r:id="rId4"/>
+    <sheet name="Answer Report 1" sheetId="15" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Task1!$B$8:$D$8</definedName>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="249">
   <si>
     <t>objective function</t>
   </si>
@@ -519,6 +520,408 @@
   </si>
   <si>
     <t>non-govt</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Answer Report</t>
+  </si>
+  <si>
+    <t>Worksheet: [assessment3_calcs.xlsx]Task3 Model</t>
+  </si>
+  <si>
+    <t>Report Created: 21/02/2023 7:10:30 AM</t>
+  </si>
+  <si>
+    <t>Result: Solver found a solution.  All Constraints and optimality conditions are satisfied.</t>
+  </si>
+  <si>
+    <t>Solver Engine</t>
+  </si>
+  <si>
+    <t>Engine: Simplex LP</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.063 Seconds.</t>
+  </si>
+  <si>
+    <t>Iterations: 11 Subproblems: 34</t>
+  </si>
+  <si>
+    <t>Solver Options</t>
+  </si>
+  <si>
+    <t>Max Time Unlimited,  Iterations Unlimited, Precision 0.000001, Use Automatic Scaling</t>
+  </si>
+  <si>
+    <t>Max Subproblems Unlimited, Max Integer Sols Unlimited, Integer Tolerance 0%, Assume NonNegative</t>
+  </si>
+  <si>
+    <t>Objective Cell (Min)</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Original Value</t>
+  </si>
+  <si>
+    <t>Final Value</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Cell Value</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>$B$16</t>
+  </si>
+  <si>
+    <t>$B$20</t>
+  </si>
+  <si>
+    <t>value x1</t>
+  </si>
+  <si>
+    <t>$C$20</t>
+  </si>
+  <si>
+    <t>value x2</t>
+  </si>
+  <si>
+    <t>$D$20</t>
+  </si>
+  <si>
+    <t>value x3</t>
+  </si>
+  <si>
+    <t>$E$20</t>
+  </si>
+  <si>
+    <t>value x4</t>
+  </si>
+  <si>
+    <t>$F$20</t>
+  </si>
+  <si>
+    <t>value x5</t>
+  </si>
+  <si>
+    <t>$G$20</t>
+  </si>
+  <si>
+    <t>value x6</t>
+  </si>
+  <si>
+    <t>$H$20</t>
+  </si>
+  <si>
+    <t>value x7</t>
+  </si>
+  <si>
+    <t>$I$20</t>
+  </si>
+  <si>
+    <t>value x8</t>
+  </si>
+  <si>
+    <t>$J$20</t>
+  </si>
+  <si>
+    <t>value x9</t>
+  </si>
+  <si>
+    <t>$K$20</t>
+  </si>
+  <si>
+    <t>value x10</t>
+  </si>
+  <si>
+    <t>$L$20</t>
+  </si>
+  <si>
+    <t>value x11</t>
+  </si>
+  <si>
+    <t>$M$20</t>
+  </si>
+  <si>
+    <t>value x12</t>
+  </si>
+  <si>
+    <t>$N$20</t>
+  </si>
+  <si>
+    <t>value x13</t>
+  </si>
+  <si>
+    <t>$C$24</t>
+  </si>
+  <si>
+    <t>optimal x2</t>
+  </si>
+  <si>
+    <t>$C$24&lt;=$C$25</t>
+  </si>
+  <si>
+    <t>Not Binding</t>
+  </si>
+  <si>
+    <t>$C$29</t>
+  </si>
+  <si>
+    <t>$C$29&lt;=$D$29</t>
+  </si>
+  <si>
+    <t>$C$30</t>
+  </si>
+  <si>
+    <t>$C$30&lt;=$D$30</t>
+  </si>
+  <si>
+    <t>$C$31</t>
+  </si>
+  <si>
+    <t>$C$31&lt;=$D$31</t>
+  </si>
+  <si>
+    <t>$C$32</t>
+  </si>
+  <si>
+    <t>$C$32&lt;=$D$32</t>
+  </si>
+  <si>
+    <t>$C$33</t>
+  </si>
+  <si>
+    <t>$C$33&lt;=$D$33</t>
+  </si>
+  <si>
+    <t>$C$34</t>
+  </si>
+  <si>
+    <t>$C$34&lt;=$D$34</t>
+  </si>
+  <si>
+    <t>$C$35</t>
+  </si>
+  <si>
+    <t>$C$35&lt;=$D$35</t>
+  </si>
+  <si>
+    <t>$C$36</t>
+  </si>
+  <si>
+    <t>$C$36&lt;=$D$36</t>
+  </si>
+  <si>
+    <t>$C$37</t>
+  </si>
+  <si>
+    <t>$C$37&lt;=$D$37</t>
+  </si>
+  <si>
+    <t>$C$38</t>
+  </si>
+  <si>
+    <t>$C$38&lt;=$D$38</t>
+  </si>
+  <si>
+    <t>$C$39</t>
+  </si>
+  <si>
+    <t>$C$39&lt;=$D$39</t>
+  </si>
+  <si>
+    <t>$C$40</t>
+  </si>
+  <si>
+    <t>$C$40&lt;=$D$40</t>
+  </si>
+  <si>
+    <t>$C$41</t>
+  </si>
+  <si>
+    <t>$C$41&lt;=$D$41</t>
+  </si>
+  <si>
+    <t>$E$29</t>
+  </si>
+  <si>
+    <t>$E$29&gt;=$F$29</t>
+  </si>
+  <si>
+    <t>$E$30</t>
+  </si>
+  <si>
+    <t>$E$30&gt;=$F$30</t>
+  </si>
+  <si>
+    <t>$E$31</t>
+  </si>
+  <si>
+    <t>$E$31&gt;=$F$31</t>
+  </si>
+  <si>
+    <t>$E$32</t>
+  </si>
+  <si>
+    <t>$E$32&gt;=$F$32</t>
+  </si>
+  <si>
+    <t>$E$33</t>
+  </si>
+  <si>
+    <t>$E$33&gt;=$F$33</t>
+  </si>
+  <si>
+    <t>$E$34</t>
+  </si>
+  <si>
+    <t>$E$34&gt;=$F$34</t>
+  </si>
+  <si>
+    <t>$E$35</t>
+  </si>
+  <si>
+    <t>$E$35&gt;=$F$35</t>
+  </si>
+  <si>
+    <t>$E$36</t>
+  </si>
+  <si>
+    <t>$E$36&gt;=$F$36</t>
+  </si>
+  <si>
+    <t>$E$37</t>
+  </si>
+  <si>
+    <t>$E$37&gt;=$F$37</t>
+  </si>
+  <si>
+    <t>$E$38</t>
+  </si>
+  <si>
+    <t>$E$38&gt;=$F$38</t>
+  </si>
+  <si>
+    <t>Binding</t>
+  </si>
+  <si>
+    <t>$E$39</t>
+  </si>
+  <si>
+    <t>$E$39&gt;=$F$39</t>
+  </si>
+  <si>
+    <t>$E$40</t>
+  </si>
+  <si>
+    <t>$E$40&gt;=$F$40</t>
+  </si>
+  <si>
+    <t>$E$41</t>
+  </si>
+  <si>
+    <t>$E$41&gt;=$F$41</t>
+  </si>
+  <si>
+    <t>$G$29</t>
+  </si>
+  <si>
+    <t>$G$29&lt;=$H$29</t>
+  </si>
+  <si>
+    <t>$G$30</t>
+  </si>
+  <si>
+    <t>$G$30&lt;=$H$30</t>
+  </si>
+  <si>
+    <t>$G$31</t>
+  </si>
+  <si>
+    <t>$G$31&lt;=$H$31</t>
+  </si>
+  <si>
+    <t>$G$32</t>
+  </si>
+  <si>
+    <t>$G$32&lt;=$H$32</t>
+  </si>
+  <si>
+    <t>$G$33</t>
+  </si>
+  <si>
+    <t>$G$33&lt;=$H$33</t>
+  </si>
+  <si>
+    <t>$G$34</t>
+  </si>
+  <si>
+    <t>$G$34&lt;=$H$34</t>
+  </si>
+  <si>
+    <t>$G$35</t>
+  </si>
+  <si>
+    <t>$G$35&lt;=$H$35</t>
+  </si>
+  <si>
+    <t>$G$36</t>
+  </si>
+  <si>
+    <t>$G$36&lt;=$H$36</t>
+  </si>
+  <si>
+    <t>$G$37</t>
+  </si>
+  <si>
+    <t>$G$37&lt;=$H$37</t>
+  </si>
+  <si>
+    <t>$G$38</t>
+  </si>
+  <si>
+    <t>$G$38&lt;=$H$38</t>
+  </si>
+  <si>
+    <t>$G$39</t>
+  </si>
+  <si>
+    <t>$G$39&lt;=$H$39</t>
+  </si>
+  <si>
+    <t>$G$40</t>
+  </si>
+  <si>
+    <t>$G$40&lt;=$H$40</t>
+  </si>
+  <si>
+    <t>$G$41</t>
+  </si>
+  <si>
+    <t>$G$41&lt;=$H$41</t>
+  </si>
+  <si>
+    <t>$B$20:$N$20=Integer</t>
   </si>
 </sst>
 </file>
@@ -530,7 +933,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -583,6 +986,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -592,11 +1003,42 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -605,7 +1047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -639,6 +1081,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -653,9 +1098,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1567,8 +2019,8 @@
   </sheetPr>
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1637,64 +2089,64 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20" t="s">
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
     </row>
     <row r="8" spans="1:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="16" t="s">
         <v>53</v>
       </c>
@@ -1713,7 +2165,7 @@
       <c r="L8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="20"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="10" t="s">
         <v>69</v>
       </c>
@@ -1723,8 +2175,8 @@
       <c r="P8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -3068,27 +3520,27 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G31">
-        <f>MEDIAN(G9:G20,G22:G24,G26:G30)</f>
+        <f t="shared" ref="G31:L31" si="10">MEDIAN(G9:G20,G22:G24,G26:G30)</f>
         <v>577</v>
       </c>
       <c r="H31">
-        <f>MEDIAN(H9:H20,H22:H24,H26:H30)</f>
+        <f t="shared" si="10"/>
         <v>550</v>
       </c>
       <c r="I31" s="4">
-        <f>MEDIAN(I9:I20,I22:I24,I26:I30)</f>
+        <f t="shared" si="10"/>
         <v>580.5</v>
       </c>
       <c r="J31" s="4">
-        <f>MEDIAN(J9:J20,J22:J24,J26:J30)</f>
+        <f t="shared" si="10"/>
         <v>569.5</v>
       </c>
       <c r="K31" s="4">
-        <f>MEDIAN(K9:K20,K22:K24,K26:K30)</f>
+        <f t="shared" si="10"/>
         <v>568.375</v>
       </c>
       <c r="L31" s="4">
-        <f>MEDIAN(L9:L20,L22:L24,L26:L30)</f>
+        <f t="shared" si="10"/>
         <v>579.5</v>
       </c>
       <c r="M31">
@@ -3120,10 +3572,10 @@
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="20" t="s">
         <v>112</v>
       </c>
       <c r="I34" s="4"/>
@@ -3267,16 +3719,16 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="21" t="s">
         <v>67</v>
       </c>
       <c r="I45" s="1"/>
@@ -3289,16 +3741,16 @@
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="20"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -3312,11 +3764,11 @@
         <v>16755</v>
       </c>
       <c r="D48" s="7">
-        <f>C9*C48</f>
+        <f t="shared" ref="D48:D56" si="11">C9*C48</f>
         <v>49058640</v>
       </c>
       <c r="E48" s="7">
-        <f>C9*$C$43</f>
+        <f t="shared" ref="E48:E56" si="12">C9*$C$43</f>
         <v>43220208</v>
       </c>
       <c r="F48" s="14">
@@ -3334,15 +3786,15 @@
         <v>19602</v>
       </c>
       <c r="D49" s="7">
-        <f>C10*C49</f>
+        <f t="shared" si="11"/>
         <v>19072746</v>
       </c>
       <c r="E49" s="7">
-        <f>C10*$C$43</f>
+        <f t="shared" si="12"/>
         <v>14362453</v>
       </c>
       <c r="F49" s="14">
-        <f t="shared" ref="F49:F56" si="10">D49-E49</f>
+        <f t="shared" ref="F49:F56" si="13">D49-E49</f>
         <v>4710293</v>
       </c>
       <c r="P49" s="2"/>
@@ -3355,15 +3807,15 @@
         <v>30336</v>
       </c>
       <c r="D50" s="7">
-        <f>C11*C50</f>
+        <f t="shared" si="11"/>
         <v>127593216</v>
       </c>
       <c r="E50" s="7">
-        <f>C11*$C$43</f>
+        <f t="shared" si="12"/>
         <v>62084766</v>
       </c>
       <c r="F50" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>65508450</v>
       </c>
     </row>
@@ -3375,15 +3827,15 @@
         <v>19788</v>
       </c>
       <c r="D51" s="7">
-        <f>C12*C51</f>
+        <f t="shared" si="11"/>
         <v>8172444</v>
       </c>
       <c r="E51" s="7">
-        <f>C12*$C$43</f>
+        <f t="shared" si="12"/>
         <v>6096293</v>
       </c>
       <c r="F51" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2076151</v>
       </c>
     </row>
@@ -3395,15 +3847,15 @@
         <v>17303</v>
       </c>
       <c r="D52" s="7">
-        <f>C13*C52</f>
+        <f t="shared" si="11"/>
         <v>31474157</v>
       </c>
       <c r="E52" s="7">
-        <f>C13*$C$43</f>
+        <f t="shared" si="12"/>
         <v>26850259</v>
       </c>
       <c r="F52" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4623898</v>
       </c>
     </row>
@@ -3415,15 +3867,15 @@
         <v>19182</v>
       </c>
       <c r="D53" s="7">
-        <f>C14*C53</f>
+        <f t="shared" si="11"/>
         <v>13101306</v>
       </c>
       <c r="E53" s="7">
-        <f>C14*$C$43</f>
+        <f t="shared" si="12"/>
         <v>10081763</v>
       </c>
       <c r="F53" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3019543</v>
       </c>
     </row>
@@ -3435,15 +3887,15 @@
         <v>15834</v>
       </c>
       <c r="D54" s="7">
-        <f>C15*C54</f>
+        <f t="shared" si="11"/>
         <v>52188864</v>
       </c>
       <c r="E54" s="7">
-        <f>C15*$C$43</f>
+        <f t="shared" si="12"/>
         <v>48652256</v>
       </c>
       <c r="F54" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3536608</v>
       </c>
     </row>
@@ -3455,15 +3907,15 @@
         <v>27162</v>
       </c>
       <c r="D55" s="7">
-        <f>C16*C55</f>
+        <f t="shared" si="11"/>
         <v>21512304</v>
       </c>
       <c r="E55" s="7">
-        <f>C16*$C$43</f>
+        <f t="shared" si="12"/>
         <v>11690712</v>
       </c>
       <c r="F55" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9821592</v>
       </c>
     </row>
@@ -3475,15 +3927,15 @@
         <v>19356</v>
       </c>
       <c r="D56" s="7">
-        <f>C17*C56</f>
+        <f t="shared" si="11"/>
         <v>31685772</v>
       </c>
       <c r="E56" s="7">
-        <f>C17*$C$43</f>
+        <f t="shared" si="12"/>
         <v>24163757</v>
       </c>
       <c r="F56" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7522015</v>
       </c>
     </row>
@@ -3504,12 +3956,6 @@
     <sortCondition ref="B31:B49"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G6:L7"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="F6:F8"/>
     <mergeCell ref="Q6:Q8"/>
     <mergeCell ref="N6:P7"/>
     <mergeCell ref="R6:R8"/>
@@ -3517,6 +3963,12 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="M6:M8"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G6:L7"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="F6:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3532,10 +3984,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3564,29 +4016,29 @@
       <c r="A5" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="23">
         <v>68943</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="23">
         <f>'Task3 Data'!F57</f>
         <v>106656982</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="23">
         <v>40</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -3824,18 +4276,18 @@
       <c r="A16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="23">
         <f>$B$5*SUM(B20:N20)</f>
         <v>7376901</v>
       </c>
-      <c r="C16" s="22"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C16" s="23"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
@@ -3876,7 +4328,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -3920,58 +4372,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>90</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="23">
         <f>$B$5*SUM(B20:N20)</f>
         <v>7376901</v>
       </c>
-      <c r="D24" s="22"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="23">
         <f>$B$6</f>
         <v>106656982</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="23"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O26">
+        <v>7376901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="23" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23" t="s">
+      <c r="F27" s="24"/>
+      <c r="G27" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C28" s="2" t="s">
         <v>22</v>
       </c>
@@ -3991,7 +4446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>1</v>
       </c>
@@ -4018,7 +4473,7 @@
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>2</v>
       </c>
@@ -4045,7 +4500,7 @@
       </c>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>3</v>
       </c>
@@ -4072,7 +4527,7 @@
       </c>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>4</v>
       </c>
@@ -4356,4 +4811,1200 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD2B767-A469-4832-8C77-30A9796718BC}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:G78"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.08203125" customWidth="1"/>
+    <col min="2" max="2" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="29">
+        <v>7376901</v>
+      </c>
+      <c r="E16" s="29">
+        <v>7376901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="30">
+        <v>12</v>
+      </c>
+      <c r="E21" s="30">
+        <v>12</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="30">
+        <v>8</v>
+      </c>
+      <c r="E22" s="30">
+        <v>8</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="30">
+        <v>5</v>
+      </c>
+      <c r="E23" s="30">
+        <v>5</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="30">
+        <v>3</v>
+      </c>
+      <c r="E24" s="30">
+        <v>3</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="30">
+        <v>19</v>
+      </c>
+      <c r="E25" s="30">
+        <v>19</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="30">
+        <v>13</v>
+      </c>
+      <c r="E26" s="30">
+        <v>13</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="30">
+        <v>2</v>
+      </c>
+      <c r="E27" s="30">
+        <v>2</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="30">
+        <v>4</v>
+      </c>
+      <c r="E28" s="30">
+        <v>4</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="30">
+        <v>17</v>
+      </c>
+      <c r="E29" s="30">
+        <v>17</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="30">
+        <v>11</v>
+      </c>
+      <c r="E31" s="30">
+        <v>11</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="30">
+        <v>7</v>
+      </c>
+      <c r="E32" s="30">
+        <v>7</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="31">
+        <v>6</v>
+      </c>
+      <c r="E33" s="31">
+        <v>6</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="32">
+        <v>7376901</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" s="28">
+        <v>99280081</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="33">
+        <v>-22</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G39" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="33">
+        <v>-20</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="33">
+        <v>-441</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="28">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B42" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="33">
+        <v>-212</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="28">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="33">
+        <v>-2286</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G43" s="28">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="33">
+        <v>-859</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="28">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="33">
+        <v>-12</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="33">
+        <v>-644</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" s="28">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="33">
+        <v>-1681</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G47" s="28">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B48" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="33">
+        <v>-283</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G48" s="28">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="33">
+        <v>-747</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G49" s="28">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="33">
+        <v>-649</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" s="28">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="33">
+        <v>-159</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" s="28">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="33">
+        <v>6.5518058022498522</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G52" s="33">
+        <v>6.5518058022498522</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="33">
+        <v>3.3120189461219658</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" s="33">
+        <v>3.3120189461219658</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="33">
+        <v>0.56542332741267032</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G54" s="33">
+        <v>0.56542332741267032</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="33">
+        <v>0.11752516281823544</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G55" s="33">
+        <v>0.11752516281823544</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="33">
+        <v>5.8022498519836319E-2</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56" s="33">
+        <v>5.8022498519836319E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="33">
+        <v>0.13972764949674499</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G57" s="33">
+        <v>0.13972764949674499</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="33">
+        <v>0.16281823564239195</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" s="33">
+        <v>0.16281823564239195</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="33">
+        <v>0.10390763765541733</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G59" s="33">
+        <v>0.10390763765541733</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="33">
+        <v>0.59206631142687982</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G60" s="33">
+        <v>0.59206631142687982</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="33">
+        <v>0</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G61" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B62" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="33">
+        <v>0.35701598579040805</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G62" s="33">
+        <v>0.35701598579040805</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B63" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="33">
+        <v>0.15808170515097686</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G63" s="33">
+        <v>0.15808170515097686</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B64" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="33">
+        <v>0.93191237418590855</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G64" s="33">
+        <v>0.93191237418590855</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B65" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="30">
+        <v>-18.649999999999999</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" s="28">
+        <v>18.649999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B66" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="30">
+        <v>-31.950000000000003</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G66" s="28">
+        <v>31.950000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B67" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="30">
+        <v>-35.375</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G67" s="28">
+        <v>35.375</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="30">
+        <v>-3.6500000000000004</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G68" s="28">
+        <v>3.6500000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B69" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="30">
+        <v>-8.2999999999999972</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G69" s="28">
+        <v>8.2999999999999972</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B70" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="30">
+        <v>-23.950000000000003</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" s="28">
+        <v>23.950000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B71" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="30">
+        <v>-35.475000000000001</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G71" s="28">
+        <v>35.475000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B72" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="30">
+        <v>-16.824999999999999</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="F72" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72" s="28">
+        <v>16.824999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B73" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="30">
+        <v>-18.950000000000003</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G73" s="28">
+        <v>18.950000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B74" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="30">
+        <v>-40.049999999999997</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G74" s="28">
+        <v>40.049999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B75" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="30">
+        <v>-6.4249999999999972</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="F75" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G75" s="28">
+        <v>6.4249999999999972</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B76" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="30">
+        <v>-52.375</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="F76" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G76" s="28">
+        <v>52.375</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B77" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="30">
+        <v>-10.399999999999999</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G77" s="28">
+        <v>10.399999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assessment3/submission/assessment3_calcs.xlsx
+++ b/assessment3/submission/assessment3_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment3\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346FBB7E-B7A5-4FE3-A248-1775228E0900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C01E0E0-0B7C-4689-A7B7-8E317C3CC7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23190" yWindow="2640" windowWidth="21075" windowHeight="14835" tabRatio="701" activeTab="4" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
+    <workbookView xWindow="-21765" yWindow="2040" windowWidth="21075" windowHeight="14835" tabRatio="701" activeTab="2" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
@@ -60,18 +61,21 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Answer Report 1'!$C$13</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Task1!$C$3</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Task2!$C$3</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Task3 Model'!$B$16</definedName>
@@ -122,12 +126,15 @@
     <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
@@ -153,7 +160,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -492,9 +499,6 @@
     <t>teaching staff</t>
   </si>
   <si>
-    <t>staff facilities</t>
-  </si>
-  <si>
     <t>staff growth limit</t>
   </si>
   <si>
@@ -922,6 +926,9 @@
   </si>
   <si>
     <t>$B$20:$N$20=Integer</t>
+  </si>
+  <si>
+    <t>staff growth</t>
   </si>
 </sst>
 </file>
@@ -2019,8 +2026,8 @@
   </sheetPr>
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2240,7 +2247,7 @@
         <f t="shared" ref="R9:R30" si="2">Q9/SUM($Q$9:$Q$30)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="4"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
@@ -2301,6 +2308,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
@@ -2361,6 +2369,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
@@ -2421,6 +2430,7 @@
         <f t="shared" si="2"/>
         <v>7.93368857312019E-2</v>
       </c>
+      <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
@@ -2481,6 +2491,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
@@ -2541,6 +2552,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
@@ -2601,6 +2613,7 @@
         <f t="shared" si="2"/>
         <v>8.2889283599763171E-3</v>
       </c>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
@@ -2661,8 +2674,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -2721,8 +2735,9 @@
         <f t="shared" si="2"/>
         <v>3.4339846062759027E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -2784,8 +2799,9 @@
         <f t="shared" si="2"/>
         <v>5.0917702782711662E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>33</v>
       </c>
@@ -2844,8 +2860,9 @@
         <f t="shared" si="2"/>
         <v>4.3812907045589107E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -2904,8 +2921,9 @@
         <f t="shared" si="2"/>
         <v>4.1444641799881589E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -2970,8 +2988,9 @@
         <f t="shared" si="2"/>
         <v>2.6939017169923033E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>44</v>
       </c>
@@ -3031,8 +3050,9 @@
         <f t="shared" si="2"/>
         <v>0.17702782711663706</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -3091,8 +3111,9 @@
         <f t="shared" si="2"/>
         <v>0.1201894612196566</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>36</v>
       </c>
@@ -3151,8 +3172,9 @@
         <f t="shared" si="2"/>
         <v>1.7169923031379514E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>56</v>
       </c>
@@ -3216,8 +3238,9 @@
         <f t="shared" si="2"/>
         <v>3.6412078152753109E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>37</v>
       </c>
@@ -3276,8 +3299,9 @@
         <f t="shared" si="2"/>
         <v>0.15334517465956188</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>39</v>
       </c>
@@ -3336,8 +3360,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>40</v>
       </c>
@@ -3396,8 +3421,9 @@
         <f t="shared" si="2"/>
         <v>9.9467140319715805E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>45</v>
       </c>
@@ -3456,8 +3482,9 @@
         <f t="shared" si="2"/>
         <v>6.3943161634103018E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S29" s="5"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>46</v>
       </c>
@@ -3517,8 +3544,9 @@
         <f t="shared" si="2"/>
         <v>4.7365304914150384E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S30" s="5"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="G31">
         <f t="shared" ref="G31:L31" si="10">MEDIAN(G9:G20,G22:G24,G26:G30)</f>
         <v>577</v>
@@ -3552,7 +3580,7 @@
       </c>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -3562,7 +3590,7 @@
     </row>
     <row r="33" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -3573,10 +3601,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C34" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -3587,7 +3615,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="4">
         <f>MEDIAN(K9:K17)</f>
@@ -3606,7 +3634,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="4">
         <f>MEDIAN(L9:L17)</f>
@@ -3625,7 +3653,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37">
         <f>MEDIAN(M9:M17)</f>
@@ -3644,7 +3672,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" s="4" cm="1">
         <f t="array" ref="C38">MEDIAN(C9:C17/D9:D17)</f>
@@ -3663,7 +3691,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="4">
         <f>MEDIAN(F9:F17)</f>
@@ -3984,10 +4012,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4000,6 +4028,7 @@
     <col min="7" max="8" width="7.5" customWidth="1"/>
     <col min="9" max="14" width="6.83203125" customWidth="1"/>
     <col min="15" max="16" width="11.83203125" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
@@ -4042,7 +4071,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8">
         <v>0.25</v>
@@ -4282,12 +4311,12 @@
       </c>
       <c r="C16" s="23"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
@@ -4328,7 +4357,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -4372,15 +4401,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -4393,7 +4422,7 @@
       </c>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
         <v>8</v>
@@ -4405,13 +4434,10 @@
       <c r="D25" s="23"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-      <c r="O26">
-        <v>7376901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
       <c r="C27" s="25" t="s">
         <v>91</v>
@@ -4422,11 +4448,11 @@
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24" t="s">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C28" s="2" t="s">
         <v>22</v>
       </c>
@@ -4446,7 +4472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>1</v>
       </c>
@@ -4473,7 +4499,7 @@
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>2</v>
       </c>
@@ -4500,7 +4526,7 @@
       </c>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>3</v>
       </c>
@@ -4527,7 +4553,7 @@
       </c>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>4</v>
       </c>
@@ -4554,7 +4580,7 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>5</v>
       </c>
@@ -4581,7 +4607,7 @@
       </c>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>6</v>
       </c>
@@ -4607,8 +4633,14 @@
         <v>0</v>
       </c>
       <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="O34">
+        <v>107</v>
+      </c>
+      <c r="P34">
+        <v>7376901</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>7</v>
       </c>
@@ -4634,8 +4666,22 @@
         <v>0</v>
       </c>
       <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="N35">
+        <f>O34-O35</f>
+        <v>19</v>
+      </c>
+      <c r="O35">
+        <v>88</v>
+      </c>
+      <c r="P35" s="7">
+        <v>6066984</v>
+      </c>
+      <c r="Q35" s="7">
+        <f>P34-P35</f>
+        <v>1309917</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>8</v>
       </c>
@@ -4661,8 +4707,22 @@
         <v>0</v>
       </c>
       <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="N36">
+        <f>O35-O36</f>
+        <v>18</v>
+      </c>
+      <c r="O36">
+        <v>70</v>
+      </c>
+      <c r="P36" s="7">
+        <v>4826010</v>
+      </c>
+      <c r="Q36" s="7">
+        <f>P35-P36</f>
+        <v>1240974</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>9</v>
       </c>
@@ -4689,7 +4749,7 @@
       </c>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>10</v>
       </c>
@@ -4716,7 +4776,7 @@
       </c>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>11</v>
       </c>
@@ -4743,7 +4803,7 @@
       </c>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>12</v>
       </c>
@@ -4770,7 +4830,7 @@
       </c>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>13</v>
       </c>
@@ -4820,8 +4880,8 @@
   </sheetPr>
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4837,84 +4897,84 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="D15" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="E15" s="27" t="s">
         <v>129</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>93</v>
@@ -4928,32 +4988,32 @@
     </row>
     <row r="19" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="D20" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="E20" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>130</v>
-      </c>
       <c r="F20" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>139</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>140</v>
       </c>
       <c r="D21" s="30">
         <v>12</v>
@@ -4962,15 +5022,15 @@
         <v>12</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B22" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>141</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>142</v>
       </c>
       <c r="D22" s="30">
         <v>8</v>
@@ -4979,15 +5039,15 @@
         <v>8</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="28" t="s">
         <v>143</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>144</v>
       </c>
       <c r="D23" s="30">
         <v>5</v>
@@ -4996,15 +5056,15 @@
         <v>5</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>145</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>146</v>
       </c>
       <c r="D24" s="30">
         <v>3</v>
@@ -5013,15 +5073,15 @@
         <v>3</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>147</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>148</v>
       </c>
       <c r="D25" s="30">
         <v>19</v>
@@ -5030,15 +5090,15 @@
         <v>19</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>149</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>150</v>
       </c>
       <c r="D26" s="30">
         <v>13</v>
@@ -5047,15 +5107,15 @@
         <v>13</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B27" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>151</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>152</v>
       </c>
       <c r="D27" s="30">
         <v>2</v>
@@ -5064,15 +5124,15 @@
         <v>2</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B28" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>153</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>154</v>
       </c>
       <c r="D28" s="30">
         <v>4</v>
@@ -5081,15 +5141,15 @@
         <v>4</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>155</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>156</v>
       </c>
       <c r="D29" s="30">
         <v>17</v>
@@ -5098,16 +5158,16 @@
         <v>17</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>158</v>
-      </c>
       <c r="D30" s="30">
         <v>0</v>
       </c>
@@ -5115,15 +5175,15 @@
         <v>0</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>159</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>160</v>
       </c>
       <c r="D31" s="30">
         <v>11</v>
@@ -5132,15 +5192,15 @@
         <v>11</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>161</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>162</v>
       </c>
       <c r="D32" s="30">
         <v>7</v>
@@ -5149,15 +5209,15 @@
         <v>7</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>163</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>164</v>
       </c>
       <c r="D33" s="31">
         <v>6</v>
@@ -5166,49 +5226,49 @@
         <v>6</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="27" t="s">
-        <v>128</v>
-      </c>
       <c r="D37" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="F37" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="G37" s="27" t="s">
         <v>136</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B38" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="28" t="s">
         <v>165</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>166</v>
       </c>
       <c r="D38" s="32">
         <v>7376901</v>
       </c>
       <c r="E38" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="28" t="s">
         <v>167</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>168</v>
       </c>
       <c r="G38" s="28">
         <v>99280081</v>
@@ -5216,7 +5276,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B39" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>22</v>
@@ -5225,10 +5285,10 @@
         <v>-22</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G39" s="28">
         <v>22</v>
@@ -5236,7 +5296,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B40" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>22</v>
@@ -5245,10 +5305,10 @@
         <v>-20</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G40" s="28">
         <v>20</v>
@@ -5256,7 +5316,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B41" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C41" s="28" t="s">
         <v>22</v>
@@ -5265,10 +5325,10 @@
         <v>-441</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G41" s="28">
         <v>441</v>
@@ -5276,7 +5336,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B42" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>22</v>
@@ -5285,10 +5345,10 @@
         <v>-212</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G42" s="28">
         <v>212</v>
@@ -5296,7 +5356,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B43" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>22</v>
@@ -5305,10 +5365,10 @@
         <v>-2286</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G43" s="28">
         <v>2286</v>
@@ -5316,7 +5376,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B44" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>22</v>
@@ -5325,10 +5385,10 @@
         <v>-859</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G44" s="28">
         <v>859</v>
@@ -5336,7 +5396,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B45" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>22</v>
@@ -5345,10 +5405,10 @@
         <v>-12</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G45" s="28">
         <v>12</v>
@@ -5356,7 +5416,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B46" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>22</v>
@@ -5365,10 +5425,10 @@
         <v>-644</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G46" s="28">
         <v>644</v>
@@ -5376,7 +5436,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B47" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>22</v>
@@ -5385,10 +5445,10 @@
         <v>-1681</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G47" s="28">
         <v>1681</v>
@@ -5396,7 +5456,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B48" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>22</v>
@@ -5405,10 +5465,10 @@
         <v>-283</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G48" s="28">
         <v>283</v>
@@ -5416,7 +5476,7 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>22</v>
@@ -5425,10 +5485,10 @@
         <v>-747</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G49" s="28">
         <v>747</v>
@@ -5436,7 +5496,7 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B50" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>22</v>
@@ -5445,10 +5505,10 @@
         <v>-649</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G50" s="28">
         <v>649</v>
@@ -5456,7 +5516,7 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B51" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>22</v>
@@ -5465,10 +5525,10 @@
         <v>-159</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G51" s="28">
         <v>159</v>
@@ -5476,7 +5536,7 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B52" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>22</v>
@@ -5485,10 +5545,10 @@
         <v>6.5518058022498522</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G52" s="33">
         <v>6.5518058022498522</v>
@@ -5496,7 +5556,7 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B53" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>22</v>
@@ -5505,10 +5565,10 @@
         <v>3.3120189461219658</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G53" s="33">
         <v>3.3120189461219658</v>
@@ -5516,7 +5576,7 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B54" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>22</v>
@@ -5525,10 +5585,10 @@
         <v>0.56542332741267032</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G54" s="33">
         <v>0.56542332741267032</v>
@@ -5536,7 +5596,7 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B55" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>22</v>
@@ -5545,10 +5605,10 @@
         <v>0.11752516281823544</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G55" s="33">
         <v>0.11752516281823544</v>
@@ -5556,7 +5616,7 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B56" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C56" s="28" t="s">
         <v>22</v>
@@ -5565,10 +5625,10 @@
         <v>5.8022498519836319E-2</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G56" s="33">
         <v>5.8022498519836319E-2</v>
@@ -5576,7 +5636,7 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B57" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>22</v>
@@ -5585,10 +5645,10 @@
         <v>0.13972764949674499</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G57" s="33">
         <v>0.13972764949674499</v>
@@ -5596,7 +5656,7 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B58" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C58" s="28" t="s">
         <v>22</v>
@@ -5605,10 +5665,10 @@
         <v>0.16281823564239195</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G58" s="33">
         <v>0.16281823564239195</v>
@@ -5616,7 +5676,7 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B59" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>22</v>
@@ -5625,10 +5685,10 @@
         <v>0.10390763765541733</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F59" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G59" s="33">
         <v>0.10390763765541733</v>
@@ -5636,7 +5696,7 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B60" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>22</v>
@@ -5645,10 +5705,10 @@
         <v>0.59206631142687982</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G60" s="33">
         <v>0.59206631142687982</v>
@@ -5656,7 +5716,7 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B61" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>22</v>
@@ -5665,10 +5725,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61" s="28" t="s">
         <v>214</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>215</v>
       </c>
       <c r="G61" s="33">
         <v>0</v>
@@ -5676,7 +5736,7 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B62" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C62" s="28" t="s">
         <v>22</v>
@@ -5685,10 +5745,10 @@
         <v>0.35701598579040805</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G62" s="33">
         <v>0.35701598579040805</v>
@@ -5696,7 +5756,7 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B63" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C63" s="28" t="s">
         <v>22</v>
@@ -5705,10 +5765,10 @@
         <v>0.15808170515097686</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G63" s="33">
         <v>0.15808170515097686</v>
@@ -5716,7 +5776,7 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B64" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C64" s="28" t="s">
         <v>22</v>
@@ -5725,10 +5785,10 @@
         <v>0.93191237418590855</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F64" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G64" s="33">
         <v>0.93191237418590855</v>
@@ -5736,7 +5796,7 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B65" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C65" s="28" t="s">
         <v>22</v>
@@ -5745,10 +5805,10 @@
         <v>-18.649999999999999</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F65" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G65" s="28">
         <v>18.649999999999999</v>
@@ -5756,7 +5816,7 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C66" s="28" t="s">
         <v>22</v>
@@ -5765,10 +5825,10 @@
         <v>-31.950000000000003</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F66" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G66" s="28">
         <v>31.950000000000003</v>
@@ -5776,7 +5836,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C67" s="28" t="s">
         <v>22</v>
@@ -5785,10 +5845,10 @@
         <v>-35.375</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F67" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G67" s="28">
         <v>35.375</v>
@@ -5796,7 +5856,7 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B68" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C68" s="28" t="s">
         <v>22</v>
@@ -5805,10 +5865,10 @@
         <v>-3.6500000000000004</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F68" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G68" s="28">
         <v>3.6500000000000004</v>
@@ -5816,7 +5876,7 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B69" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>22</v>
@@ -5825,10 +5885,10 @@
         <v>-8.2999999999999972</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G69" s="28">
         <v>8.2999999999999972</v>
@@ -5836,7 +5896,7 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B70" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C70" s="28" t="s">
         <v>22</v>
@@ -5845,10 +5905,10 @@
         <v>-23.950000000000003</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G70" s="28">
         <v>23.950000000000003</v>
@@ -5856,7 +5916,7 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B71" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C71" s="28" t="s">
         <v>22</v>
@@ -5865,10 +5925,10 @@
         <v>-35.475000000000001</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F71" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G71" s="28">
         <v>35.475000000000001</v>
@@ -5876,7 +5936,7 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B72" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C72" s="28" t="s">
         <v>22</v>
@@ -5885,10 +5945,10 @@
         <v>-16.824999999999999</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F72" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G72" s="28">
         <v>16.824999999999999</v>
@@ -5896,7 +5956,7 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B73" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C73" s="28" t="s">
         <v>22</v>
@@ -5905,10 +5965,10 @@
         <v>-18.950000000000003</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F73" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G73" s="28">
         <v>18.950000000000003</v>
@@ -5916,7 +5976,7 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B74" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C74" s="28" t="s">
         <v>22</v>
@@ -5925,10 +5985,10 @@
         <v>-40.049999999999997</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F74" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G74" s="28">
         <v>40.049999999999997</v>
@@ -5936,7 +5996,7 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B75" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C75" s="28" t="s">
         <v>22</v>
@@ -5945,10 +6005,10 @@
         <v>-6.4249999999999972</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F75" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G75" s="28">
         <v>6.4249999999999972</v>
@@ -5956,7 +6016,7 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B76" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C76" s="28" t="s">
         <v>22</v>
@@ -5965,10 +6025,10 @@
         <v>-52.375</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F76" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G76" s="28">
         <v>52.375</v>
@@ -5976,7 +6036,7 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B77" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C77" s="28" t="s">
         <v>22</v>
@@ -5985,10 +6045,10 @@
         <v>-10.399999999999999</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F77" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G77" s="28">
         <v>10.399999999999999</v>
@@ -5996,7 +6056,7 @@
     </row>
     <row r="78" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B78" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C78" s="26"/>
       <c r="D78" s="26"/>

--- a/assessment3/submission/assessment3_calcs.xlsx
+++ b/assessment3/submission/assessment3_calcs.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanj\ds_projects\unsw\decision_making_6510\assessment3\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C01E0E0-0B7C-4689-A7B7-8E317C3CC7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECB06AC-69BE-4F09-8B16-F7DC05DFE307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21765" yWindow="2040" windowWidth="21075" windowHeight="14835" tabRatio="701" activeTab="2" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
+    <workbookView xWindow="-21765" yWindow="2040" windowWidth="21075" windowHeight="14835" tabRatio="701" activeTab="3" xr2:uid="{25568C85-006A-4435-9ED5-7F79BE0423F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Task1" sheetId="1" r:id="rId1"/>
     <sheet name="Task2" sheetId="7" r:id="rId2"/>
     <sheet name="Task3 Data" sheetId="12" r:id="rId3"/>
     <sheet name="Task3 Model" sheetId="14" r:id="rId4"/>
-    <sheet name="Answer Report 1" sheetId="15" r:id="rId5"/>
+    <sheet name="Task1 Report" sheetId="16" r:id="rId5"/>
+    <sheet name="Task2 Report" sheetId="17" r:id="rId6"/>
+    <sheet name="Task3 Report" sheetId="18" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Task1!$B$8:$D$8</definedName>
@@ -29,7 +31,6 @@
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
@@ -39,16 +40,17 @@
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Task1!$E$14:$E$20</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Task1!$B$8:$D$8</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Task2!$B$8:$H$8</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Task3 Model'!$B$20:$N$20</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Task1!$E$14:$E$19</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Task1!$E$14:$E$20</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Task2!$B$8:$H$8</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Task3 Model'!$C$24</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Task3 Model'!$B$20:$N$20</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">Task2!$I$14:$I$20</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Task3 Model'!$C$29:$C$41</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Task3 Model'!$E$29:$E$41</definedName>
-    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Task3 Model'!$G$29:$G$41</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Task3 Model'!$C$24</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Task3 Model'!$C$29:$C$41</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Task3 Model'!$E$29:$E$41</definedName>
+    <definedName name="solver_lhs6" localSheetId="3" hidden="1">'Task3 Model'!$G$29:$G$41</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
@@ -61,21 +63,18 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">6</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">'Answer Report 1'!$C$13</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Task1!$C$3</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Task2!$C$3</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Task3 Model'!$B$16</definedName>
@@ -85,26 +84,28 @@
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel5" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Task1!$F$14:$F$20</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">"integer"</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">"integer"</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Task1!$F$14:$F$19</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Task1!$F$14:$F$20</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Task3 Model'!$C$25</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">Task2!$J$14:$J$20</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'Task3 Model'!$D$29:$D$41</definedName>
-    <definedName name="solver_rhs4" localSheetId="3" hidden="1">'Task3 Model'!$F$29:$F$41</definedName>
-    <definedName name="solver_rhs5" localSheetId="3" hidden="1">'Task3 Model'!$H$29:$H$41</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'Task3 Model'!$C$25</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">'Task3 Model'!$D$29:$D$41</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">'Task3 Model'!$F$29:$F$41</definedName>
+    <definedName name="solver_rhs6" localSheetId="3" hidden="1">'Task3 Model'!$H$29:$H$41</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
@@ -126,15 +127,12 @@
     <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
@@ -160,7 +158,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -182,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="338">
   <si>
     <t>objective function</t>
   </si>
@@ -454,9 +452,6 @@
     <t>x13</t>
   </si>
   <si>
-    <t>budget</t>
-  </si>
-  <si>
     <t>staff ratio</t>
   </si>
   <si>
@@ -532,9 +527,6 @@
     <t>Worksheet: [assessment3_calcs.xlsx]Task3 Model</t>
   </si>
   <si>
-    <t>Report Created: 21/02/2023 7:10:30 AM</t>
-  </si>
-  <si>
     <t>Result: Solver found a solution.  All Constraints and optimality conditions are satisfied.</t>
   </si>
   <si>
@@ -544,9 +536,6 @@
     <t>Engine: Simplex LP</t>
   </si>
   <si>
-    <t>Solution Time: 0.063 Seconds.</t>
-  </si>
-  <si>
     <t>Iterations: 11 Subproblems: 34</t>
   </si>
   <si>
@@ -643,39 +632,21 @@
     <t>$I$20</t>
   </si>
   <si>
-    <t>value x8</t>
-  </si>
-  <si>
     <t>$J$20</t>
   </si>
   <si>
-    <t>value x9</t>
-  </si>
-  <si>
     <t>$K$20</t>
   </si>
   <si>
-    <t>value x10</t>
-  </si>
-  <si>
     <t>$L$20</t>
   </si>
   <si>
-    <t>value x11</t>
-  </si>
-  <si>
     <t>$M$20</t>
   </si>
   <si>
-    <t>value x12</t>
-  </si>
-  <si>
     <t>$N$20</t>
   </si>
   <si>
-    <t>value x13</t>
-  </si>
-  <si>
     <t>$C$24</t>
   </si>
   <si>
@@ -929,6 +900,300 @@
   </si>
   <si>
     <t>staff growth</t>
+  </si>
+  <si>
+    <t>Worksheet: [assessment3_calcs.xlsx]Task1</t>
+  </si>
+  <si>
+    <t>Report Created: 21/02/2023 4:37:25 PM</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.016 Seconds.</t>
+  </si>
+  <si>
+    <t>Iterations: 9 Subproblems: 0</t>
+  </si>
+  <si>
+    <t>Max Time Unlimited,  Iterations Unlimited, Precision 0.000001</t>
+  </si>
+  <si>
+    <t>$C$3</t>
+  </si>
+  <si>
+    <t>$B$8</t>
+  </si>
+  <si>
+    <t>Contin</t>
+  </si>
+  <si>
+    <t>$C$8</t>
+  </si>
+  <si>
+    <t>$D$8</t>
+  </si>
+  <si>
+    <t>$E$14</t>
+  </si>
+  <si>
+    <t>volume optimal value</t>
+  </si>
+  <si>
+    <t>$E$14&lt;=$F$14</t>
+  </si>
+  <si>
+    <t>$E$15</t>
+  </si>
+  <si>
+    <t>$E$15&lt;=$F$15</t>
+  </si>
+  <si>
+    <t>$E$16</t>
+  </si>
+  <si>
+    <t>calories optimal value</t>
+  </si>
+  <si>
+    <t>$E$16&lt;=$F$16</t>
+  </si>
+  <si>
+    <t>$E$17</t>
+  </si>
+  <si>
+    <t>fat optimal value</t>
+  </si>
+  <si>
+    <t>$E$17&lt;=$F$17</t>
+  </si>
+  <si>
+    <t>$E$18</t>
+  </si>
+  <si>
+    <t>puff rice optimal value</t>
+  </si>
+  <si>
+    <t>$E$18&lt;=$F$18</t>
+  </si>
+  <si>
+    <t>$E$19</t>
+  </si>
+  <si>
+    <t>nuts optimal value</t>
+  </si>
+  <si>
+    <t>$E$19&lt;=$F$19</t>
+  </si>
+  <si>
+    <t>$E$20&lt;=$F$20</t>
+  </si>
+  <si>
+    <t>$B$8&gt;=0</t>
+  </si>
+  <si>
+    <t>$C$8&gt;=0</t>
+  </si>
+  <si>
+    <t>$D$8&gt;=0</t>
+  </si>
+  <si>
+    <t>Worksheet: [assessment3_calcs.xlsx]Task2</t>
+  </si>
+  <si>
+    <t>Report Created: 21/02/2023 4:39:56 PM</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.015 Seconds.</t>
+  </si>
+  <si>
+    <t>Iterations: 2 Subproblems: 16</t>
+  </si>
+  <si>
+    <t>$E$8</t>
+  </si>
+  <si>
+    <t>$F$8</t>
+  </si>
+  <si>
+    <t>$G$8</t>
+  </si>
+  <si>
+    <t>$H$8</t>
+  </si>
+  <si>
+    <t>$I$14</t>
+  </si>
+  <si>
+    <t>sun optimal</t>
+  </si>
+  <si>
+    <t>$I$14&gt;=$J$14</t>
+  </si>
+  <si>
+    <t>$I$15</t>
+  </si>
+  <si>
+    <t>mon optimal</t>
+  </si>
+  <si>
+    <t>$I$15&gt;=$J$15</t>
+  </si>
+  <si>
+    <t>$I$16</t>
+  </si>
+  <si>
+    <t>tue optimal</t>
+  </si>
+  <si>
+    <t>$I$16&gt;=$J$16</t>
+  </si>
+  <si>
+    <t>$I$17</t>
+  </si>
+  <si>
+    <t>wed optimal</t>
+  </si>
+  <si>
+    <t>$I$17&gt;=$J$17</t>
+  </si>
+  <si>
+    <t>$I$18</t>
+  </si>
+  <si>
+    <t>thu optimal</t>
+  </si>
+  <si>
+    <t>$I$18&gt;=$J$18</t>
+  </si>
+  <si>
+    <t>$I$19</t>
+  </si>
+  <si>
+    <t>fri optimal</t>
+  </si>
+  <si>
+    <t>$I$19&gt;=$J$19</t>
+  </si>
+  <si>
+    <t>sat optimal</t>
+  </si>
+  <si>
+    <t>$I$20&gt;=$J$20</t>
+  </si>
+  <si>
+    <t>$B$8&gt;=1</t>
+  </si>
+  <si>
+    <t>$C$8&gt;=1</t>
+  </si>
+  <si>
+    <t>$D$8&gt;=1</t>
+  </si>
+  <si>
+    <t>$E$8&gt;=1</t>
+  </si>
+  <si>
+    <t>$F$8&gt;=1</t>
+  </si>
+  <si>
+    <t>$G$8&gt;=1</t>
+  </si>
+  <si>
+    <t>$H$8&gt;=1</t>
+  </si>
+  <si>
+    <t>$B$8:$H$8=Integer</t>
+  </si>
+  <si>
+    <t>budget:</t>
+  </si>
+  <si>
+    <t>other:</t>
+  </si>
+  <si>
+    <t>value:</t>
+  </si>
+  <si>
+    <t>Report Created: 21/02/2023 4:45:47 PM</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.062 Seconds.</t>
+  </si>
+  <si>
+    <t>value: x1</t>
+  </si>
+  <si>
+    <t>value: x2</t>
+  </si>
+  <si>
+    <t>value: x3</t>
+  </si>
+  <si>
+    <t>value: x4</t>
+  </si>
+  <si>
+    <t>value: x5</t>
+  </si>
+  <si>
+    <t>value: x6</t>
+  </si>
+  <si>
+    <t>value: x7</t>
+  </si>
+  <si>
+    <t>value: x8</t>
+  </si>
+  <si>
+    <t>value: x9</t>
+  </si>
+  <si>
+    <t>value: x10</t>
+  </si>
+  <si>
+    <t>value: x11</t>
+  </si>
+  <si>
+    <t>value: x12</t>
+  </si>
+  <si>
+    <t>value: x13</t>
+  </si>
+  <si>
+    <t>$B$20&gt;=0</t>
+  </si>
+  <si>
+    <t>$C$20&gt;=0</t>
+  </si>
+  <si>
+    <t>$D$20&gt;=0</t>
+  </si>
+  <si>
+    <t>$E$20&gt;=0</t>
+  </si>
+  <si>
+    <t>$F$20&gt;=0</t>
+  </si>
+  <si>
+    <t>$G$20&gt;=0</t>
+  </si>
+  <si>
+    <t>$H$20&gt;=0</t>
+  </si>
+  <si>
+    <t>$I$20&gt;=0</t>
+  </si>
+  <si>
+    <t>$J$20&gt;=0</t>
+  </si>
+  <si>
+    <t>$K$20&gt;=0</t>
+  </si>
+  <si>
+    <t>$L$20&gt;=0</t>
+  </si>
+  <si>
+    <t>$M$20&gt;=0</t>
+  </si>
+  <si>
+    <t>$N$20&gt;=0</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1079,9 +1344,6 @@
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1110,9 +1372,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -1436,7 +1698,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1686,7 +1948,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2026,8 +2288,8 @@
   </sheetPr>
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2096,65 +2358,65 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21" t="s">
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21" t="s">
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="R6" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
     </row>
     <row r="8" spans="1:19" ht="31" x14ac:dyDescent="0.35">
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="16" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -2172,7 +2434,7 @@
       <c r="L8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="21"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="10" t="s">
         <v>69</v>
       </c>
@@ -2182,8 +2444,8 @@
       <c r="P8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -2195,7 +2457,7 @@
       <c r="C9">
         <v>2928</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>232.2</v>
       </c>
       <c r="E9">
@@ -2256,7 +2518,7 @@
       <c r="C10" s="7">
         <v>973</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>67.7</v>
       </c>
       <c r="E10">
@@ -2317,7 +2579,7 @@
       <c r="C11" s="7">
         <v>4206</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>45.5</v>
       </c>
       <c r="E11">
@@ -2378,7 +2640,7 @@
       <c r="C12" s="7">
         <v>413</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>34.5</v>
       </c>
       <c r="E12">
@@ -2439,7 +2701,7 @@
       <c r="C13" s="7">
         <v>1819</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>123.2</v>
       </c>
       <c r="E13">
@@ -2500,7 +2762,7 @@
       <c r="C14" s="7">
         <v>683</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>50.5</v>
       </c>
       <c r="E14">
@@ -2561,7 +2823,7 @@
       <c r="C15" s="7">
         <v>3296</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>270.89999999999998</v>
       </c>
       <c r="E15">
@@ -2622,7 +2884,7 @@
       <c r="C16" s="7">
         <v>792</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>100.8</v>
       </c>
       <c r="E16">
@@ -2683,7 +2945,7 @@
       <c r="C17" s="7">
         <v>1637</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>142.69999999999999</v>
       </c>
       <c r="E17">
@@ -2747,7 +3009,7 @@
       <c r="C18">
         <v>1482</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>97</v>
       </c>
       <c r="E18">
@@ -2808,7 +3070,7 @@
       <c r="C19">
         <v>1640</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>126.3</v>
       </c>
       <c r="E19">
@@ -2869,7 +3131,7 @@
       <c r="C20">
         <v>1539</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>117</v>
       </c>
       <c r="E20">
@@ -2930,7 +3192,7 @@
       <c r="C21">
         <v>204</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="17">
         <v>19.2</v>
       </c>
       <c r="E21">
@@ -2940,11 +3202,11 @@
         <f t="shared" si="0"/>
         <v>27.567567567567565</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="16">
         <f t="shared" ref="G21:L21" si="7">G31</f>
         <v>577</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="16">
         <f t="shared" si="7"/>
         <v>550</v>
       </c>
@@ -2997,7 +3259,7 @@
       <c r="C22">
         <v>706</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="17">
         <v>53.4</v>
       </c>
       <c r="E22">
@@ -3059,7 +3321,7 @@
       <c r="C23">
         <v>1345</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="17">
         <v>105.7</v>
       </c>
       <c r="E23">
@@ -3120,7 +3382,7 @@
       <c r="C24">
         <v>1488</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="17">
         <v>114.4</v>
       </c>
       <c r="E24">
@@ -3181,7 +3443,7 @@
       <c r="C25">
         <v>632</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <v>55.4</v>
       </c>
       <c r="E25">
@@ -3191,11 +3453,11 @@
         <f t="shared" si="0"/>
         <v>22.652329749103945</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <f t="shared" ref="G25:L25" si="9">G31</f>
         <v>577</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="16">
         <f t="shared" si="9"/>
         <v>550</v>
       </c>
@@ -3247,7 +3509,7 @@
       <c r="C26">
         <v>1143</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <v>90.2</v>
       </c>
       <c r="E26">
@@ -3308,7 +3570,7 @@
       <c r="C27">
         <v>1609</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17">
         <v>112.9</v>
       </c>
       <c r="E27">
@@ -3369,7 +3631,7 @@
       <c r="C28">
         <v>609</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="17">
         <v>46.8</v>
       </c>
       <c r="E28">
@@ -3430,7 +3692,7 @@
       <c r="C29">
         <v>2459</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <v>166.8</v>
       </c>
       <c r="E29">
@@ -3491,7 +3753,7 @@
       <c r="C30">
         <v>745</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="17">
         <v>49</v>
       </c>
       <c r="E30">
@@ -3590,7 +3852,7 @@
     </row>
     <row r="33" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -3600,11 +3862,11 @@
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C34" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>111</v>
+      <c r="C34" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -3615,7 +3877,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="4">
         <f>MEDIAN(K9:K17)</f>
@@ -3634,7 +3896,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="4">
         <f>MEDIAN(L9:L17)</f>
@@ -3653,7 +3915,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37">
         <f>MEDIAN(M9:M17)</f>
@@ -3672,7 +3934,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="4" cm="1">
         <f t="array" ref="C38">MEDIAN(C9:C17/D9:D17)</f>
@@ -3691,7 +3953,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" s="4">
         <f>MEDIAN(F9:F17)</f>
@@ -3747,16 +4009,16 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="20" t="s">
         <v>67</v>
       </c>
       <c r="I45" s="1"/>
@@ -3769,16 +4031,16 @@
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="21"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C47" s="21"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -3984,6 +4246,12 @@
     <sortCondition ref="B31:B49"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="G6:L7"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="F6:F8"/>
     <mergeCell ref="Q6:Q8"/>
     <mergeCell ref="N6:P7"/>
     <mergeCell ref="R6:R8"/>
@@ -3991,12 +4259,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="M6:M8"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="G6:L7"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="F6:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4014,8 +4276,8 @@
   </sheetPr>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4038,40 +4300,40 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="23">
+        <v>94</v>
+      </c>
+      <c r="B5" s="22">
         <v>68943</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="23">
+        <v>95</v>
+      </c>
+      <c r="B6" s="22">
         <f>'Task3 Data'!F57</f>
         <v>106656982</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="23">
+        <v>100</v>
+      </c>
+      <c r="B7" s="22">
         <v>40</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8">
         <v>0.25</v>
@@ -4079,7 +4341,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -4123,7 +4385,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2" cm="1">
         <f t="array" ref="B11:N11">TRANSPOSE('Task3 Data'!C18:C30)</f>
@@ -4168,7 +4430,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2" cm="1">
         <f t="array" ref="B12:N12">TRANSPOSE('Task3 Data'!D18:D30)</f>
@@ -4213,7 +4475,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="2" cm="1">
         <f t="array" ref="B13:N13">TRANSPOSE('Task3 Data'!E18:E30)</f>
@@ -4258,62 +4520,62 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="19" cm="1">
+        <v>98</v>
+      </c>
+      <c r="B14" s="18" cm="1">
         <f t="array" ref="B14:N14">TRANSPOSE('Task3 Data'!R18:R30)</f>
         <v>5.0917702782711662E-2</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>4.3812907045589107E-2</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>4.1444641799881589E-2</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>2.6939017169923033E-2</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>0.17702782711663706</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <v>0.1201894612196566</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <v>1.7169923031379514E-2</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <v>3.6412078152753109E-2</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="18">
         <v>0.15334517465956188</v>
       </c>
-      <c r="K14" s="19">
-        <v>0</v>
-      </c>
-      <c r="L14" s="19">
+      <c r="K14" s="18">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
         <v>9.9467140319715805E-2</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="18">
         <v>6.3943161634103018E-2</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="18">
         <v>4.7365304914150384E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="23">
+        <v>92</v>
+      </c>
+      <c r="B16" s="22">
         <f>$B$5*SUM(B20:N20)</f>
         <v>7376901</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -4359,7 +4621,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>309</v>
       </c>
       <c r="B20">
         <v>12</v>
@@ -4411,46 +4673,49 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>307</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <f>$B$5*SUM(B20:N20)</f>
         <v>7376901</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <f>$B$6</f>
         <v>106656982</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="22"/>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>308</v>
+      </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="H27" s="24"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C28" s="2" t="s">
@@ -4633,12 +4898,6 @@
         <v>0</v>
       </c>
       <c r="K34" s="4"/>
-      <c r="O34">
-        <v>107</v>
-      </c>
-      <c r="P34">
-        <v>7376901</v>
-      </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B35">
@@ -4666,20 +4925,8 @@
         <v>0</v>
       </c>
       <c r="K35" s="4"/>
-      <c r="N35">
-        <f>O34-O35</f>
-        <v>19</v>
-      </c>
-      <c r="O35">
-        <v>88</v>
-      </c>
-      <c r="P35" s="7">
-        <v>6066984</v>
-      </c>
-      <c r="Q35" s="7">
-        <f>P34-P35</f>
-        <v>1309917</v>
-      </c>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B36">
@@ -4707,20 +4954,8 @@
         <v>0</v>
       </c>
       <c r="K36" s="4"/>
-      <c r="N36">
-        <f>O35-O36</f>
-        <v>18</v>
-      </c>
-      <c r="O36">
-        <v>70</v>
-      </c>
-      <c r="P36" s="7">
-        <v>4826010</v>
-      </c>
-      <c r="Q36" s="7">
-        <f>P35-P36</f>
-        <v>1240974</v>
-      </c>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B37">
@@ -4874,1195 +5109,2436 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD2B767-A469-4832-8C77-30A9796718BC}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:G78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A32BB2-EE43-4654-BCF2-6680EE5BC0EE}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.08203125" customWidth="1"/>
-    <col min="2" max="2" width="20.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>123</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>125</v>
       </c>
+      <c r="E15" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="28">
+        <v>1.3625</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1.3625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="29">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="E21" s="29">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="29">
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="E22" s="29">
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="28">
+        <v>2.3625000000000003</v>
+      </c>
+      <c r="E23" s="28">
+        <v>2.3625000000000003</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B28" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="29">
+        <v>-3.0000000000000004</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="D29" s="29">
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="27">
+        <v>0.99999999999999956</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="29">
+        <v>518.125</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="27">
+        <v>481.875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="29">
+        <v>3.3624999999999989</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="27">
+        <v>21.637500000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D32" s="29">
+        <v>0</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D33" s="29">
+        <v>-0.62937500000000024</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="27">
+        <v>0.62937500000000024</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="29">
+        <v>-9.9999999999999867E-2</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="29">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35" s="29">
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="29">
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="29">
+        <v>9.9999999999999867E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="28">
+        <v>2.3625000000000003</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="28">
+        <v>2.3625000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2175D310-630A-4029-A704-812FE4CFCDA4}">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.08203125" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="27" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="28">
+        <v>22410</v>
+      </c>
+      <c r="E16" s="28">
+        <v>22410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="27" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="27" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="29">
+        <v>5</v>
+      </c>
+      <c r="E21" s="29">
+        <v>5</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="29">
+        <v>8</v>
+      </c>
+      <c r="E22" s="29">
+        <v>8</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="29">
+        <v>3</v>
+      </c>
+      <c r="E23" s="29">
+        <v>3</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="29">
+        <v>1</v>
+      </c>
+      <c r="E24" s="29">
+        <v>1</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="29">
+        <v>4</v>
+      </c>
+      <c r="E25" s="29">
+        <v>4</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="29">
+        <v>2</v>
+      </c>
+      <c r="E26" s="29">
+        <v>2</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="28">
+        <v>3</v>
+      </c>
+      <c r="E27" s="28">
+        <v>3</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>129</v>
       </c>
     </row>
+    <row r="31" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" s="29">
+        <v>18</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D33" s="29">
+        <v>13</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" s="29">
+        <v>15</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="D35" s="29">
+        <v>22</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="D36" s="29">
+        <v>21</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G36" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D37" s="29">
+        <v>20</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="D38" s="29">
+        <v>21</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="29">
+        <v>5</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="29">
+        <v>8</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="29">
+        <v>3</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B42" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="29">
+        <v>1</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G42" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="29">
+        <v>4</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="29">
+        <v>2</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="29">
+        <v>3</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE888D2F-0992-4C9C-9269-B58A684E6DB1}">
+  <dimension ref="A1:G91"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.08203125" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="29">
+      <c r="B16" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="30">
         <v>7376901</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="30">
         <v>7376901</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="27" t="s">
+      <c r="F20" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="28" t="s">
+      <c r="B21" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" s="29">
+        <v>12</v>
+      </c>
+      <c r="E21" s="29">
+        <v>12</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" s="29">
+        <v>8</v>
+      </c>
+      <c r="E22" s="29">
+        <v>8</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="30">
-        <v>12</v>
-      </c>
-      <c r="E21" s="30">
-        <v>12</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="28" t="s">
+      <c r="C23" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="29">
+        <v>5</v>
+      </c>
+      <c r="E23" s="29">
+        <v>5</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="30">
-        <v>8</v>
-      </c>
-      <c r="E22" s="30">
-        <v>8</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="28" t="s">
+      <c r="C24" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="29">
+        <v>3</v>
+      </c>
+      <c r="E24" s="29">
+        <v>3</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="30">
-        <v>5</v>
-      </c>
-      <c r="E23" s="30">
-        <v>5</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="28" t="s">
+      <c r="C25" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="D25" s="29">
+        <v>19</v>
+      </c>
+      <c r="E25" s="29">
+        <v>19</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="30">
-        <v>3</v>
-      </c>
-      <c r="E24" s="30">
-        <v>3</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="28" t="s">
+      <c r="C26" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="D26" s="29">
+        <v>13</v>
+      </c>
+      <c r="E26" s="29">
+        <v>13</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="30">
-        <v>19</v>
-      </c>
-      <c r="E25" s="30">
-        <v>19</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="28" t="s">
+      <c r="C27" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" s="29">
+        <v>2</v>
+      </c>
+      <c r="E27" s="29">
+        <v>2</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="30">
-        <v>13</v>
-      </c>
-      <c r="E26" s="30">
-        <v>13</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="28" t="s">
+      <c r="C28" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D28" s="29">
+        <v>4</v>
+      </c>
+      <c r="E28" s="29">
+        <v>4</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C29" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="D29" s="29">
+        <v>17</v>
+      </c>
+      <c r="E29" s="29">
+        <v>17</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="30">
-        <v>2</v>
-      </c>
-      <c r="E27" s="30">
-        <v>2</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="28" t="s">
+      <c r="C30" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="D30" s="29">
+        <v>0</v>
+      </c>
+      <c r="E30" s="29">
+        <v>0</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C31" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="29">
+        <v>11</v>
+      </c>
+      <c r="E31" s="29">
+        <v>11</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="30">
-        <v>4</v>
-      </c>
-      <c r="E28" s="30">
-        <v>4</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="28" t="s">
+      <c r="C32" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="D32" s="29">
+        <v>7</v>
+      </c>
+      <c r="E32" s="29">
+        <v>7</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="30">
-        <v>17</v>
-      </c>
-      <c r="E29" s="30">
-        <v>17</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="30">
-        <v>0</v>
-      </c>
-      <c r="E30" s="30">
-        <v>0</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="30">
-        <v>11</v>
-      </c>
-      <c r="E31" s="30">
-        <v>11</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="30">
-        <v>7</v>
-      </c>
-      <c r="E32" s="30">
-        <v>7</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="31">
+      <c r="C33" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" s="28">
         <v>6</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="28">
         <v>6</v>
       </c>
-      <c r="F33" s="26" t="s">
-        <v>131</v>
+      <c r="F33" s="25" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="26" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="27" t="s">
+      <c r="G37" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="27" t="s">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="31">
+        <v>7376901</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="27">
+        <v>99280081</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="32">
+        <v>-22</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="32">
+        <v>-20</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="32">
+        <v>-441</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="27">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B42" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="32">
+        <v>-212</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G42" s="27">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="32">
+        <v>-2286</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" s="27">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="32">
+        <v>-859</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="27">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="32">
+        <v>-12</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="32">
+        <v>-644</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" s="27">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="32">
+        <v>-1681</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="27">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B48" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="32">
+        <v>-283</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="27">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="32">
+        <v>-747</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="27">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="32">
+        <v>-649</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G50" s="27">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="32">
+        <v>-159</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G51" s="27">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="32">
+        <v>6.5518058022498522</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G52" s="32">
+        <v>6.5518058022498522</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="32">
+        <v>3.3120189461219658</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G53" s="32">
+        <v>3.3120189461219658</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="32">
+        <v>0.56542332741267032</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G54" s="32">
+        <v>0.56542332741267032</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B55" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="32">
+        <v>0.11752516281823544</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G55" s="32">
+        <v>0.11752516281823544</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B56" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="32">
+        <v>5.8022498519836319E-2</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" s="32">
+        <v>5.8022498519836319E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="32">
+        <v>0.13972764949674499</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G57" s="32">
+        <v>0.13972764949674499</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="32">
+        <v>0.16281823564239195</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G58" s="32">
+        <v>0.16281823564239195</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="32">
+        <v>0.10390763765541733</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" s="32">
+        <v>0.10390763765541733</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="32">
+        <v>0.59206631142687982</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G60" s="32">
+        <v>0.59206631142687982</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="32">
+        <v>0</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G61" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B62" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="32">
+        <v>0.35701598579040805</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G62" s="32">
+        <v>0.35701598579040805</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B63" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="32">
+        <v>0.15808170515097686</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G63" s="32">
+        <v>0.15808170515097686</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B64" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="32">
+        <v>0.93191237418590855</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G64" s="32">
+        <v>0.93191237418590855</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B65" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="29">
+        <v>-18.649999999999999</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G65" s="27">
+        <v>18.649999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B66" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="29">
+        <v>-31.950000000000003</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G66" s="27">
+        <v>31.950000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B67" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="29">
+        <v>-35.375</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G67" s="27">
+        <v>35.375</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="29">
+        <v>-3.6500000000000004</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G68" s="27">
+        <v>3.6500000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B69" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="29">
+        <v>-8.2999999999999972</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G69" s="27">
+        <v>8.2999999999999972</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B70" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="29">
+        <v>-23.950000000000003</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G70" s="27">
+        <v>23.950000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B71" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="29">
+        <v>-35.475000000000001</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G71" s="27">
+        <v>35.475000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B72" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="29">
+        <v>-16.824999999999999</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G72" s="27">
+        <v>16.824999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B73" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="29">
+        <v>-18.950000000000003</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G73" s="27">
+        <v>18.950000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B74" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="29">
+        <v>-40.049999999999997</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G74" s="27">
+        <v>40.049999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B75" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="29">
+        <v>-6.4249999999999972</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G75" s="27">
+        <v>6.4249999999999972</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B76" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="29">
+        <v>-52.375</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G76" s="27">
+        <v>52.375</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B77" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="29">
+        <v>-10.399999999999999</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G77" s="27">
+        <v>10.399999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B78" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="G37" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="32">
-        <v>7376901</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" s="28">
-        <v>99280081</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="33">
-        <v>-22</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G39" s="28">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="33">
-        <v>-20</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G40" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="33">
-        <v>-441</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G41" s="28">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="33">
-        <v>-212</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G42" s="28">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="33">
-        <v>-2286</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G43" s="28">
-        <v>2286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B44" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="33">
-        <v>-859</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G44" s="28">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B45" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="33">
-        <v>-12</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G45" s="28">
+      <c r="C78" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="D78" s="29">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B46" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="33">
-        <v>-644</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G46" s="28">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B47" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="33">
-        <v>-1681</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G47" s="28">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B48" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="33">
-        <v>-283</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G48" s="28">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B49" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="33">
-        <v>-747</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G49" s="28">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B50" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="33">
-        <v>-649</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G50" s="28">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B51" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="33">
-        <v>-159</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G51" s="28">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B52" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="33">
-        <v>6.5518058022498522</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G52" s="33">
-        <v>6.5518058022498522</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B53" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="33">
-        <v>3.3120189461219658</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G53" s="33">
-        <v>3.3120189461219658</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B54" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="33">
-        <v>0.56542332741267032</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G54" s="33">
-        <v>0.56542332741267032</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B55" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="33">
-        <v>0.11752516281823544</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G55" s="33">
-        <v>0.11752516281823544</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B56" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="33">
-        <v>5.8022498519836319E-2</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G56" s="33">
-        <v>5.8022498519836319E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B57" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="33">
-        <v>0.13972764949674499</v>
-      </c>
-      <c r="E57" s="28" t="s">
+      <c r="E78" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="F78" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="F57" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G57" s="33">
-        <v>0.13972764949674499</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B58" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="33">
-        <v>0.16281823564239195</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="F58" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G58" s="33">
-        <v>0.16281823564239195</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B59" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="33">
-        <v>0.10390763765541733</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="F59" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G59" s="33">
-        <v>0.10390763765541733</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B60" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="33">
-        <v>0.59206631142687982</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="F60" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G60" s="33">
-        <v>0.59206631142687982</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B61" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="33">
-        <v>0</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="G61" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B62" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="33">
-        <v>0.35701598579040805</v>
-      </c>
-      <c r="E62" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G62" s="33">
-        <v>0.35701598579040805</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B63" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="33">
-        <v>0.15808170515097686</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="F63" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G63" s="33">
-        <v>0.15808170515097686</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B64" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64" s="33">
-        <v>0.93191237418590855</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="F64" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G64" s="33">
-        <v>0.93191237418590855</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B65" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="30">
-        <v>-18.649999999999999</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="F65" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G65" s="28">
-        <v>18.649999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B66" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" s="30">
-        <v>-31.950000000000003</v>
-      </c>
-      <c r="E66" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="F66" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G66" s="28">
-        <v>31.950000000000003</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B67" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="30">
-        <v>-35.375</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="F67" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G67" s="28">
-        <v>35.375</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B68" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="30">
-        <v>-3.6500000000000004</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="F68" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G68" s="28">
-        <v>3.6500000000000004</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B69" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="30">
-        <v>-8.2999999999999972</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="F69" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G69" s="28">
-        <v>8.2999999999999972</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B70" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="30">
-        <v>-23.950000000000003</v>
-      </c>
-      <c r="E70" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="F70" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G70" s="28">
-        <v>23.950000000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B71" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C71" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="30">
-        <v>-35.475000000000001</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="F71" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G71" s="28">
-        <v>35.475000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B72" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="30">
-        <v>-16.824999999999999</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G72" s="28">
-        <v>16.824999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B73" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="30">
-        <v>-18.950000000000003</v>
-      </c>
-      <c r="E73" s="28" t="s">
+      <c r="G78" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B79" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D79" s="29">
+        <v>8</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G79" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B80" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="D80" s="29">
+        <v>5</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G80" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B81" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="D81" s="29">
+        <v>3</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G81" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B82" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="D82" s="29">
+        <v>19</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="F82" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G82" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B83" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="D83" s="29">
+        <v>13</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="F83" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G83" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B84" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="D84" s="29">
+        <v>2</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="F84" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G84" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B85" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D85" s="29">
+        <v>4</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G85" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B86" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="D86" s="29">
+        <v>17</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="F86" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G86" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B87" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="D87" s="29">
+        <v>0</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="F87" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G87" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B88" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="D88" s="29">
+        <v>11</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G88" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B89" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="D89" s="29">
+        <v>7</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G89" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B90" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="D90" s="29">
+        <v>6</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G90" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B91" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="F73" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G73" s="28">
-        <v>18.950000000000003</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B74" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" s="30">
-        <v>-40.049999999999997</v>
-      </c>
-      <c r="E74" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G74" s="28">
-        <v>40.049999999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B75" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="30">
-        <v>-6.4249999999999972</v>
-      </c>
-      <c r="E75" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="F75" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G75" s="28">
-        <v>6.4249999999999972</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B76" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="30">
-        <v>-52.375</v>
-      </c>
-      <c r="E76" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="F76" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G76" s="28">
-        <v>52.375</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B77" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="30">
-        <v>-10.399999999999999</v>
-      </c>
-      <c r="E77" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F77" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G77" s="28">
-        <v>10.399999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
